--- a/data/nzd0008/nzd0008.xlsx
+++ b/data/nzd0008/nzd0008.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ210"/>
+  <dimension ref="A1:AJ213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22260,6 +22260,346 @@
         </is>
       </c>
     </row>
+    <row r="211">
+      <c r="A211" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>374.42</v>
+      </c>
+      <c r="C211" t="n">
+        <v>354.16</v>
+      </c>
+      <c r="D211" t="n">
+        <v>339.05</v>
+      </c>
+      <c r="E211" t="n">
+        <v>347.91</v>
+      </c>
+      <c r="F211" t="n">
+        <v>360.8</v>
+      </c>
+      <c r="G211" t="n">
+        <v>381.93</v>
+      </c>
+      <c r="H211" t="n">
+        <v>381.26</v>
+      </c>
+      <c r="I211" t="n">
+        <v>373.79</v>
+      </c>
+      <c r="J211" t="n">
+        <v>376.83</v>
+      </c>
+      <c r="K211" t="n">
+        <v>370.47</v>
+      </c>
+      <c r="L211" t="n">
+        <v>366.94</v>
+      </c>
+      <c r="M211" t="n">
+        <v>366.1</v>
+      </c>
+      <c r="N211" t="n">
+        <v>375.71</v>
+      </c>
+      <c r="O211" t="n">
+        <v>390.14</v>
+      </c>
+      <c r="P211" t="n">
+        <v>397.22</v>
+      </c>
+      <c r="Q211" t="n">
+        <v>395.47</v>
+      </c>
+      <c r="R211" t="n">
+        <v>400.38</v>
+      </c>
+      <c r="S211" t="n">
+        <v>399.3</v>
+      </c>
+      <c r="T211" t="n">
+        <v>402.17</v>
+      </c>
+      <c r="U211" t="n">
+        <v>399.95</v>
+      </c>
+      <c r="V211" t="n">
+        <v>402.93</v>
+      </c>
+      <c r="W211" t="n">
+        <v>403.78</v>
+      </c>
+      <c r="X211" t="n">
+        <v>399.73</v>
+      </c>
+      <c r="Y211" t="n">
+        <v>391.44</v>
+      </c>
+      <c r="Z211" t="n">
+        <v>384.87</v>
+      </c>
+      <c r="AA211" t="n">
+        <v>376.65</v>
+      </c>
+      <c r="AB211" t="n">
+        <v>375.62</v>
+      </c>
+      <c r="AC211" t="n">
+        <v>370.79</v>
+      </c>
+      <c r="AD211" t="n">
+        <v>371.72</v>
+      </c>
+      <c r="AE211" t="n">
+        <v>368.32</v>
+      </c>
+      <c r="AF211" t="n">
+        <v>343.5</v>
+      </c>
+      <c r="AG211" t="n">
+        <v>330.5</v>
+      </c>
+      <c r="AH211" t="n">
+        <v>330.89</v>
+      </c>
+      <c r="AI211" t="n">
+        <v>319.5</v>
+      </c>
+      <c r="AJ211" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-05 22:17:39+00:00</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>405.0066666666667</v>
+      </c>
+      <c r="C212" t="n">
+        <v>360.6566666666667</v>
+      </c>
+      <c r="D212" t="n">
+        <v>347.44</v>
+      </c>
+      <c r="E212" t="n">
+        <v>352.2828571428572</v>
+      </c>
+      <c r="F212" t="n">
+        <v>371.4866666666667</v>
+      </c>
+      <c r="G212" t="n">
+        <v>392.37</v>
+      </c>
+      <c r="H212" t="n">
+        <v>388.9266666666667</v>
+      </c>
+      <c r="I212" t="n">
+        <v>394.2766666666667</v>
+      </c>
+      <c r="J212" t="n">
+        <v>375.2566666666667</v>
+      </c>
+      <c r="K212" t="n">
+        <v>351.1928571428572</v>
+      </c>
+      <c r="L212" t="n">
+        <v>340.9966666666667</v>
+      </c>
+      <c r="M212" t="n">
+        <v>354.8866666666667</v>
+      </c>
+      <c r="N212" t="n">
+        <v>373.6028571428572</v>
+      </c>
+      <c r="O212" t="n">
+        <v>392.9028571428572</v>
+      </c>
+      <c r="P212" t="n">
+        <v>397.0528571428572</v>
+      </c>
+      <c r="Q212" t="n">
+        <v>399.7928571428571</v>
+      </c>
+      <c r="R212" t="n">
+        <v>406.0628571428572</v>
+      </c>
+      <c r="S212" t="n">
+        <v>401.4728571428572</v>
+      </c>
+      <c r="T212" t="n">
+        <v>391.2528571428572</v>
+      </c>
+      <c r="U212" t="n">
+        <v>394.7528571428572</v>
+      </c>
+      <c r="V212" t="n">
+        <v>397.1566666666667</v>
+      </c>
+      <c r="W212" t="n">
+        <v>391.7266666666667</v>
+      </c>
+      <c r="X212" t="n">
+        <v>386.1866666666667</v>
+      </c>
+      <c r="Y212" t="n">
+        <v>391.0266666666667</v>
+      </c>
+      <c r="Z212" t="n">
+        <v>402.4628571428572</v>
+      </c>
+      <c r="AA212" t="n">
+        <v>393.78</v>
+      </c>
+      <c r="AB212" t="n">
+        <v>372.9428571428572</v>
+      </c>
+      <c r="AC212" t="n">
+        <v>379.3828571428572</v>
+      </c>
+      <c r="AD212" t="n">
+        <v>371.1428571428572</v>
+      </c>
+      <c r="AE212" t="n">
+        <v>364.5028571428572</v>
+      </c>
+      <c r="AF212" t="n">
+        <v>329.7128571428572</v>
+      </c>
+      <c r="AG212" t="n">
+        <v>325.1544444444444</v>
+      </c>
+      <c r="AH212" t="n">
+        <v>352.0628571428572</v>
+      </c>
+      <c r="AI212" t="inlineStr"/>
+      <c r="AJ212" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:17:46+00:00</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>385.8966666666667</v>
+      </c>
+      <c r="C213" t="n">
+        <v>362.6666666666667</v>
+      </c>
+      <c r="D213" t="n">
+        <v>351.21</v>
+      </c>
+      <c r="E213" t="n">
+        <v>362.4542857142857</v>
+      </c>
+      <c r="F213" t="n">
+        <v>369.9166666666667</v>
+      </c>
+      <c r="G213" t="n">
+        <v>393.54</v>
+      </c>
+      <c r="H213" t="n">
+        <v>399.2266666666667</v>
+      </c>
+      <c r="I213" t="n">
+        <v>386.4466666666667</v>
+      </c>
+      <c r="J213" t="n">
+        <v>388.4066666666667</v>
+      </c>
+      <c r="K213" t="n">
+        <v>377.6242857142857</v>
+      </c>
+      <c r="L213" t="n">
+        <v>370.4266666666667</v>
+      </c>
+      <c r="M213" t="n">
+        <v>364.6766666666667</v>
+      </c>
+      <c r="N213" t="n">
+        <v>378.2542857142857</v>
+      </c>
+      <c r="O213" t="n">
+        <v>381.9342857142857</v>
+      </c>
+      <c r="P213" t="n">
+        <v>389.5742857142857</v>
+      </c>
+      <c r="Q213" t="n">
+        <v>405.0842857142857</v>
+      </c>
+      <c r="R213" t="n">
+        <v>412.7142857142857</v>
+      </c>
+      <c r="S213" t="n">
+        <v>407.5542857142857</v>
+      </c>
+      <c r="T213" t="n">
+        <v>410.0842857142857</v>
+      </c>
+      <c r="U213" t="n">
+        <v>408.0742857142857</v>
+      </c>
+      <c r="V213" t="n">
+        <v>413.1766666666667</v>
+      </c>
+      <c r="W213" t="n">
+        <v>414.9266666666667</v>
+      </c>
+      <c r="X213" t="n">
+        <v>414.4866666666667</v>
+      </c>
+      <c r="Y213" t="n">
+        <v>408.2966666666667</v>
+      </c>
+      <c r="Z213" t="n">
+        <v>402.0642857142857</v>
+      </c>
+      <c r="AA213" t="n">
+        <v>386.51</v>
+      </c>
+      <c r="AB213" t="n">
+        <v>386.0942857142857</v>
+      </c>
+      <c r="AC213" t="n">
+        <v>383.1042857142857</v>
+      </c>
+      <c r="AD213" t="n">
+        <v>381.3142857142857</v>
+      </c>
+      <c r="AE213" t="n">
+        <v>379.4742857142857</v>
+      </c>
+      <c r="AF213" t="n">
+        <v>353.8942857142857</v>
+      </c>
+      <c r="AG213" t="n">
+        <v>338.8377777777778</v>
+      </c>
+      <c r="AH213" t="n">
+        <v>344.7942857142857</v>
+      </c>
+      <c r="AI213" t="n">
+        <v>328.94</v>
+      </c>
+      <c r="AJ213" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22271,7 +22611,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B211"/>
+  <dimension ref="A1:B214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24389,6 +24729,36 @@
       </c>
       <c r="B211" t="n">
         <v>-0.65</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>2025-02-05 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>-0.52</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>
@@ -24557,28 +24927,28 @@
         <v>0.0366</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.4351599899225891</v>
+        <v>-0.3707578411663991</v>
       </c>
       <c r="J2" t="n">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K2" t="n">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0347598654436766</v>
+        <v>0.0256291595201249</v>
       </c>
       <c r="M2" t="n">
-        <v>14.09833815074329</v>
+        <v>14.18553415875686</v>
       </c>
       <c r="N2" t="n">
-        <v>326.7908086970613</v>
+        <v>331.207021322546</v>
       </c>
       <c r="O2" t="n">
-        <v>18.07735624191384</v>
+        <v>18.1990939698257</v>
       </c>
       <c r="P2" t="n">
-        <v>378.0278877075619</v>
+        <v>377.4880192129552</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -24634,28 +25004,28 @@
         <v>0.0307</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.4565412291355193</v>
+        <v>-0.4249582320157644</v>
       </c>
       <c r="J3" t="n">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K3" t="n">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06077817283758302</v>
+        <v>0.05439105452127735</v>
       </c>
       <c r="M3" t="n">
-        <v>11.50324100479132</v>
+        <v>11.47352162354853</v>
       </c>
       <c r="N3" t="n">
-        <v>206.1640598322097</v>
+        <v>204.8008389135761</v>
       </c>
       <c r="O3" t="n">
-        <v>14.35841425200602</v>
+        <v>14.31086436640276</v>
       </c>
       <c r="P3" t="n">
-        <v>360.0336161009885</v>
+        <v>359.7746085130032</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -24711,28 +25081,28 @@
         <v>0.0455</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.4080101260465666</v>
+        <v>-0.392359609504671</v>
       </c>
       <c r="J4" t="n">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K4" t="n">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06946365291559475</v>
+        <v>0.06638594436744327</v>
       </c>
       <c r="M4" t="n">
-        <v>9.782391243364073</v>
+        <v>9.724174934043111</v>
       </c>
       <c r="N4" t="n">
-        <v>142.5066284276554</v>
+        <v>141.053357697221</v>
       </c>
       <c r="O4" t="n">
-        <v>11.93761401736777</v>
+        <v>11.876588638882</v>
       </c>
       <c r="P4" t="n">
-        <v>350.9630157438889</v>
+        <v>350.8351919313037</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -24788,28 +25158,28 @@
         <v>0.0359</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.3635467521164913</v>
+        <v>-0.3361434348487783</v>
       </c>
       <c r="J5" t="n">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K5" t="n">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05070413474333912</v>
+        <v>0.04467443240632107</v>
       </c>
       <c r="M5" t="n">
-        <v>10.25119287584026</v>
+        <v>10.22166784976582</v>
       </c>
       <c r="N5" t="n">
-        <v>156.8319789062981</v>
+        <v>156.195424482431</v>
       </c>
       <c r="O5" t="n">
-        <v>12.5232575197629</v>
+        <v>12.49781678864076</v>
       </c>
       <c r="P5" t="n">
-        <v>354.2578255297706</v>
+        <v>354.0329671656781</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -24865,28 +25235,28 @@
         <v>0.0305</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.5114533158503545</v>
+        <v>-0.4588038451572161</v>
       </c>
       <c r="J6" t="n">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K6" t="n">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="L6" t="n">
-        <v>0.07110208809441998</v>
+        <v>0.05873990488776204</v>
       </c>
       <c r="M6" t="n">
-        <v>11.73863087511487</v>
+        <v>11.80781752075254</v>
       </c>
       <c r="N6" t="n">
-        <v>213.8950453952789</v>
+        <v>215.5506555068086</v>
       </c>
       <c r="O6" t="n">
-        <v>14.62515112384412</v>
+        <v>14.68164348793447</v>
       </c>
       <c r="P6" t="n">
-        <v>362.7767536421922</v>
+        <v>362.3465658620285</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -24942,28 +25312,28 @@
         <v>0.0264</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.4327496177075975</v>
+        <v>-0.3574383071472003</v>
       </c>
       <c r="J7" t="n">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K7" t="n">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03741473797048112</v>
+        <v>0.02588506080131603</v>
       </c>
       <c r="M7" t="n">
-        <v>13.79198848003378</v>
+        <v>13.94819027815143</v>
       </c>
       <c r="N7" t="n">
-        <v>306.3390613914561</v>
+        <v>311.8037161222449</v>
       </c>
       <c r="O7" t="n">
-        <v>17.50254442621004</v>
+        <v>17.65796466533572</v>
       </c>
       <c r="P7" t="n">
-        <v>374.8190861098514</v>
+        <v>374.2046443928451</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -25019,28 +25389,28 @@
         <v>0.0322</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.4338879268810507</v>
+        <v>-0.3443258302960161</v>
       </c>
       <c r="J8" t="n">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K8" t="n">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L8" t="n">
-        <v>0.05502056727796978</v>
+        <v>0.03417843532814147</v>
       </c>
       <c r="M8" t="n">
-        <v>11.39775032045187</v>
+        <v>11.72652944776161</v>
       </c>
       <c r="N8" t="n">
-        <v>205.6022817377827</v>
+        <v>217.2863013741029</v>
       </c>
       <c r="O8" t="n">
-        <v>14.33883822831483</v>
+        <v>14.74063436131915</v>
       </c>
       <c r="P8" t="n">
-        <v>370.5406599112726</v>
+        <v>369.8097420691184</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -25096,28 +25466,28 @@
         <v>0.0316</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.6700190475544621</v>
+        <v>-0.5714952312442458</v>
       </c>
       <c r="J9" t="n">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K9" t="n">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="L9" t="n">
-        <v>0.090972731352856</v>
+        <v>0.0663719099929847</v>
       </c>
       <c r="M9" t="n">
-        <v>13.6911093314045</v>
+        <v>13.95163668376503</v>
       </c>
       <c r="N9" t="n">
-        <v>286.6213259759742</v>
+        <v>299.6208064069812</v>
       </c>
       <c r="O9" t="n">
-        <v>16.92989444668732</v>
+        <v>17.30955823835436</v>
       </c>
       <c r="P9" t="n">
-        <v>369.5538448546263</v>
+        <v>368.7547650077769</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -25173,28 +25543,28 @@
         <v>0.0333</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.7083176729002227</v>
+        <v>-0.6473987107470905</v>
       </c>
       <c r="J10" t="n">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K10" t="n">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1164589680809976</v>
+        <v>0.09980372432360363</v>
       </c>
       <c r="M10" t="n">
-        <v>12.72298085161106</v>
+        <v>12.82809327062963</v>
       </c>
       <c r="N10" t="n">
-        <v>242.5468480524105</v>
+        <v>245.5681390616854</v>
       </c>
       <c r="O10" t="n">
-        <v>15.57391563006589</v>
+        <v>15.67061386996966</v>
       </c>
       <c r="P10" t="n">
-        <v>377.987447151755</v>
+        <v>377.4845133968935</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -25250,28 +25620,28 @@
         <v>0.0393</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.7076583036795792</v>
+        <v>-0.6974428682779845</v>
       </c>
       <c r="J11" t="n">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K11" t="n">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1138638090648777</v>
+        <v>0.1136722413499861</v>
       </c>
       <c r="M11" t="n">
-        <v>12.1139140932871</v>
+        <v>12.09703981568012</v>
       </c>
       <c r="N11" t="n">
-        <v>242.9664590974398</v>
+        <v>241.040507328379</v>
       </c>
       <c r="O11" t="n">
-        <v>15.58738140604251</v>
+        <v>15.52547929464269</v>
       </c>
       <c r="P11" t="n">
-        <v>381.2141459647569</v>
+        <v>381.1270872709387</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -25327,28 +25697,28 @@
         <v>0.0365</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.7877146806156413</v>
+        <v>-0.8002469911846388</v>
       </c>
       <c r="J12" t="n">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K12" t="n">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1150776770189034</v>
+        <v>0.1211179401559995</v>
       </c>
       <c r="M12" t="n">
-        <v>13.87081040036001</v>
+        <v>13.82405318356031</v>
       </c>
       <c r="N12" t="n">
-        <v>295.7258977675451</v>
+        <v>293.8172304293366</v>
       </c>
       <c r="O12" t="n">
-        <v>17.19668275475085</v>
+        <v>17.14109770199495</v>
       </c>
       <c r="P12" t="n">
-        <v>383.4492679536752</v>
+        <v>383.555813391334</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -25404,28 +25774,28 @@
         <v>0.0316</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.057480341047815</v>
+        <v>-1.066222940783831</v>
       </c>
       <c r="J13" t="n">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K13" t="n">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1894719739452274</v>
+        <v>0.1974456695126108</v>
       </c>
       <c r="M13" t="n">
-        <v>13.82556475111009</v>
+        <v>13.64841342236313</v>
       </c>
       <c r="N13" t="n">
-        <v>300.5756560577283</v>
+        <v>295.8665055550136</v>
       </c>
       <c r="O13" t="n">
-        <v>17.33711787056108</v>
+        <v>17.20077049306262</v>
       </c>
       <c r="P13" t="n">
-        <v>391.6159690130128</v>
+        <v>391.6901285224819</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -25481,28 +25851,28 @@
         <v>0.038</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.9797966736450753</v>
+        <v>-0.963780733963314</v>
       </c>
       <c r="J14" t="n">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K14" t="n">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2328250274297898</v>
+        <v>0.2327320665119408</v>
       </c>
       <c r="M14" t="n">
-        <v>11.39481531431618</v>
+        <v>11.29169288054399</v>
       </c>
       <c r="N14" t="n">
-        <v>201.991782249279</v>
+        <v>199.0186927096149</v>
       </c>
       <c r="O14" t="n">
-        <v>14.21238130115003</v>
+        <v>14.10739850963369</v>
       </c>
       <c r="P14" t="n">
-        <v>395.4763986337994</v>
+        <v>395.3414943451946</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -25558,28 +25928,28 @@
         <v>0.0409</v>
       </c>
       <c r="I15" t="n">
-        <v>-1.153482273199065</v>
+        <v>-1.098780676575551</v>
       </c>
       <c r="J15" t="n">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K15" t="n">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L15" t="n">
-        <v>0.2544662643258331</v>
+        <v>0.2387530310546674</v>
       </c>
       <c r="M15" t="n">
-        <v>12.25801177610797</v>
+        <v>12.3515744517373</v>
       </c>
       <c r="N15" t="n">
-        <v>233.2242547696349</v>
+        <v>234.3975850810889</v>
       </c>
       <c r="O15" t="n">
-        <v>15.27168146503963</v>
+        <v>15.31004850028533</v>
       </c>
       <c r="P15" t="n">
-        <v>400.6032498519021</v>
+        <v>400.1097210140822</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -25635,28 +26005,28 @@
         <v>0.0396</v>
       </c>
       <c r="I16" t="n">
-        <v>-1.072976370305831</v>
+        <v>-1.015722578350186</v>
       </c>
       <c r="J16" t="n">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K16" t="n">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L16" t="n">
-        <v>0.2479856701178246</v>
+        <v>0.2295271095840201</v>
       </c>
       <c r="M16" t="n">
-        <v>11.65116640798128</v>
+        <v>11.77476857496992</v>
       </c>
       <c r="N16" t="n">
-        <v>210.4142870079602</v>
+        <v>212.3849808038461</v>
       </c>
       <c r="O16" t="n">
-        <v>14.50566396301666</v>
+        <v>14.57343407724638</v>
       </c>
       <c r="P16" t="n">
-        <v>403.9340423038876</v>
+        <v>403.4200618981678</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -25712,28 +26082,28 @@
         <v>0.0373</v>
       </c>
       <c r="I17" t="n">
-        <v>-1.152952686436678</v>
+        <v>-1.088583053551325</v>
       </c>
       <c r="J17" t="n">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K17" t="n">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="L17" t="n">
-        <v>0.3149522690776656</v>
+        <v>0.2891485036661119</v>
       </c>
       <c r="M17" t="n">
-        <v>10.88842423476406</v>
+        <v>11.07810744722159</v>
       </c>
       <c r="N17" t="n">
-        <v>181.4513343508237</v>
+        <v>186.1006364078337</v>
       </c>
       <c r="O17" t="n">
-        <v>13.47038731257656</v>
+        <v>13.64187070778175</v>
       </c>
       <c r="P17" t="n">
-        <v>407.9400259327439</v>
+        <v>407.3911441858785</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -25789,28 +26159,28 @@
         <v>0.038</v>
       </c>
       <c r="I18" t="n">
-        <v>-1.247203564506136</v>
+        <v>-1.162460426763717</v>
       </c>
       <c r="J18" t="n">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K18" t="n">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L18" t="n">
-        <v>0.3467967504727379</v>
+        <v>0.3078830962598501</v>
       </c>
       <c r="M18" t="n">
-        <v>11.10774599320597</v>
+        <v>11.37979398772298</v>
       </c>
       <c r="N18" t="n">
-        <v>183.0717049860137</v>
+        <v>193.2858619290463</v>
       </c>
       <c r="O18" t="n">
-        <v>13.53039929144789</v>
+        <v>13.90272857855775</v>
       </c>
       <c r="P18" t="n">
-        <v>409.6593983423041</v>
+        <v>408.9387970049916</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -25866,28 +26236,28 @@
         <v>0.0374</v>
       </c>
       <c r="I19" t="n">
-        <v>-1.255324524833817</v>
+        <v>-1.183301822332389</v>
       </c>
       <c r="J19" t="n">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K19" t="n">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="L19" t="n">
-        <v>0.3431870803988393</v>
+        <v>0.3139615537846137</v>
       </c>
       <c r="M19" t="n">
-        <v>11.29187488777835</v>
+        <v>11.50372973066345</v>
       </c>
       <c r="N19" t="n">
-        <v>191.2389622756627</v>
+        <v>197.5877673574244</v>
       </c>
       <c r="O19" t="n">
-        <v>13.8289176104156</v>
+        <v>14.05659159815865</v>
       </c>
       <c r="P19" t="n">
-        <v>410.4979164772511</v>
+        <v>409.8949063346976</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -25943,28 +26313,28 @@
         <v>0.0365</v>
       </c>
       <c r="I20" t="n">
-        <v>-1.11700665487606</v>
+        <v>-1.053877071958405</v>
       </c>
       <c r="J20" t="n">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K20" t="n">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="L20" t="n">
-        <v>0.2475539506026463</v>
+        <v>0.2267557002288935</v>
       </c>
       <c r="M20" t="n">
-        <v>12.83652390634364</v>
+        <v>13.00059073895295</v>
       </c>
       <c r="N20" t="n">
-        <v>244.3823927604607</v>
+        <v>248.5755848824361</v>
       </c>
       <c r="O20" t="n">
-        <v>15.63273465393885</v>
+        <v>15.76627999505388</v>
       </c>
       <c r="P20" t="n">
-        <v>408.2015613080937</v>
+        <v>407.6821285458692</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -26020,28 +26390,28 @@
         <v>0.0374</v>
       </c>
       <c r="I21" t="n">
-        <v>-1.629426600263979</v>
+        <v>-1.558986199756364</v>
       </c>
       <c r="J21" t="n">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K21" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L21" t="n">
-        <v>0.4132642418743848</v>
+        <v>0.3909351453227954</v>
       </c>
       <c r="M21" t="n">
-        <v>12.62426166211329</v>
+        <v>12.85398441337434</v>
       </c>
       <c r="N21" t="n">
-        <v>242.1436781551392</v>
+        <v>247.7339622952465</v>
       </c>
       <c r="O21" t="n">
-        <v>15.56096649167844</v>
+        <v>15.73956677597088</v>
       </c>
       <c r="P21" t="n">
-        <v>418.3603993594418</v>
+        <v>417.7799178681963</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -26097,28 +26467,28 @@
         <v>0.0365</v>
       </c>
       <c r="I22" t="n">
-        <v>-1.654188973469599</v>
+        <v>-1.583241681416792</v>
       </c>
       <c r="J22" t="n">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K22" t="n">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L22" t="n">
-        <v>0.4436495735082625</v>
+        <v>0.4198373441987261</v>
       </c>
       <c r="M22" t="n">
-        <v>11.92801514452907</v>
+        <v>12.10179121119312</v>
       </c>
       <c r="N22" t="n">
-        <v>216.7925280060143</v>
+        <v>223.0182188975657</v>
       </c>
       <c r="O22" t="n">
-        <v>14.7238761203025</v>
+        <v>14.93379452441896</v>
       </c>
       <c r="P22" t="n">
-        <v>422.326842837395</v>
+        <v>421.7384718822261</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -26174,28 +26544,28 @@
         <v>0.0325</v>
       </c>
       <c r="I23" t="n">
-        <v>-1.384800508457457</v>
+        <v>-1.331700793841811</v>
       </c>
       <c r="J23" t="n">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K23" t="n">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L23" t="n">
-        <v>0.3670394436122443</v>
+        <v>0.3502176687543748</v>
       </c>
       <c r="M23" t="n">
-        <v>11.88962171206367</v>
+        <v>11.97677207598573</v>
       </c>
       <c r="N23" t="n">
-        <v>206.4098789267202</v>
+        <v>209.4122280259232</v>
       </c>
       <c r="O23" t="n">
-        <v>14.36697180782089</v>
+        <v>14.47108247595608</v>
       </c>
       <c r="P23" t="n">
-        <v>420.9348741042093</v>
+        <v>420.4913968846139</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -26251,28 +26621,28 @@
         <v>0.0312</v>
       </c>
       <c r="I24" t="n">
-        <v>-1.419433512181297</v>
+        <v>-1.377248790261402</v>
       </c>
       <c r="J24" t="n">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K24" t="n">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L24" t="n">
-        <v>0.332845902768236</v>
+        <v>0.3226464573691048</v>
       </c>
       <c r="M24" t="n">
-        <v>12.75749398401505</v>
+        <v>12.78305522949891</v>
       </c>
       <c r="N24" t="n">
-        <v>253.0407292981354</v>
+        <v>254.2575416972939</v>
       </c>
       <c r="O24" t="n">
-        <v>15.90725398358043</v>
+        <v>15.94545520508254</v>
       </c>
       <c r="P24" t="n">
-        <v>421.9852617309028</v>
+        <v>421.6317137564657</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -26328,28 +26698,28 @@
         <v>0.0339</v>
       </c>
       <c r="I25" t="n">
-        <v>-1.662249362912546</v>
+        <v>-1.605487071230757</v>
       </c>
       <c r="J25" t="n">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K25" t="n">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="L25" t="n">
-        <v>0.3996240298467695</v>
+        <v>0.3852056651732115</v>
       </c>
       <c r="M25" t="n">
-        <v>12.72309379657466</v>
+        <v>12.79970710476988</v>
       </c>
       <c r="N25" t="n">
-        <v>262.2620683419281</v>
+        <v>264.7903679499312</v>
       </c>
       <c r="O25" t="n">
-        <v>16.19450735101034</v>
+        <v>16.27238052498562</v>
       </c>
       <c r="P25" t="n">
-        <v>420.0325303342296</v>
+        <v>419.5584829715339</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -26405,28 +26775,28 @@
         <v>0.0376</v>
       </c>
       <c r="I26" t="n">
-        <v>-1.799877406737801</v>
+        <v>-1.705759000681222</v>
       </c>
       <c r="J26" t="n">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K26" t="n">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L26" t="n">
-        <v>0.4511095597756665</v>
+        <v>0.4177970255008461</v>
       </c>
       <c r="M26" t="n">
-        <v>12.14690894995712</v>
+        <v>12.42086242550937</v>
       </c>
       <c r="N26" t="n">
-        <v>242.3866474806602</v>
+        <v>254.4545119689643</v>
       </c>
       <c r="O26" t="n">
-        <v>15.56877154693524</v>
+        <v>15.95163038591869</v>
       </c>
       <c r="P26" t="n">
-        <v>411.1039457939347</v>
+        <v>410.3152076210266</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -26482,28 +26852,28 @@
         <v>0.0431</v>
       </c>
       <c r="I27" t="n">
-        <v>-1.414049265381741</v>
+        <v>-1.337531710591371</v>
       </c>
       <c r="J27" t="n">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K27" t="n">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="L27" t="n">
-        <v>0.3832410431511711</v>
+        <v>0.3529671035870413</v>
       </c>
       <c r="M27" t="n">
-        <v>11.4888591959897</v>
+        <v>11.75282526020122</v>
       </c>
       <c r="N27" t="n">
-        <v>206.3587895157048</v>
+        <v>214.330013192885</v>
       </c>
       <c r="O27" t="n">
-        <v>14.36519368180272</v>
+        <v>14.64001411177206</v>
       </c>
       <c r="P27" t="n">
-        <v>395.6764324942378</v>
+        <v>395.0497876855087</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -26559,28 +26929,28 @@
         <v>0.0375</v>
       </c>
       <c r="I28" t="n">
-        <v>-1.305973432290025</v>
+        <v>-1.240022445172269</v>
       </c>
       <c r="J28" t="n">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K28" t="n">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L28" t="n">
-        <v>0.3250525474362745</v>
+        <v>0.3022602781677413</v>
       </c>
       <c r="M28" t="n">
-        <v>12.1271736222495</v>
+        <v>12.29632524427651</v>
       </c>
       <c r="N28" t="n">
-        <v>221.9876929987896</v>
+        <v>226.7124566357354</v>
       </c>
       <c r="O28" t="n">
-        <v>14.89925142410818</v>
+        <v>15.05697368782105</v>
       </c>
       <c r="P28" t="n">
-        <v>388.9318499450517</v>
+        <v>388.38030044874</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -26636,28 +27006,28 @@
         <v>0.0368</v>
       </c>
       <c r="I29" t="n">
-        <v>-1.267270045404345</v>
+        <v>-1.184515487870963</v>
       </c>
       <c r="J29" t="n">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K29" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L29" t="n">
-        <v>0.3374270365927176</v>
+        <v>0.3017510207808359</v>
       </c>
       <c r="M29" t="n">
-        <v>11.6209547247024</v>
+        <v>11.90069253834888</v>
       </c>
       <c r="N29" t="n">
-        <v>198.8344821274713</v>
+        <v>208.4256866996827</v>
       </c>
       <c r="O29" t="n">
-        <v>14.10086813382322</v>
+        <v>14.43695558972468</v>
       </c>
       <c r="P29" t="n">
-        <v>381.9139617320541</v>
+        <v>381.2161486425584</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -26713,28 +27083,28 @@
         <v>0.0377</v>
       </c>
       <c r="I30" t="n">
-        <v>-1.139660208783317</v>
+        <v>-1.062302030570645</v>
       </c>
       <c r="J30" t="n">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K30" t="n">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L30" t="n">
-        <v>0.2827329613977929</v>
+        <v>0.2516669360937757</v>
       </c>
       <c r="M30" t="n">
-        <v>11.65733738000742</v>
+        <v>11.89730472240636</v>
       </c>
       <c r="N30" t="n">
-        <v>206.4862980073743</v>
+        <v>214.2105290593767</v>
       </c>
       <c r="O30" t="n">
-        <v>14.36963110199334</v>
+        <v>14.63593280455252</v>
       </c>
       <c r="P30" t="n">
-        <v>377.4157247688876</v>
+        <v>376.7652591726211</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -26790,28 +27160,28 @@
         <v>0.037</v>
       </c>
       <c r="I31" t="n">
-        <v>-1.139850929349334</v>
+        <v>-1.078412796249012</v>
       </c>
       <c r="J31" t="n">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K31" t="n">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="L31" t="n">
-        <v>0.2892709931107591</v>
+        <v>0.2665710558533981</v>
       </c>
       <c r="M31" t="n">
-        <v>11.6756006303189</v>
+        <v>11.7972824872301</v>
       </c>
       <c r="N31" t="n">
-        <v>199.9423241567896</v>
+        <v>204.1154955114621</v>
       </c>
       <c r="O31" t="n">
-        <v>14.14009632770546</v>
+        <v>14.28689943659793</v>
       </c>
       <c r="P31" t="n">
-        <v>378.9105454792154</v>
+        <v>378.3919371831465</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -26867,28 +27237,28 @@
         <v>0.0419</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.970201717652006</v>
+        <v>-0.9409739226239642</v>
       </c>
       <c r="J32" t="n">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K32" t="n">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L32" t="n">
-        <v>0.2510973896458064</v>
+        <v>0.242876515556417</v>
       </c>
       <c r="M32" t="n">
-        <v>10.77863588772927</v>
+        <v>10.79271806349091</v>
       </c>
       <c r="N32" t="n">
-        <v>175.0348473227355</v>
+        <v>175.3144014527195</v>
       </c>
       <c r="O32" t="n">
-        <v>13.23007359475885</v>
+        <v>13.24063448074598</v>
       </c>
       <c r="P32" t="n">
-        <v>357.1182835975226</v>
+        <v>356.8716355998504</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -26944,28 +27314,28 @@
         <v>0.048</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.7235442744042823</v>
+        <v>-0.6926009611049136</v>
       </c>
       <c r="J33" t="n">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K33" t="n">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L33" t="n">
-        <v>0.1898797015827614</v>
+        <v>0.1797165408945347</v>
       </c>
       <c r="M33" t="n">
-        <v>9.79167432408501</v>
+        <v>9.777717731146046</v>
       </c>
       <c r="N33" t="n">
-        <v>139.5165312934002</v>
+        <v>139.4428181587143</v>
       </c>
       <c r="O33" t="n">
-        <v>11.8117116157397</v>
+        <v>11.8085908625337</v>
       </c>
       <c r="P33" t="n">
-        <v>339.492650381265</v>
+        <v>339.2344245745251</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -27021,28 +27391,28 @@
         <v>0.0384</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.8959141050397312</v>
+        <v>-0.8051308011239994</v>
       </c>
       <c r="J34" t="n">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K34" t="n">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L34" t="n">
-        <v>0.1941018913498932</v>
+        <v>0.1579735208681653</v>
       </c>
       <c r="M34" t="n">
-        <v>11.82996406305056</v>
+        <v>12.12303873653365</v>
       </c>
       <c r="N34" t="n">
-        <v>212.7201588919248</v>
+        <v>224.9128458997402</v>
       </c>
       <c r="O34" t="n">
-        <v>14.58492916993171</v>
+        <v>14.99709458194287</v>
       </c>
       <c r="P34" t="n">
-        <v>335.1575584048475</v>
+        <v>334.4141071171068</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -27098,28 +27468,28 @@
         <v>0.0468</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.4352056145091523</v>
+        <v>-0.3818582290839376</v>
       </c>
       <c r="J35" t="n">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K35" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L35" t="n">
-        <v>0.02718608340248152</v>
+        <v>0.02120156641260995</v>
       </c>
       <c r="M35" t="n">
-        <v>16.68598180533942</v>
+        <v>16.76624350003826</v>
       </c>
       <c r="N35" t="n">
-        <v>425.4764278127808</v>
+        <v>427.8577243698114</v>
       </c>
       <c r="O35" t="n">
-        <v>20.6270799633099</v>
+        <v>20.68472200368696</v>
       </c>
       <c r="P35" t="n">
-        <v>310.357798506898</v>
+        <v>309.9002735399223</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -27156,7 +27526,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ210"/>
+  <dimension ref="A1:AJ213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61016,6 +61386,548 @@
         </is>
       </c>
     </row>
+    <row r="211">
+      <c r="A211" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>-34.506710354701546,172.70221622416312</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>-34.505948272301076,172.70221516213243</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>-34.50519722044339,172.7021596022234</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>-34.50449753090179,172.70185040594475</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>-34.50380604308525,172.7014983785808</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>-34.503171243941,172.7010500962276</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>-34.502591479372846,172.7005466900955</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>-34.50195161936495,172.70008767209728</t>
+        </is>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>-34.501366959013964,172.69953559167433</t>
+        </is>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>-34.500732921033624,172.6990667442691</t>
+        </is>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>-34.50011374342497,172.69857283805126</t>
+        </is>
+      </c>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>-34.499508690664335,172.69805511303977</t>
+        </is>
+      </c>
+      <c r="N211" t="inlineStr">
+        <is>
+          <t>-34.49895852112875,172.6974448593013</t>
+        </is>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>-34.49843366310939,172.6967919281053</t>
+        </is>
+      </c>
+      <c r="P211" t="inlineStr">
+        <is>
+          <t>-34.497874253101216,172.69620748333364</t>
+        </is>
+      </c>
+      <c r="Q211" t="inlineStr">
+        <is>
+          <t>-34.49728533115905,172.69567889366567</t>
+        </is>
+      </c>
+      <c r="R211" t="inlineStr">
+        <is>
+          <t>-34.4967386813847,172.6950756516668</t>
+        </is>
+      </c>
+      <c r="S211" t="inlineStr">
+        <is>
+          <t>-34.496156026587656,172.69452130267868</t>
+        </is>
+      </c>
+      <c r="T211" t="inlineStr">
+        <is>
+          <t>-34.49559563805906,172.6939333744675</t>
+        </is>
+      </c>
+      <c r="U211" t="inlineStr">
+        <is>
+          <t>-34.49500654797792,172.6933887166269</t>
+        </is>
+      </c>
+      <c r="V211" t="inlineStr">
+        <is>
+          <t>-34.4944467714931,172.69279985352557</t>
+        </is>
+      </c>
+      <c r="W211" t="inlineStr">
+        <is>
+          <t>-34.49387498203776,172.69222909764696</t>
+        </is>
+      </c>
+      <c r="X211" t="inlineStr">
+        <is>
+          <t>-34.493292112991526,172.69171640289503</t>
+        </is>
+      </c>
+      <c r="Y211" t="inlineStr">
+        <is>
+          <t>-34.49274861978548,172.69114814362098</t>
+        </is>
+      </c>
+      <c r="Z211" t="inlineStr">
+        <is>
+          <t>-34.49221512220272,172.69052766361605</t>
+        </is>
+      </c>
+      <c r="AA211" t="inlineStr">
+        <is>
+          <t>-34.49166795305543,172.6899159259222</t>
+        </is>
+      </c>
+      <c r="AB211" t="inlineStr">
+        <is>
+          <t>-34.491169123303116,172.68925199835394</t>
+        </is>
+      </c>
+      <c r="AC211" t="inlineStr">
+        <is>
+          <t>-34.49064474152862,172.68861565359117</t>
+        </is>
+      </c>
+      <c r="AD211" t="inlineStr">
+        <is>
+          <t>-34.490159342931896,172.68793778245757</t>
+        </is>
+      </c>
+      <c r="AE211" t="inlineStr">
+        <is>
+          <t>-34.48965568559225,172.6872905343427</t>
+        </is>
+      </c>
+      <c r="AF211" t="inlineStr">
+        <is>
+          <t>-34.489172162346634,172.68656738066016</t>
+        </is>
+      </c>
+      <c r="AG211" t="inlineStr">
+        <is>
+          <t>-34.48878376859219,172.68578963604378</t>
+        </is>
+      </c>
+      <c r="AH211" t="inlineStr">
+        <is>
+          <t>-34.48850704341111,172.6849564010649</t>
+        </is>
+      </c>
+      <c r="AI211" t="inlineStr">
+        <is>
+          <t>-34.488132075402866,172.68417198556304</t>
+        </is>
+      </c>
+      <c r="AJ211" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-05 22:17:39+00:00</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>-34.50677590232066,172.70189256876</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>-34.50596219485924,172.70214641778475</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>-34.50521520048613,172.70207082440473</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>-34.50450690199879,172.7018041354271</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>-34.503830136609274,172.70138566261758</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>-34.50321168517497,172.70094739763428</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>-34.50263174875801,172.70047880414776</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>-34.50205922568622,172.69990626993663</t>
+        </is>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>-34.50135869510229,172.69954952290144</t>
+        </is>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>-34.500631668379235,172.6992374343854</t>
+        </is>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>-34.49997747729999,172.69880255287362</t>
+        </is>
+      </c>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>-34.49944979348183,172.69815440091986</t>
+        </is>
+      </c>
+      <c r="N212" t="inlineStr">
+        <is>
+          <t>-34.49894745359099,172.69746351683196</t>
+        </is>
+      </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>-34.498448174617934,172.69676746467036</t>
+        </is>
+      </c>
+      <c r="P212" t="inlineStr">
+        <is>
+          <t>-34.49787335474005,172.69620894524388</t>
+        </is>
+      </c>
+      <c r="Q212" t="inlineStr">
+        <is>
+          <t>-34.49730939754149,172.69564185105526</t>
+        </is>
+      </c>
+      <c r="R212" t="inlineStr">
+        <is>
+          <t>-34.496770721752405,172.69502734100303</t>
+        </is>
+      </c>
+      <c r="S212" t="inlineStr">
+        <is>
+          <t>-34.496168277266214,172.6945028310362</t>
+        </is>
+      </c>
+      <c r="T212" t="inlineStr">
+        <is>
+          <t>-34.49553408690217,172.6940261816008</t>
+        </is>
+      </c>
+      <c r="U212" t="inlineStr">
+        <is>
+          <t>-34.494977246472224,172.69343289760198</t>
+        </is>
+      </c>
+      <c r="V212" t="inlineStr">
+        <is>
+          <t>-34.49441422157673,172.6928489325217</t>
+        </is>
+      </c>
+      <c r="W212" t="inlineStr">
+        <is>
+          <t>-34.493807025913284,172.69233156235595</t>
+        </is>
+      </c>
+      <c r="X212" t="inlineStr">
+        <is>
+          <t>-34.49320949212272,172.6918250412278</t>
+        </is>
+      </c>
+      <c r="Y212" t="inlineStr">
+        <is>
+          <t>-34.49274587909199,172.69115119494305</t>
+        </is>
+      </c>
+      <c r="Z212" t="inlineStr">
+        <is>
+          <t>-34.49233340836476,172.69039996257106</t>
+        </is>
+      </c>
+      <c r="AA212" t="inlineStr">
+        <is>
+          <t>-34.491783126811185,172.68979158492283</t>
+        </is>
+      </c>
+      <c r="AB212" t="inlineStr">
+        <is>
+          <t>-34.49115112355675,172.68927143079145</t>
+        </is>
+      </c>
+      <c r="AC212" t="inlineStr">
+        <is>
+          <t>-34.490702515306396,172.68855328112932</t>
+        </is>
+      </c>
+      <c r="AD212" t="inlineStr">
+        <is>
+          <t>-34.490155443948545,172.68794194646057</t>
+        </is>
+      </c>
+      <c r="AE212" t="inlineStr">
+        <is>
+          <t>-34.48962641818387,172.68731242017563</t>
+        </is>
+      </c>
+      <c r="AF212" t="inlineStr">
+        <is>
+          <t>-34.48905718073833,172.68662451681405</t>
+        </is>
+      </c>
+      <c r="AG212" t="inlineStr">
+        <is>
+          <t>-34.48873918797548,172.6858117890632</t>
+        </is>
+      </c>
+      <c r="AH212" t="inlineStr">
+        <is>
+          <t>-34.48868361939302,172.68486865556477</t>
+        </is>
+      </c>
+      <c r="AI212" t="inlineStr"/>
+      <c r="AJ212" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:17:46+00:00</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>-34.50673494944635,172.70209478290175</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>-34.50596650234371,172.7021251490056</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>-34.5052232796976,172.7020309325717</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>-34.504528699451335,172.7016965084402</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>-34.503826596987054,172.70140222195369</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>-34.50321621737678,172.70093588830304</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>-34.50268584974121,172.70038760075016</t>
+        </is>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>-34.50201809860354,172.69997560186192</t>
+        </is>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>-34.50142776524662,172.69943308491267</t>
+        </is>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>-34.50077049865785,172.6990033962984</t>
+        </is>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>-34.50013205694243,172.69854196536122</t>
+        </is>
+      </c>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>-34.49950121471855,172.69806771587886</t>
+        </is>
+      </c>
+      <c r="N213" t="inlineStr">
+        <is>
+          <t>-34.498971884707785,172.69742233111708</t>
+        </is>
+      </c>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>-34.49839056374961,172.69686458471028</t>
+        </is>
+      </c>
+      <c r="P213" t="inlineStr">
+        <is>
+          <t>-34.49783315881872,172.69627435632452</t>
+        </is>
+      </c>
+      <c r="Q213" t="inlineStr">
+        <is>
+          <t>-34.49733885617779,172.6955965087167</t>
+        </is>
+      </c>
+      <c r="R213" t="inlineStr">
+        <is>
+          <t>-34.49680822297254,172.69497079634814</t>
+        </is>
+      </c>
+      <c r="S213" t="inlineStr">
+        <is>
+          <t>-34.496202564653174,172.69445113226854</t>
+        </is>
+      </c>
+      <c r="T213" t="inlineStr">
+        <is>
+          <t>-34.49564025897844,172.69386609467563</t>
+        </is>
+      </c>
+      <c r="U213" t="inlineStr">
+        <is>
+          <t>-34.49505235269044,172.69331965191276</t>
+        </is>
+      </c>
+      <c r="V213" t="inlineStr">
+        <is>
+          <t>-34.49450454190717,172.69271274671462</t>
+        </is>
+      </c>
+      <c r="W213" t="inlineStr">
+        <is>
+          <t>-34.493937826340435,172.69213434031258</t>
+        </is>
+      </c>
+      <c r="X213" t="inlineStr">
+        <is>
+          <t>-34.49338213566663,172.6915980315217</t>
+        </is>
+      </c>
+      <c r="Y213" t="inlineStr">
+        <is>
+          <t>-34.492860391387104,172.69102370364655</t>
+        </is>
+      </c>
+      <c r="Z213" t="inlineStr">
+        <is>
+          <t>-34.49233072855798,172.69040285568033</t>
+        </is>
+      </c>
+      <c r="AA213" t="inlineStr">
+        <is>
+          <t>-34.49173424689693,172.689844355488</t>
+        </is>
+      </c>
+      <c r="AB213" t="inlineStr">
+        <is>
+          <t>-34.491239547040045,172.6891759691211</t>
+        </is>
+      </c>
+      <c r="AC213" t="inlineStr">
+        <is>
+          <t>-34.490727536192466,172.68852626859004</t>
+        </is>
+      </c>
+      <c r="AD213" t="inlineStr">
+        <is>
+          <t>-34.490224158683134,172.68786856100448</t>
+        </is>
+      </c>
+      <c r="AE213" t="inlineStr">
+        <is>
+          <t>-34.48974120949239,172.68722658044356</t>
+        </is>
+      </c>
+      <c r="AF213" t="inlineStr">
+        <is>
+          <t>-34.48925884828511,172.68652430495163</t>
+        </is>
+      </c>
+      <c r="AG213" t="inlineStr">
+        <is>
+          <t>-34.488853303596294,172.6857550826275</t>
+        </is>
+      </c>
+      <c r="AH213" t="inlineStr">
+        <is>
+          <t>-34.48862300145369,172.68489877834506</t>
+        </is>
+      </c>
+      <c r="AI213" t="inlineStr">
+        <is>
+          <t>-34.48821080233845,172.68413286365785</t>
+        </is>
+      </c>
+      <c r="AJ213" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0008/nzd0008.xlsx
+++ b/data/nzd0008/nzd0008.xlsx
@@ -24772,7 +24772,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W35"/>
+  <dimension ref="A1:X35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24863,35 +24863,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -24950,27 +24955,28 @@
       <c r="P2" t="n">
         <v>377.4880192129552</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (172.70617814051417 -34.50590789807977, 172.6963397363963 -34.50790032797511)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>172.7061781405142</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-34.50590789807977</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>172.6963397363963</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-34.50790032797511</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>172.7012589384552</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-34.50690411302744</v>
       </c>
     </row>
@@ -25027,27 +25033,28 @@
       <c r="P3" t="n">
         <v>359.7746085130032</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (172.7059626648693 -34.505189237680945, 172.69612431212656 -34.50718166291952)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>172.7059626648693</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-34.50518923768094</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>172.6961243121266</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-34.50718166291952</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>172.7010434884979</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-34.50618545030024</v>
       </c>
     </row>
@@ -25104,27 +25111,28 @@
       <c r="P4" t="n">
         <v>350.8351919313037</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (172.70574718922478 -34.50447057108533, 172.69590888785595 -34.506462991667526)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>172.7057471892248</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-34.50447057108533</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>172.6959088878559</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-34.50646299166753</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>172.7008280385404</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-34.50546678137643</v>
       </c>
     </row>
@@ -25181,27 +25189,28 @@
       <c r="P5" t="n">
         <v>354.0329671656781</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (172.70553171358068 -34.50375189829296, 172.69569346358458 -34.50574431421906)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>172.7055317135807</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-34.50375189829296</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>172.6956934635846</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-34.50574431421906</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>172.7006125885826</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-34.50474810625601</v>
       </c>
     </row>
@@ -25258,27 +25267,28 @@
       <c r="P6" t="n">
         <v>362.3465658620285</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (172.70530382312288 -34.50299254355942, 172.69549721603198 -34.505088653221314)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>172.7053038231229</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-34.50299254355942</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>172.695497216032</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-34.50508865322131</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>172.7004005195774</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-34.50404059839037</v>
       </c>
     </row>
@@ -25335,27 +25345,28 @@
       <c r="P7" t="n">
         <v>374.2046443928451</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (172.70480708525125 -34.50169170891742, 172.69566267452035 -34.505292563358786)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>172.7048070852512</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-34.50169170891742</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>172.6956626745203</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-34.50529256335879</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>172.7002348798858</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-34.50349213613811</v>
       </c>
     </row>
@@ -25412,27 +25423,28 @@
       <c r="P8" t="n">
         <v>369.8097420691184</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (172.7039225465799 -34.50058885201826, 172.69569333058962 -34.50547025830169)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>172.7039225465799</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-34.50058885201826</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>172.6956933305896</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-34.50547025830169</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>172.6998079385847</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-34.50302955515998</v>
       </c>
     </row>
@@ -25489,27 +25501,28 @@
       <c r="P9" t="n">
         <v>368.7547650077769</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (172.7033973681767 -34.49998823743761, 172.695168170892 -34.50486963375895)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>172.7033973681767</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-34.49998823743761</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>172.695168170892</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-34.50486963375895</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>172.6992827695344</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-34.50242893559828</v>
       </c>
     </row>
@@ -25566,27 +25579,28 @@
       <c r="P10" t="n">
         <v>377.4845133968935</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (172.70287218977336 -34.49938761852935, 172.69464301119476 -34.50426900488891)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>172.7028721897734</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-34.49938761852935</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>172.6946430111948</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-34.50426900488891</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>172.698757600484</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-34.50182831170913</v>
       </c>
     </row>
@@ -25643,27 +25657,28 @@
       <c r="P11" t="n">
         <v>381.1270872709387</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (172.70234701136982 -34.49878699529355, 172.69411785149774 -34.50366837169162)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>172.7023470113698</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-34.49878699529355</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>172.6941178514977</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-34.50366837169162</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>172.6982324314338</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-34.50122768349259</v>
       </c>
     </row>
@@ -25720,27 +25735,28 @@
       <c r="P12" t="n">
         <v>383.555813391334</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (172.70182183296617 -34.49818636773012, 172.69359269180111 -34.50306773416714)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>172.7018218329662</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-34.49818636773012</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>172.6935926918011</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-34.50306773416714</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>172.6977072623836</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-34.50062705094863</v>
       </c>
     </row>
@@ -25797,27 +25813,28 @@
       <c r="P13" t="n">
         <v>391.6901285224819</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (172.70129665456233 -34.497585735839245, 172.69306753210475 -34.50246709231544)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>172.7012966545623</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-34.49758573583924</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>172.6930675321047</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-34.50246709231544</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>172.6971820933335</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-34.50002641407734</v>
       </c>
     </row>
@@ -25874,27 +25891,28 @@
       <c r="P14" t="n">
         <v>395.3414943451946</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (172.70077147615837 -34.49698509962088, 172.69254237240875 -34.50186644613662)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>172.7007714761584</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-34.49698509962088</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>172.6925423724088</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-34.50186644613662</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>172.6966569242836</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-34.49942577287875</v>
       </c>
     </row>
@@ -25951,27 +25969,28 @@
       <c r="P15" t="n">
         <v>400.1097210140822</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (172.7002462977542 -34.496384459075095, 172.69201721271304 -34.501265795630616)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>172.7002462977542</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-34.4963844590751</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>172.692017212713</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-34.50126579563062</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>172.6961317552336</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-34.49882512735286</v>
       </c>
     </row>
@@ -26028,27 +26047,28 @@
       <c r="P16" t="n">
         <v>403.4200618981678</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (172.6996816684315 -34.495739220722456, 172.69155308137823 -34.500734250499846)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>172.6996816684315</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-34.49573922072246</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>172.6915530813782</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-34.50073425049985</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>172.6956173749049</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-34.49823673561115</v>
       </c>
     </row>
@@ -26105,27 +26125,28 @@
       <c r="P17" t="n">
         <v>407.3911441858785</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>LINESTRING (172.69906759053282 -34.49508360644431, 172.69110423981462 -34.500257267911834)</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>172.6990675905328</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>-34.49508360644431</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>172.6911042398146</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>-34.50025726791183</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>172.6950859151737</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>-34.49767043717807</v>
       </c>
     </row>
@@ -26182,27 +26203,28 @@
       <c r="P18" t="n">
         <v>408.9387970049916</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
         <is>
           <t>LINESTRING (172.6984792381255 -34.494481260421814, 172.69057908832494 -34.499720682349675)</t>
         </is>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>172.6984792381255</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>-34.49448126042181</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>172.6905790883249</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>-34.49972068234968</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>172.6945291632252</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>-34.49710097138575</v>
       </c>
     </row>
@@ -26259,27 +26281,28 @@
       <c r="P19" t="n">
         <v>409.8949063346976</v>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
         <is>
           <t>LINESTRING (172.6979156941723 -34.49390470466915, 172.69001555710358 -34.499144116298574)</t>
         </is>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>172.6979156941723</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>-34.49390470466915</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>172.6900155571036</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>-34.49914411629857</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>172.6939656256379</v>
       </c>
-      <c r="W19" t="n">
+      <c r="X19" t="n">
         <v>-34.49652441048386</v>
       </c>
     </row>
@@ -26336,27 +26359,28 @@
       <c r="P20" t="n">
         <v>407.6821285458692</v>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
         <is>
           <t>LINESTRING (172.6973521502189 -34.49332814492955, 172.6894520258827 -34.49856754626076)</t>
         </is>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>172.6973521502189</v>
       </c>
-      <c r="S20" t="n">
+      <c r="T20" t="n">
         <v>-34.49332814492955</v>
       </c>
-      <c r="T20" t="n">
+      <c r="U20" t="n">
         <v>172.6894520258827</v>
       </c>
-      <c r="U20" t="n">
+      <c r="V20" t="n">
         <v>-34.49856754626076</v>
       </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
         <v>172.6934020880508</v>
       </c>
-      <c r="W20" t="n">
+      <c r="X20" t="n">
         <v>-34.49594784559515</v>
       </c>
     </row>
@@ -26413,27 +26437,28 @@
       <c r="P21" t="n">
         <v>417.7799178681963</v>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
         <is>
           <t>LINESTRING (172.69678860626527 -34.492751581203045, 172.6888884946623 -34.4979909722363)</t>
         </is>
       </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>172.6967886062653</v>
       </c>
-      <c r="S21" t="n">
+      <c r="T21" t="n">
         <v>-34.49275158120304</v>
       </c>
-      <c r="T21" t="n">
+      <c r="U21" t="n">
         <v>172.6888884946623</v>
       </c>
-      <c r="U21" t="n">
+      <c r="V21" t="n">
         <v>-34.4979909722363</v>
       </c>
-      <c r="V21" t="n">
+      <c r="W21" t="n">
         <v>172.6928385504638</v>
       </c>
-      <c r="W21" t="n">
+      <c r="X21" t="n">
         <v>-34.49537127671967</v>
       </c>
     </row>
@@ -26490,27 +26515,28 @@
       <c r="P22" t="n">
         <v>421.7384718822261</v>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
         <is>
           <t>LINESTRING (172.69622506231138 -34.49217501348961, 172.68832496344243 -34.49741439422519)</t>
         </is>
       </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
         <v>172.6962250623114</v>
       </c>
-      <c r="S22" t="n">
+      <c r="T22" t="n">
         <v>-34.49217501348961</v>
       </c>
-      <c r="T22" t="n">
+      <c r="U22" t="n">
         <v>172.6883249634424</v>
       </c>
-      <c r="U22" t="n">
+      <c r="V22" t="n">
         <v>-34.49741439422519</v>
       </c>
-      <c r="V22" t="n">
+      <c r="W22" t="n">
         <v>172.6922750128769</v>
       </c>
-      <c r="W22" t="n">
+      <c r="X22" t="n">
         <v>-34.49479470385739</v>
       </c>
     </row>
@@ -26567,27 +26593,28 @@
       <c r="P23" t="n">
         <v>420.4913968846139</v>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
         <is>
           <t>LINESTRING (172.69566151835727 -34.49159844178933, 172.6877614322229 -34.496837812227476)</t>
         </is>
       </c>
-      <c r="R23" t="n">
+      <c r="S23" t="n">
         <v>172.6956615183573</v>
       </c>
-      <c r="S23" t="n">
+      <c r="T23" t="n">
         <v>-34.49159844178933</v>
       </c>
-      <c r="T23" t="n">
+      <c r="U23" t="n">
         <v>172.6877614322229</v>
       </c>
-      <c r="U23" t="n">
+      <c r="V23" t="n">
         <v>-34.49683781222748</v>
       </c>
-      <c r="V23" t="n">
+      <c r="W23" t="n">
         <v>172.6917114752901</v>
       </c>
-      <c r="W23" t="n">
+      <c r="X23" t="n">
         <v>-34.4942181270084</v>
       </c>
     </row>
@@ -26644,27 +26671,28 @@
       <c r="P24" t="n">
         <v>421.6317137564657</v>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
         <is>
           <t>LINESTRING (172.69492276126036 -34.490853525502914, 172.68746897474568 -34.49652213232427)</t>
         </is>
       </c>
-      <c r="R24" t="n">
+      <c r="S24" t="n">
         <v>172.6949227612604</v>
       </c>
-      <c r="S24" t="n">
+      <c r="T24" t="n">
         <v>-34.49085352550291</v>
       </c>
-      <c r="T24" t="n">
+      <c r="U24" t="n">
         <v>172.6874689747457</v>
       </c>
-      <c r="U24" t="n">
+      <c r="V24" t="n">
         <v>-34.49652213232427</v>
       </c>
-      <c r="V24" t="n">
+      <c r="W24" t="n">
         <v>172.691195868003</v>
       </c>
-      <c r="W24" t="n">
+      <c r="X24" t="n">
         <v>-34.49368782891359</v>
       </c>
     </row>
@@ -26721,27 +26749,28 @@
       <c r="P25" t="n">
         <v>419.5584829715339</v>
       </c>
-      <c r="Q25" t="inlineStr">
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr">
         <is>
           <t>LINESTRING (172.6940377545697 -34.490153059495874, 172.68717892264698 -34.496313550450644)</t>
         </is>
       </c>
-      <c r="R25" t="n">
+      <c r="S25" t="n">
         <v>172.6940377545697</v>
       </c>
-      <c r="S25" t="n">
+      <c r="T25" t="n">
         <v>-34.49015305949587</v>
       </c>
-      <c r="T25" t="n">
+      <c r="U25" t="n">
         <v>172.687178922647</v>
       </c>
-      <c r="U25" t="n">
+      <c r="V25" t="n">
         <v>-34.49631355045064</v>
       </c>
-      <c r="V25" t="n">
+      <c r="W25" t="n">
         <v>172.6906083386083</v>
       </c>
-      <c r="W25" t="n">
+      <c r="X25" t="n">
         <v>-34.49323330497326</v>
       </c>
     </row>
@@ -26798,27 +26827,28 @@
       <c r="P26" t="n">
         <v>410.3152076210266</v>
       </c>
-      <c r="Q26" t="inlineStr">
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr">
         <is>
           <t>LINESTRING (172.6933212242127 -34.48962740146486, 172.6865773305997 -34.495873994573856)</t>
         </is>
       </c>
-      <c r="R26" t="n">
+      <c r="S26" t="n">
         <v>172.6933212242127</v>
       </c>
-      <c r="S26" t="n">
+      <c r="T26" t="n">
         <v>-34.48962740146486</v>
       </c>
-      <c r="T26" t="n">
+      <c r="U26" t="n">
         <v>172.6865773305997</v>
       </c>
-      <c r="U26" t="n">
+      <c r="V26" t="n">
         <v>-34.49587399457386</v>
       </c>
-      <c r="V26" t="n">
+      <c r="W26" t="n">
         <v>172.6899492774062</v>
       </c>
-      <c r="W26" t="n">
+      <c r="X26" t="n">
         <v>-34.49275069801936</v>
       </c>
     </row>
@@ -26875,27 +26905,28 @@
       <c r="P27" t="n">
         <v>395.0497876855087</v>
       </c>
-      <c r="Q27" t="inlineStr">
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr">
         <is>
           <t>LINESTRING (172.69264981712223 -34.48913550937815, 172.68590591714255 -34.4953820918939)</t>
         </is>
       </c>
-      <c r="R27" t="n">
+      <c r="S27" t="n">
         <v>172.6926498171222</v>
       </c>
-      <c r="S27" t="n">
+      <c r="T27" t="n">
         <v>-34.48913550937815</v>
       </c>
-      <c r="T27" t="n">
+      <c r="U27" t="n">
         <v>172.6859059171425</v>
       </c>
-      <c r="U27" t="n">
+      <c r="V27" t="n">
         <v>-34.4953820918939</v>
       </c>
-      <c r="V27" t="n">
+      <c r="W27" t="n">
         <v>172.6892778671324</v>
       </c>
-      <c r="W27" t="n">
+      <c r="X27" t="n">
         <v>-34.49225880063602</v>
       </c>
     </row>
@@ -26952,27 +26983,28 @@
       <c r="P28" t="n">
         <v>388.38030044874</v>
       </c>
-      <c r="Q28" t="inlineStr">
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr">
         <is>
           <t>LINESTRING (172.69197841003134 -34.48864361438998, 172.6852345036864 -34.49489018631252)</t>
         </is>
       </c>
-      <c r="R28" t="n">
+      <c r="S28" t="n">
         <v>172.6919784100313</v>
       </c>
-      <c r="S28" t="n">
+      <c r="T28" t="n">
         <v>-34.48864361438998</v>
       </c>
-      <c r="T28" t="n">
+      <c r="U28" t="n">
         <v>172.6852345036864</v>
       </c>
-      <c r="U28" t="n">
+      <c r="V28" t="n">
         <v>-34.49489018631252</v>
       </c>
-      <c r="V28" t="n">
+      <c r="W28" t="n">
         <v>172.6886064568588</v>
       </c>
-      <c r="W28" t="n">
+      <c r="X28" t="n">
         <v>-34.49176690035125</v>
       </c>
     </row>
@@ -27029,27 +27061,28 @@
       <c r="P29" t="n">
         <v>381.2161486425584</v>
       </c>
-      <c r="Q29" t="inlineStr">
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr">
         <is>
           <t>LINESTRING (172.69130700294002 -34.4881517165004, 172.68456309023094 -34.49439827782961)</t>
         </is>
       </c>
-      <c r="R29" t="n">
+      <c r="S29" t="n">
         <v>172.69130700294</v>
       </c>
-      <c r="S29" t="n">
+      <c r="T29" t="n">
         <v>-34.4881517165004</v>
       </c>
-      <c r="T29" t="n">
+      <c r="U29" t="n">
         <v>172.6845630902309</v>
       </c>
-      <c r="U29" t="n">
+      <c r="V29" t="n">
         <v>-34.49439827782961</v>
       </c>
-      <c r="V29" t="n">
+      <c r="W29" t="n">
         <v>172.6879350465855</v>
       </c>
-      <c r="W29" t="n">
+      <c r="X29" t="n">
         <v>-34.49127499716501</v>
       </c>
     </row>
@@ -27106,27 +27139,28 @@
       <c r="P30" t="n">
         <v>376.7652591726211</v>
       </c>
-      <c r="Q30" t="inlineStr">
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr">
         <is>
           <t>LINESTRING (172.69061960865207 -34.487648097095054, 172.6839164145858 -34.493924531295214)</t>
         </is>
       </c>
-      <c r="R30" t="n">
+      <c r="S30" t="n">
         <v>172.6906196086521</v>
       </c>
-      <c r="S30" t="n">
+      <c r="T30" t="n">
         <v>-34.48764809709505</v>
       </c>
-      <c r="T30" t="n">
+      <c r="U30" t="n">
         <v>172.6839164145858</v>
       </c>
-      <c r="U30" t="n">
+      <c r="V30" t="n">
         <v>-34.49392453129521</v>
       </c>
-      <c r="V30" t="n">
+      <c r="W30" t="n">
         <v>172.6872680116189</v>
       </c>
-      <c r="W30" t="n">
+      <c r="X30" t="n">
         <v>-34.49078631419513</v>
       </c>
     </row>
@@ -27183,27 +27217,28 @@
       <c r="P31" t="n">
         <v>378.3919371831465</v>
       </c>
-      <c r="Q31" t="inlineStr">
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr">
         <is>
           <t>LINESTRING (172.68940224996774 -34.48683162447888, 172.68407666378633 -34.4939532512284)</t>
         </is>
       </c>
-      <c r="R31" t="n">
+      <c r="S31" t="n">
         <v>172.6894022499677</v>
       </c>
-      <c r="S31" t="n">
+      <c r="T31" t="n">
         <v>-34.48683162447888</v>
       </c>
-      <c r="T31" t="n">
+      <c r="U31" t="n">
         <v>172.6840766637863</v>
       </c>
-      <c r="U31" t="n">
+      <c r="V31" t="n">
         <v>-34.4939532512284</v>
       </c>
-      <c r="V31" t="n">
+      <c r="W31" t="n">
         <v>172.686739456877</v>
       </c>
-      <c r="W31" t="n">
+      <c r="X31" t="n">
         <v>-34.49039243785364</v>
       </c>
     </row>
@@ -27260,27 +27295,28 @@
       <c r="P32" t="n">
         <v>356.8716355998504</v>
       </c>
-      <c r="Q32" t="inlineStr">
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr">
         <is>
           <t>LINESTRING (172.6879908532873 -34.48630744229663, 172.68414236207414 -34.49405198390947)</t>
         </is>
       </c>
-      <c r="R32" t="n">
+      <c r="S32" t="n">
         <v>172.6879908532873</v>
       </c>
-      <c r="S32" t="n">
+      <c r="T32" t="n">
         <v>-34.48630744229663</v>
       </c>
-      <c r="T32" t="n">
+      <c r="U32" t="n">
         <v>172.6841423620741</v>
       </c>
-      <c r="U32" t="n">
+      <c r="V32" t="n">
         <v>-34.49405198390947</v>
       </c>
-      <c r="V32" t="n">
+      <c r="W32" t="n">
         <v>172.6860666076807</v>
       </c>
-      <c r="W32" t="n">
+      <c r="X32" t="n">
         <v>-34.49017971310305</v>
       </c>
     </row>
@@ -27337,27 +27373,28 @@
       <c r="P33" t="n">
         <v>339.2344245745251</v>
       </c>
-      <c r="Q33" t="inlineStr">
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr">
         <is>
           <t>LINESTRING (172.68715924754682 -34.486027471590525, 172.68331071526205 -34.49377200546575)</t>
         </is>
       </c>
-      <c r="R33" t="n">
+      <c r="S33" t="n">
         <v>172.6871592475468</v>
       </c>
-      <c r="S33" t="n">
+      <c r="T33" t="n">
         <v>-34.48602747159052</v>
       </c>
-      <c r="T33" t="n">
+      <c r="U33" t="n">
         <v>172.6833107152621</v>
       </c>
-      <c r="U33" t="n">
+      <c r="V33" t="n">
         <v>-34.49377200546575</v>
       </c>
-      <c r="V33" t="n">
+      <c r="W33" t="n">
         <v>172.6852349814044</v>
       </c>
-      <c r="W33" t="n">
+      <c r="X33" t="n">
         <v>-34.48989973852814</v>
       </c>
     </row>
@@ -27414,27 +27451,28 @@
       <c r="P34" t="n">
         <v>334.4141071171068</v>
       </c>
-      <c r="Q34" t="inlineStr">
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr">
         <is>
           <t>LINESTRING (172.6863276418058 -34.485747499944836, 172.6824790684509 -34.4934920260816)</t>
         </is>
       </c>
-      <c r="R34" t="n">
+      <c r="S34" t="n">
         <v>172.6863276418058</v>
       </c>
-      <c r="S34" t="n">
+      <c r="T34" t="n">
         <v>-34.48574749994484</v>
       </c>
-      <c r="T34" t="n">
+      <c r="U34" t="n">
         <v>172.6824790684509</v>
       </c>
-      <c r="U34" t="n">
+      <c r="V34" t="n">
         <v>-34.4934920260816</v>
       </c>
-      <c r="V34" t="n">
+      <c r="W34" t="n">
         <v>172.6844033551284</v>
       </c>
-      <c r="W34" t="n">
+      <c r="X34" t="n">
         <v>-34.48961976301322</v>
       </c>
     </row>
@@ -27491,27 +27529,28 @@
       <c r="P35" t="n">
         <v>309.9002735399223</v>
       </c>
-      <c r="Q35" t="inlineStr">
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr">
         <is>
           <t>LINESTRING (172.68549603606436 -34.48546752735959, 172.6816474216408 -34.493212045757)</t>
         </is>
       </c>
-      <c r="R35" t="n">
+      <c r="S35" t="n">
         <v>172.6854960360644</v>
       </c>
-      <c r="S35" t="n">
+      <c r="T35" t="n">
         <v>-34.48546752735959</v>
       </c>
-      <c r="T35" t="n">
+      <c r="U35" t="n">
         <v>172.6816474216408</v>
       </c>
-      <c r="U35" t="n">
+      <c r="V35" t="n">
         <v>-34.493212045757</v>
       </c>
-      <c r="V35" t="n">
+      <c r="W35" t="n">
         <v>172.6835717288526</v>
       </c>
-      <c r="W35" t="n">
+      <c r="X35" t="n">
         <v>-34.48933978655829</v>
       </c>
     </row>

--- a/data/nzd0008/nzd0008.xlsx
+++ b/data/nzd0008/nzd0008.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ213"/>
+  <dimension ref="A1:AJ215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22600,6 +22600,210 @@
         </is>
       </c>
     </row>
+    <row r="214">
+      <c r="A214" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:17:26+00:00</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>391.2533333333333</v>
+      </c>
+      <c r="C214" t="n">
+        <v>350.6833333333333</v>
+      </c>
+      <c r="D214" t="n">
+        <v>344.92</v>
+      </c>
+      <c r="E214" t="n">
+        <v>352.9542857142857</v>
+      </c>
+      <c r="F214" t="n">
+        <v>370.9333333333333</v>
+      </c>
+      <c r="G214" t="n">
+        <v>386.45</v>
+      </c>
+      <c r="H214" t="n">
+        <v>376.4233333333333</v>
+      </c>
+      <c r="I214" t="n">
+        <v>366.1933333333333</v>
+      </c>
+      <c r="J214" t="n">
+        <v>360.7033333333333</v>
+      </c>
+      <c r="K214" t="n">
+        <v>360.2742857142857</v>
+      </c>
+      <c r="L214" t="n">
+        <v>364.7133333333333</v>
+      </c>
+      <c r="M214" t="n">
+        <v>375.2633333333333</v>
+      </c>
+      <c r="N214" t="n">
+        <v>387.7242857142857</v>
+      </c>
+      <c r="O214" t="n">
+        <v>394.0542857142857</v>
+      </c>
+      <c r="P214" t="n">
+        <v>396.8442857142857</v>
+      </c>
+      <c r="Q214" t="n">
+        <v>399.9942857142857</v>
+      </c>
+      <c r="R214" t="n">
+        <v>404.0942857142857</v>
+      </c>
+      <c r="S214" t="n">
+        <v>400.9042857142857</v>
+      </c>
+      <c r="T214" t="n">
+        <v>394.6542857142857</v>
+      </c>
+      <c r="U214" t="n">
+        <v>390.5442857142857</v>
+      </c>
+      <c r="V214" t="n">
+        <v>387.1033333333333</v>
+      </c>
+      <c r="W214" t="n">
+        <v>391.2233333333333</v>
+      </c>
+      <c r="X214" t="n">
+        <v>400.9533333333333</v>
+      </c>
+      <c r="Y214" t="n">
+        <v>394.1533333333333</v>
+      </c>
+      <c r="Z214" t="n">
+        <v>389.9642857142857</v>
+      </c>
+      <c r="AA214" t="n">
+        <v>384.61</v>
+      </c>
+      <c r="AB214" t="n">
+        <v>375.5242857142857</v>
+      </c>
+      <c r="AC214" t="n">
+        <v>369.0642857142857</v>
+      </c>
+      <c r="AD214" t="n">
+        <v>365.3642857142857</v>
+      </c>
+      <c r="AE214" t="n">
+        <v>360.2042857142857</v>
+      </c>
+      <c r="AF214" t="n">
+        <v>336.0842857142857</v>
+      </c>
+      <c r="AG214" t="n">
+        <v>327.7255555555556</v>
+      </c>
+      <c r="AH214" t="n">
+        <v>328.8842857142857</v>
+      </c>
+      <c r="AI214" t="n">
+        <v>330.54</v>
+      </c>
+      <c r="AJ214" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:17:16+00:00</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>370.69</v>
+      </c>
+      <c r="C215" t="n">
+        <v>348.16</v>
+      </c>
+      <c r="D215" t="n">
+        <v>349.06</v>
+      </c>
+      <c r="E215" t="n">
+        <v>349.8242857142857</v>
+      </c>
+      <c r="F215" t="n">
+        <v>355.29</v>
+      </c>
+      <c r="G215" t="n">
+        <v>371.5100000000001</v>
+      </c>
+      <c r="H215" t="n">
+        <v>374.35</v>
+      </c>
+      <c r="I215" t="n">
+        <v>361.17</v>
+      </c>
+      <c r="J215" t="n">
+        <v>362.74</v>
+      </c>
+      <c r="K215" t="n">
+        <v>367.6842857142857</v>
+      </c>
+      <c r="L215" t="n">
+        <v>360.36</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="inlineStr"/>
+      <c r="O215" t="inlineStr"/>
+      <c r="P215" t="inlineStr"/>
+      <c r="Q215" t="inlineStr"/>
+      <c r="R215" t="inlineStr"/>
+      <c r="S215" t="inlineStr"/>
+      <c r="T215" t="inlineStr"/>
+      <c r="U215" t="inlineStr"/>
+      <c r="V215" t="inlineStr"/>
+      <c r="W215" t="inlineStr"/>
+      <c r="X215" t="inlineStr"/>
+      <c r="Y215" t="n">
+        <v>386.02</v>
+      </c>
+      <c r="Z215" t="n">
+        <v>383.3242857142857</v>
+      </c>
+      <c r="AA215" t="n">
+        <v>381.18</v>
+      </c>
+      <c r="AB215" t="n">
+        <v>373.3342857142857</v>
+      </c>
+      <c r="AC215" t="n">
+        <v>362.6242857142857</v>
+      </c>
+      <c r="AD215" t="n">
+        <v>362.0142857142857</v>
+      </c>
+      <c r="AE215" t="n">
+        <v>354.2242857142857</v>
+      </c>
+      <c r="AF215" t="n">
+        <v>334.2442857142857</v>
+      </c>
+      <c r="AG215" t="n">
+        <v>332.25</v>
+      </c>
+      <c r="AH215" t="n">
+        <v>328.5642857142857</v>
+      </c>
+      <c r="AI215" t="n">
+        <v>317.37</v>
+      </c>
+      <c r="AJ215" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22611,7 +22815,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B214"/>
+  <dimension ref="A1:B216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24759,6 +24963,26 @@
       </c>
       <c r="B214" t="n">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>-0.29</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>-0.36</v>
       </c>
     </row>
   </sheetData>
@@ -24932,28 +25156,28 @@
         <v>0.0366</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3707578411663991</v>
+        <v>-0.3455159019790753</v>
       </c>
       <c r="J2" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K2" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0256291595201249</v>
+        <v>0.02265067456293879</v>
       </c>
       <c r="M2" t="n">
-        <v>14.18553415875686</v>
+        <v>14.1628505210736</v>
       </c>
       <c r="N2" t="n">
-        <v>331.207021322546</v>
+        <v>330.5286498801987</v>
       </c>
       <c r="O2" t="n">
-        <v>18.1990939698257</v>
+        <v>18.180446910904</v>
       </c>
       <c r="P2" t="n">
-        <v>377.4880192129552</v>
+        <v>377.2753373030289</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -25010,28 +25234,28 @@
         <v>0.0307</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.4249582320157644</v>
+        <v>-0.4239713960679581</v>
       </c>
       <c r="J3" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K3" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05439105452127735</v>
+        <v>0.05532811355134504</v>
       </c>
       <c r="M3" t="n">
-        <v>11.47352162354853</v>
+        <v>11.36248675426905</v>
       </c>
       <c r="N3" t="n">
-        <v>204.8008389135761</v>
+        <v>202.6065426625682</v>
       </c>
       <c r="O3" t="n">
-        <v>14.31086436640276</v>
+        <v>14.23399250605986</v>
       </c>
       <c r="P3" t="n">
-        <v>359.7746085130032</v>
+        <v>359.7664889972114</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -25088,28 +25312,28 @@
         <v>0.0455</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.392359609504671</v>
+        <v>-0.3805318853068638</v>
       </c>
       <c r="J4" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K4" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06638594436744327</v>
+        <v>0.06386498395620888</v>
       </c>
       <c r="M4" t="n">
-        <v>9.724174934043111</v>
+        <v>9.682236936960463</v>
       </c>
       <c r="N4" t="n">
-        <v>141.053357697221</v>
+        <v>139.9874697652126</v>
       </c>
       <c r="O4" t="n">
-        <v>11.876588638882</v>
+        <v>11.83163005528877</v>
       </c>
       <c r="P4" t="n">
-        <v>350.8351919313037</v>
+        <v>350.738063382761</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -25166,28 +25390,28 @@
         <v>0.0359</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.3361434348487783</v>
+        <v>-0.3246358401109448</v>
       </c>
       <c r="J5" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K5" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04467443240632107</v>
+        <v>0.04263104827769215</v>
       </c>
       <c r="M5" t="n">
-        <v>10.22166784976582</v>
+        <v>10.16846191051919</v>
       </c>
       <c r="N5" t="n">
-        <v>156.195424482431</v>
+        <v>154.9106253451629</v>
       </c>
       <c r="O5" t="n">
-        <v>12.49781678864076</v>
+        <v>12.44630970790792</v>
       </c>
       <c r="P5" t="n">
-        <v>354.0329671656781</v>
+        <v>353.938028814303</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -25244,28 +25468,28 @@
         <v>0.0305</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4588038451572161</v>
+        <v>-0.4345687530794199</v>
       </c>
       <c r="J6" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K6" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05873990488776204</v>
+        <v>0.05368916566180404</v>
       </c>
       <c r="M6" t="n">
-        <v>11.80781752075254</v>
+        <v>11.80542016297644</v>
       </c>
       <c r="N6" t="n">
-        <v>215.5506555068086</v>
+        <v>215.5140628961688</v>
       </c>
       <c r="O6" t="n">
-        <v>14.68164348793447</v>
+        <v>14.68039723223349</v>
       </c>
       <c r="P6" t="n">
-        <v>362.3465658620285</v>
+        <v>362.1474630661756</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -25322,28 +25546,28 @@
         <v>0.0264</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3574383071472003</v>
+        <v>-0.3306899225492952</v>
       </c>
       <c r="J7" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K7" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02588506080131603</v>
+        <v>0.02256383311872723</v>
       </c>
       <c r="M7" t="n">
-        <v>13.94819027815143</v>
+        <v>13.93333916628729</v>
       </c>
       <c r="N7" t="n">
-        <v>311.8037161222449</v>
+        <v>311.0675458427897</v>
       </c>
       <c r="O7" t="n">
-        <v>17.65796466533572</v>
+        <v>17.6371070712515</v>
       </c>
       <c r="P7" t="n">
-        <v>374.2046443928451</v>
+        <v>373.9851279225492</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -25400,28 +25624,28 @@
         <v>0.0322</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3443258302960161</v>
+        <v>-0.3166692349623618</v>
       </c>
       <c r="J8" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K8" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03417843532814147</v>
+        <v>0.02943802442034404</v>
       </c>
       <c r="M8" t="n">
-        <v>11.72652944776161</v>
+        <v>11.75679408219474</v>
       </c>
       <c r="N8" t="n">
-        <v>217.2863013741029</v>
+        <v>217.1131403914277</v>
       </c>
       <c r="O8" t="n">
-        <v>14.74063436131915</v>
+        <v>14.73475959734083</v>
       </c>
       <c r="P8" t="n">
-        <v>369.8097420691184</v>
+        <v>369.5825856098322</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -25478,28 +25702,28 @@
         <v>0.0316</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.5714952312442458</v>
+        <v>-0.5526001735286764</v>
       </c>
       <c r="J9" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K9" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0663719099929847</v>
+        <v>0.0635322278181597</v>
       </c>
       <c r="M9" t="n">
-        <v>13.95163668376503</v>
+        <v>13.89309376936811</v>
       </c>
       <c r="N9" t="n">
-        <v>299.6208064069812</v>
+        <v>297.3515429585945</v>
       </c>
       <c r="O9" t="n">
-        <v>17.30955823835436</v>
+        <v>17.2438842190092</v>
       </c>
       <c r="P9" t="n">
-        <v>368.7547650077769</v>
+        <v>368.6005578117733</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -25556,28 +25780,28 @@
         <v>0.0333</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.6473987107470905</v>
+        <v>-0.6458275154254131</v>
       </c>
       <c r="J10" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K10" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L10" t="n">
-        <v>0.09980372432360363</v>
+        <v>0.1014642332563876</v>
       </c>
       <c r="M10" t="n">
-        <v>12.82809327062963</v>
+        <v>12.69657688636144</v>
       </c>
       <c r="N10" t="n">
-        <v>245.5681390616854</v>
+        <v>242.8583055698121</v>
       </c>
       <c r="O10" t="n">
-        <v>15.67061386996966</v>
+        <v>15.58391175442842</v>
       </c>
       <c r="P10" t="n">
-        <v>377.4845133968935</v>
+        <v>377.471432357367</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -25634,28 +25858,28 @@
         <v>0.0393</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.6974428682779845</v>
+        <v>-0.6959995041759683</v>
       </c>
       <c r="J11" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K11" t="n">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1136722413499861</v>
+        <v>0.1155985404911946</v>
       </c>
       <c r="M11" t="n">
-        <v>12.09703981568012</v>
+        <v>11.99898419518325</v>
       </c>
       <c r="N11" t="n">
-        <v>241.040507328379</v>
+        <v>238.3886383002478</v>
       </c>
       <c r="O11" t="n">
-        <v>15.52547929464269</v>
+        <v>15.4398393223585</v>
       </c>
       <c r="P11" t="n">
-        <v>381.1270872709387</v>
+        <v>381.1146131506187</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -25712,28 +25936,28 @@
         <v>0.0365</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.8002469911846388</v>
+        <v>-0.8013841783063109</v>
       </c>
       <c r="J12" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K12" t="n">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1211179401559995</v>
+        <v>0.1239998209721298</v>
       </c>
       <c r="M12" t="n">
-        <v>13.82405318356031</v>
+        <v>13.68954675071892</v>
       </c>
       <c r="N12" t="n">
-        <v>293.8172304293366</v>
+        <v>290.4777283743119</v>
       </c>
       <c r="O12" t="n">
-        <v>17.14109770199495</v>
+        <v>17.04340718208398</v>
       </c>
       <c r="P12" t="n">
-        <v>383.555813391334</v>
+        <v>383.5655851417723</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -25790,28 +26014,28 @@
         <v>0.0316</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.066222940783831</v>
+        <v>-1.055102735543893</v>
       </c>
       <c r="J13" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K13" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1974456695126108</v>
+        <v>0.1956429610099497</v>
       </c>
       <c r="M13" t="n">
-        <v>13.64841342236313</v>
+        <v>13.63099828116408</v>
       </c>
       <c r="N13" t="n">
-        <v>295.8665055550136</v>
+        <v>294.8158926511833</v>
       </c>
       <c r="O13" t="n">
-        <v>17.20077049306262</v>
+        <v>17.17020362870468</v>
       </c>
       <c r="P13" t="n">
-        <v>391.6901285224819</v>
+        <v>391.5953789305672</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -25868,28 +26092,28 @@
         <v>0.038</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.963780733963314</v>
+        <v>-0.9468582872081367</v>
       </c>
       <c r="J14" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K14" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2327320665119408</v>
+        <v>0.2270162105842704</v>
       </c>
       <c r="M14" t="n">
-        <v>11.29169288054399</v>
+        <v>11.32812349690259</v>
       </c>
       <c r="N14" t="n">
-        <v>199.0186927096149</v>
+        <v>199.5109826924855</v>
       </c>
       <c r="O14" t="n">
-        <v>14.10739850963369</v>
+        <v>14.12483566957455</v>
       </c>
       <c r="P14" t="n">
-        <v>395.3414943451946</v>
+        <v>395.1981134257408</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -25946,28 +26170,28 @@
         <v>0.0409</v>
       </c>
       <c r="I15" t="n">
-        <v>-1.098780676575551</v>
+        <v>-1.075454453379678</v>
       </c>
       <c r="J15" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K15" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L15" t="n">
-        <v>0.2387530310546674</v>
+        <v>0.230937741503174</v>
       </c>
       <c r="M15" t="n">
-        <v>12.3515744517373</v>
+        <v>12.415313495836</v>
       </c>
       <c r="N15" t="n">
-        <v>234.3975850810889</v>
+        <v>235.8494084870644</v>
       </c>
       <c r="O15" t="n">
-        <v>15.31004850028533</v>
+        <v>15.35738937733443</v>
       </c>
       <c r="P15" t="n">
-        <v>400.1097210140822</v>
+        <v>399.8979713984469</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -26024,28 +26248,28 @@
         <v>0.0396</v>
       </c>
       <c r="I16" t="n">
-        <v>-1.015722578350186</v>
+        <v>-0.9953220032151044</v>
       </c>
       <c r="J16" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K16" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L16" t="n">
-        <v>0.2295271095840201</v>
+        <v>0.2226233638661327</v>
       </c>
       <c r="M16" t="n">
-        <v>11.77476857496992</v>
+        <v>11.82238386194081</v>
       </c>
       <c r="N16" t="n">
-        <v>212.3849808038461</v>
+        <v>213.3246315874841</v>
       </c>
       <c r="O16" t="n">
-        <v>14.57343407724638</v>
+        <v>14.60563697986103</v>
       </c>
       <c r="P16" t="n">
-        <v>403.4200618981678</v>
+        <v>403.2357801260517</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -26102,28 +26326,28 @@
         <v>0.0373</v>
       </c>
       <c r="I17" t="n">
-        <v>-1.088583053551325</v>
+        <v>-1.068394616409942</v>
       </c>
       <c r="J17" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K17" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L17" t="n">
-        <v>0.2891485036661119</v>
+        <v>0.2812951537480026</v>
       </c>
       <c r="M17" t="n">
-        <v>11.07810744722159</v>
+        <v>11.13801634531289</v>
       </c>
       <c r="N17" t="n">
-        <v>186.1006364078337</v>
+        <v>187.3601612894957</v>
       </c>
       <c r="O17" t="n">
-        <v>13.64187070778175</v>
+        <v>13.6879567974733</v>
       </c>
       <c r="P17" t="n">
-        <v>407.3911441858785</v>
+        <v>407.2180328766694</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -26180,28 +26404,28 @@
         <v>0.038</v>
       </c>
       <c r="I18" t="n">
-        <v>-1.162460426763717</v>
+        <v>-1.13800087468283</v>
       </c>
       <c r="J18" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K18" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L18" t="n">
-        <v>0.3078830962598501</v>
+        <v>0.2976399142995919</v>
       </c>
       <c r="M18" t="n">
-        <v>11.37979398772298</v>
+        <v>11.45657602980774</v>
       </c>
       <c r="N18" t="n">
-        <v>193.2858619290463</v>
+        <v>195.5776668940209</v>
       </c>
       <c r="O18" t="n">
-        <v>13.90272857855775</v>
+        <v>13.98490854078141</v>
       </c>
       <c r="P18" t="n">
-        <v>408.9387970049916</v>
+        <v>408.7296617505407</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -26258,28 +26482,28 @@
         <v>0.0374</v>
       </c>
       <c r="I19" t="n">
-        <v>-1.183301822332389</v>
+        <v>-1.162425258834695</v>
       </c>
       <c r="J19" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K19" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L19" t="n">
-        <v>0.3139615537846137</v>
+        <v>0.3061168714383499</v>
       </c>
       <c r="M19" t="n">
-        <v>11.50372973066345</v>
+        <v>11.55912582868462</v>
       </c>
       <c r="N19" t="n">
-        <v>197.5877673574244</v>
+        <v>198.9577241981435</v>
       </c>
       <c r="O19" t="n">
-        <v>14.05659159815865</v>
+        <v>14.10523747400743</v>
       </c>
       <c r="P19" t="n">
-        <v>409.8949063346976</v>
+        <v>409.7191226086383</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -26336,28 +26560,28 @@
         <v>0.0365</v>
       </c>
       <c r="I20" t="n">
-        <v>-1.053877071958405</v>
+        <v>-1.040315980074535</v>
       </c>
       <c r="J20" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K20" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L20" t="n">
-        <v>0.2267557002288935</v>
+        <v>0.2234856978393024</v>
       </c>
       <c r="M20" t="n">
-        <v>13.00059073895295</v>
+        <v>13.00869386915571</v>
       </c>
       <c r="N20" t="n">
-        <v>248.5755848824361</v>
+        <v>248.2514091921339</v>
       </c>
       <c r="O20" t="n">
-        <v>15.76627999505388</v>
+        <v>15.75599597588594</v>
       </c>
       <c r="P20" t="n">
-        <v>407.6821285458692</v>
+        <v>407.5698850383633</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -26414,28 +26638,28 @@
         <v>0.0374</v>
       </c>
       <c r="I21" t="n">
-        <v>-1.558986199756364</v>
+        <v>-1.546773224581716</v>
       </c>
       <c r="J21" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K21" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L21" t="n">
-        <v>0.3909351453227954</v>
+        <v>0.3890661580167868</v>
       </c>
       <c r="M21" t="n">
-        <v>12.85398441337434</v>
+        <v>12.85845426747366</v>
       </c>
       <c r="N21" t="n">
-        <v>247.7339622952465</v>
+        <v>247.2322700485619</v>
       </c>
       <c r="O21" t="n">
-        <v>15.73956677597088</v>
+        <v>15.72362140375308</v>
       </c>
       <c r="P21" t="n">
-        <v>417.7799178681963</v>
+        <v>417.6786867945673</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -26492,28 +26716,28 @@
         <v>0.0365</v>
       </c>
       <c r="I22" t="n">
-        <v>-1.583241681416792</v>
+        <v>-1.577590564376331</v>
       </c>
       <c r="J22" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K22" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L22" t="n">
-        <v>0.4198373441987261</v>
+        <v>0.4206829692868904</v>
       </c>
       <c r="M22" t="n">
-        <v>12.10179121119312</v>
+        <v>12.06629639159163</v>
       </c>
       <c r="N22" t="n">
-        <v>223.0182188975657</v>
+        <v>221.9990950887473</v>
       </c>
       <c r="O22" t="n">
-        <v>14.93379452441896</v>
+        <v>14.89963405888706</v>
       </c>
       <c r="P22" t="n">
-        <v>421.7384718822261</v>
+        <v>421.6913452951455</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -26570,28 +26794,28 @@
         <v>0.0325</v>
       </c>
       <c r="I23" t="n">
-        <v>-1.331700793841811</v>
+        <v>-1.32699714743147</v>
       </c>
       <c r="J23" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K23" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L23" t="n">
-        <v>0.3502176687543748</v>
+        <v>0.3511258810638975</v>
       </c>
       <c r="M23" t="n">
-        <v>11.97677207598573</v>
+        <v>11.93657929904567</v>
       </c>
       <c r="N23" t="n">
-        <v>209.4122280259232</v>
+        <v>208.4012269860521</v>
       </c>
       <c r="O23" t="n">
-        <v>14.47108247595608</v>
+        <v>14.43610844327695</v>
       </c>
       <c r="P23" t="n">
-        <v>420.4913968846139</v>
+        <v>420.4518990413222</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -26648,28 +26872,28 @@
         <v>0.0312</v>
       </c>
       <c r="I24" t="n">
-        <v>-1.377248790261402</v>
+        <v>-1.363076331676743</v>
       </c>
       <c r="J24" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K24" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L24" t="n">
-        <v>0.3226464573691048</v>
+        <v>0.319665937925687</v>
       </c>
       <c r="M24" t="n">
-        <v>12.78305522949891</v>
+        <v>12.79266957572281</v>
       </c>
       <c r="N24" t="n">
-        <v>254.2575416972939</v>
+        <v>254.0045016636988</v>
       </c>
       <c r="O24" t="n">
-        <v>15.94545520508254</v>
+        <v>15.93751867963451</v>
       </c>
       <c r="P24" t="n">
-        <v>421.6317137564657</v>
+        <v>421.5123033663688</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -26726,28 +26950,28 @@
         <v>0.0339</v>
       </c>
       <c r="I25" t="n">
-        <v>-1.605487071230757</v>
+        <v>-1.583184259241358</v>
       </c>
       <c r="J25" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K25" t="n">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L25" t="n">
-        <v>0.3852056651732115</v>
+        <v>0.3825189071955204</v>
       </c>
       <c r="M25" t="n">
-        <v>12.79970710476988</v>
+        <v>12.77552084201265</v>
       </c>
       <c r="N25" t="n">
-        <v>264.7903679499312</v>
+        <v>263.5033211103506</v>
       </c>
       <c r="O25" t="n">
-        <v>16.27238052498562</v>
+        <v>16.23278537744988</v>
       </c>
       <c r="P25" t="n">
-        <v>419.5584829715339</v>
+        <v>419.3710947443066</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -26804,28 +27028,28 @@
         <v>0.0376</v>
       </c>
       <c r="I26" t="n">
-        <v>-1.705759000681222</v>
+        <v>-1.666569656906898</v>
       </c>
       <c r="J26" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K26" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L26" t="n">
-        <v>0.4177970255008461</v>
+        <v>0.4082152777725452</v>
       </c>
       <c r="M26" t="n">
-        <v>12.42086242550937</v>
+        <v>12.50268736238618</v>
       </c>
       <c r="N26" t="n">
-        <v>254.4545119689643</v>
+        <v>255.9605617054404</v>
       </c>
       <c r="O26" t="n">
-        <v>15.95163038591869</v>
+        <v>15.99876750582495</v>
       </c>
       <c r="P26" t="n">
-        <v>410.3152076210266</v>
+        <v>409.9848317620814</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -26882,28 +27106,28 @@
         <v>0.0431</v>
       </c>
       <c r="I27" t="n">
-        <v>-1.337531710591371</v>
+        <v>-1.295224849036625</v>
       </c>
       <c r="J27" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K27" t="n">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L27" t="n">
-        <v>0.3529671035870413</v>
+        <v>0.338183326956508</v>
       </c>
       <c r="M27" t="n">
-        <v>11.75282526020122</v>
+        <v>11.8840828343452</v>
       </c>
       <c r="N27" t="n">
-        <v>214.330013192885</v>
+        <v>217.146176863082</v>
       </c>
       <c r="O27" t="n">
-        <v>14.64001411177206</v>
+        <v>14.73588059340473</v>
       </c>
       <c r="P27" t="n">
-        <v>395.0497876855087</v>
+        <v>394.7010164680484</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -26960,28 +27184,28 @@
         <v>0.0375</v>
       </c>
       <c r="I28" t="n">
-        <v>-1.240022445172269</v>
+        <v>-1.206142845832753</v>
       </c>
       <c r="J28" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K28" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L28" t="n">
-        <v>0.3022602781677413</v>
+        <v>0.2923858075224295</v>
       </c>
       <c r="M28" t="n">
-        <v>12.29632524427651</v>
+        <v>12.35636045849889</v>
       </c>
       <c r="N28" t="n">
-        <v>226.7124566357354</v>
+        <v>227.5627979199718</v>
       </c>
       <c r="O28" t="n">
-        <v>15.05697368782105</v>
+        <v>15.08518471613695</v>
       </c>
       <c r="P28" t="n">
-        <v>388.38030044874</v>
+        <v>388.0950890506704</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -27038,28 +27262,28 @@
         <v>0.0368</v>
       </c>
       <c r="I29" t="n">
-        <v>-1.184515487870963</v>
+        <v>-1.155890150520379</v>
       </c>
       <c r="J29" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K29" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L29" t="n">
-        <v>0.3017510207808359</v>
+        <v>0.2937050021175442</v>
       </c>
       <c r="M29" t="n">
-        <v>11.90069253834888</v>
+        <v>11.93066953120297</v>
       </c>
       <c r="N29" t="n">
-        <v>208.4256866996827</v>
+        <v>208.6159145758043</v>
       </c>
       <c r="O29" t="n">
-        <v>14.43695558972468</v>
+        <v>14.44354231398255</v>
       </c>
       <c r="P29" t="n">
-        <v>381.2161486425584</v>
+        <v>380.9731978251391</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -27116,28 +27340,28 @@
         <v>0.0377</v>
       </c>
       <c r="I30" t="n">
-        <v>-1.062302030570645</v>
+        <v>-1.035310827412385</v>
       </c>
       <c r="J30" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K30" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L30" t="n">
-        <v>0.2516669360937757</v>
+        <v>0.244428490125258</v>
       </c>
       <c r="M30" t="n">
-        <v>11.89730472240636</v>
+        <v>11.92140147895144</v>
       </c>
       <c r="N30" t="n">
-        <v>214.2105290593767</v>
+        <v>214.004330009532</v>
       </c>
       <c r="O30" t="n">
-        <v>14.63593280455252</v>
+        <v>14.62888683425817</v>
       </c>
       <c r="P30" t="n">
-        <v>376.7652591726211</v>
+        <v>376.5367955087029</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -27194,28 +27418,28 @@
         <v>0.037</v>
       </c>
       <c r="I31" t="n">
-        <v>-1.078412796249012</v>
+        <v>-1.066130663373154</v>
       </c>
       <c r="J31" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K31" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L31" t="n">
-        <v>0.2665710558533981</v>
+        <v>0.2659720029120312</v>
       </c>
       <c r="M31" t="n">
-        <v>11.7972824872301</v>
+        <v>11.73465161483927</v>
       </c>
       <c r="N31" t="n">
-        <v>204.1154955114621</v>
+        <v>202.4337412899932</v>
       </c>
       <c r="O31" t="n">
-        <v>14.28689943659793</v>
+        <v>14.22792118652592</v>
       </c>
       <c r="P31" t="n">
-        <v>378.3919371831465</v>
+        <v>378.2876231484499</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -27272,28 +27496,28 @@
         <v>0.0419</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.9409739226239642</v>
+        <v>-0.9364513346707748</v>
       </c>
       <c r="J32" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K32" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L32" t="n">
-        <v>0.242876515556417</v>
+        <v>0.2451776107504601</v>
       </c>
       <c r="M32" t="n">
-        <v>10.79271806349091</v>
+        <v>10.70196243925684</v>
       </c>
       <c r="N32" t="n">
-        <v>175.3144014527195</v>
+        <v>173.5059035277077</v>
       </c>
       <c r="O32" t="n">
-        <v>13.24063448074598</v>
+        <v>13.17216396526052</v>
       </c>
       <c r="P32" t="n">
-        <v>356.8716355998504</v>
+        <v>356.8332351196674</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
@@ -27350,28 +27574,28 @@
         <v>0.048</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.6926009611049136</v>
+        <v>-0.6762230253468728</v>
       </c>
       <c r="J33" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K33" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L33" t="n">
-        <v>0.1797165408945347</v>
+        <v>0.1752476570536667</v>
       </c>
       <c r="M33" t="n">
-        <v>9.777717731146046</v>
+        <v>9.750420572572942</v>
       </c>
       <c r="N33" t="n">
-        <v>139.4428181587143</v>
+        <v>138.7490269309151</v>
       </c>
       <c r="O33" t="n">
-        <v>11.8085908625337</v>
+        <v>11.77917768483501</v>
       </c>
       <c r="P33" t="n">
-        <v>339.2344245745251</v>
+        <v>339.0968153505447</v>
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
@@ -27428,28 +27652,28 @@
         <v>0.0384</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.8051308011239994</v>
+        <v>-0.7760167800650478</v>
       </c>
       <c r="J34" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K34" t="n">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L34" t="n">
-        <v>0.1579735208681653</v>
+        <v>0.1500516062668416</v>
       </c>
       <c r="M34" t="n">
-        <v>12.12303873653365</v>
+        <v>12.15870156553515</v>
       </c>
       <c r="N34" t="n">
-        <v>224.9128458997402</v>
+        <v>224.8009022572201</v>
       </c>
       <c r="O34" t="n">
-        <v>14.99709458194287</v>
+        <v>14.99336193977922</v>
       </c>
       <c r="P34" t="n">
-        <v>334.4141071171068</v>
+        <v>334.1741165874849</v>
       </c>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
@@ -27506,28 +27730,28 @@
         <v>0.0468</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.3818582290839376</v>
+        <v>-0.3321848931022476</v>
       </c>
       <c r="J35" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K35" t="n">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L35" t="n">
-        <v>0.02120156641260995</v>
+        <v>0.01624450198601923</v>
       </c>
       <c r="M35" t="n">
-        <v>16.76624350003826</v>
+        <v>16.8291278755341</v>
       </c>
       <c r="N35" t="n">
-        <v>427.8577243698114</v>
+        <v>429.808740730961</v>
       </c>
       <c r="O35" t="n">
-        <v>20.68472200368696</v>
+        <v>20.73182916992519</v>
       </c>
       <c r="P35" t="n">
-        <v>309.9002735399223</v>
+        <v>309.4713571247824</v>
       </c>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
@@ -27565,7 +27789,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ213"/>
+  <dimension ref="A1:AJ215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61967,6 +62191,322 @@
         </is>
       </c>
     </row>
+    <row r="214">
+      <c r="A214" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:17:26+00:00</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>-34.50674642885737,172.70203810088313</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>-34.50594082168063,172.70225195040157</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>-34.50520980005101,172.7020974894984</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>-34.504508340878495,172.70179703083838</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>-34.50382888909936,172.70139149881686</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>-34.50318875299168,172.70100563286405</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>-34.50256607462362,172.7005895172403</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>-34.50191171776495,172.7001549377656</t>
+        </is>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>-34.501282253842824,172.69967838662194</t>
+        </is>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>-34.500679368359314,172.69915702261892</t>
+        </is>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>-34.50010204798138,172.69859255406425</t>
+        </is>
+      </c>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>-34.4995568203165,172.6979739766752</t>
+        </is>
+      </c>
+      <c r="N214" t="inlineStr">
+        <is>
+          <t>-34.49902162479727,172.69733847965975</t>
+        </is>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>-34.49845422232891,172.69675726946176</t>
+        </is>
+      </c>
+      <c r="P214" t="inlineStr">
+        <is>
+          <t>-34.497872233708165,172.69621076950793</t>
+        </is>
+      </c>
+      <c r="Q214" t="inlineStr">
+        <is>
+          <t>-34.49731051894237,172.6956401250111</t>
+        </is>
+      </c>
+      <c r="R214" t="inlineStr">
+        <is>
+          <t>-34.49675962280371,172.6950440760737</t>
+        </is>
+      </c>
+      <c r="S214" t="inlineStr">
+        <is>
+          <t>-34.496165071631985,172.69450766451058</t>
+        </is>
+      </c>
+      <c r="T214" t="inlineStr">
+        <is>
+          <t>-34.49555326425932,172.69399726591476</t>
+        </is>
+      </c>
+      <c r="U214" t="inlineStr">
+        <is>
+          <t>-34.494953518523026,172.6934686746966</t>
+        </is>
+      </c>
+      <c r="V214" t="inlineStr">
+        <is>
+          <t>-34.49435754107399,172.69293439562503</t>
+        </is>
+      </c>
+      <c r="W214" t="inlineStr">
+        <is>
+          <t>-34.49380418814181,172.69233584116068</t>
+        </is>
+      </c>
+      <c r="X214" t="inlineStr">
+        <is>
+          <t>-34.49329957591033,172.69170658987238</t>
+        </is>
+      </c>
+      <c r="Y214" t="inlineStr">
+        <is>
+          <t>-34.49276661111003,172.69112811316307</t>
+        </is>
+      </c>
+      <c r="Z214" t="inlineStr">
+        <is>
+          <t>-34.492249373816854,172.69049068582723</t>
+        </is>
+      </c>
+      <c r="AA214" t="inlineStr">
+        <is>
+          <t>-34.49172147222496,172.68985814695978</t>
+        </is>
+      </c>
+      <c r="AB214" t="inlineStr">
+        <is>
+          <t>-34.491168479769016,172.68925269311038</t>
+        </is>
+      </c>
+      <c r="AC214" t="inlineStr">
+        <is>
+          <t>-34.49063313874434,172.6886281799206</t>
+        </is>
+      </c>
+      <c r="AD214" t="inlineStr">
+        <is>
+          <t>-34.49011640585223,172.6879836380038</t>
+        </is>
+      </c>
+      <c r="AE214" t="inlineStr">
+        <is>
+          <t>-34.48959345948438,172.68733706629175</t>
+        </is>
+      </c>
+      <c r="AF214" t="inlineStr">
+        <is>
+          <t>-34.489110316994534,172.6865981126013</t>
+        </is>
+      </c>
+      <c r="AG214" t="inlineStr">
+        <is>
+          <t>-34.48876063040943,172.68580113388285</t>
+        </is>
+      </c>
+      <c r="AH214" t="inlineStr">
+        <is>
+          <t>-34.48849031628523,172.68496471321635</t>
+        </is>
+      </c>
+      <c r="AI214" t="inlineStr">
+        <is>
+          <t>-34.48822414588547,172.6841262328191</t>
+        </is>
+      </c>
+      <c r="AJ214" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:17:16+00:00</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>-34.50670236120481,172.7022556934397</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>-34.5059354140805,172.70227865099173</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>-34.50521867219133,172.702053682557</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>-34.50450163324631,172.70183015031267</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>-34.50379362052567,172.70155649442825</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>-34.5031308800938,172.7011525979819</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>-34.502555184368084,172.7006078759395</t>
+        </is>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>-34.5018853326143,172.7001994174857</t>
+        </is>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>-34.50129295142547,172.69966035279884</t>
+        </is>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>-34.50071828916213,172.69909141049635</t>
+        </is>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>-34.500079182329316,172.69863110062468</t>
+        </is>
+      </c>
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="inlineStr"/>
+      <c r="O215" t="inlineStr"/>
+      <c r="P215" t="inlineStr"/>
+      <c r="Q215" t="inlineStr"/>
+      <c r="R215" t="inlineStr"/>
+      <c r="S215" t="inlineStr"/>
+      <c r="T215" t="inlineStr"/>
+      <c r="U215" t="inlineStr"/>
+      <c r="V215" t="inlineStr"/>
+      <c r="W215" t="inlineStr"/>
+      <c r="X215" t="inlineStr"/>
+      <c r="Y215" t="inlineStr">
+        <is>
+          <t>-34.49271268133096,172.6911881552962</t>
+        </is>
+      </c>
+      <c r="Z215" t="inlineStr">
+        <is>
+          <t>-34.492204729534556,172.69053888345513</t>
+        </is>
+      </c>
+      <c r="AA215" t="inlineStr">
+        <is>
+          <t>-34.491698410576205,172.68988304418505</t>
+        </is>
+      </c>
+      <c r="AB215" t="inlineStr">
+        <is>
+          <t>-34.49115375532349,172.68926858954976</t>
+        </is>
+      </c>
+      <c r="AC215" t="inlineStr">
+        <is>
+          <t>-34.490589839600624,172.68867492549677</t>
+        </is>
+      </c>
+      <c r="AD215" t="inlineStr">
+        <is>
+          <t>-34.49009377436569,172.68800780774345</t>
+        </is>
+      </c>
+      <c r="AE215" t="inlineStr">
+        <is>
+          <t>-34.48954760865606,172.68737135294666</t>
+        </is>
+      </c>
+      <c r="AF215" t="inlineStr">
+        <is>
+          <t>-34.48909497181626,172.68660573785723</t>
+        </is>
+      </c>
+      <c r="AG215" t="inlineStr">
+        <is>
+          <t>-34.488798363160186,172.68578238369906</t>
+        </is>
+      </c>
+      <c r="AH215" t="inlineStr">
+        <is>
+          <t>-34.48848764756994,172.68496603937123</t>
+        </is>
+      </c>
+      <c r="AI215" t="inlineStr">
+        <is>
+          <t>-34.48811431180213,172.6841808128471</t>
+        </is>
+      </c>
+      <c r="AJ215" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0008/nzd0008.xlsx
+++ b/data/nzd0008/nzd0008.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ215"/>
+  <dimension ref="A1:AJ216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22804,6 +22804,120 @@
         </is>
       </c>
     </row>
+    <row r="216">
+      <c r="A216" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>373.2966666666667</v>
+      </c>
+      <c r="C216" t="n">
+        <v>352.9166666666667</v>
+      </c>
+      <c r="D216" t="n">
+        <v>362.86</v>
+      </c>
+      <c r="E216" t="n">
+        <v>369.5414285714286</v>
+      </c>
+      <c r="F216" t="n">
+        <v>374.2566666666667</v>
+      </c>
+      <c r="G216" t="n">
+        <v>378.92</v>
+      </c>
+      <c r="H216" t="n">
+        <v>375.6066666666667</v>
+      </c>
+      <c r="I216" t="n">
+        <v>383.7966666666667</v>
+      </c>
+      <c r="J216" t="n">
+        <v>380.3866666666667</v>
+      </c>
+      <c r="K216" t="n">
+        <v>383.9514285714286</v>
+      </c>
+      <c r="L216" t="n">
+        <v>392.2866666666667</v>
+      </c>
+      <c r="M216" t="n">
+        <v>389.4066666666667</v>
+      </c>
+      <c r="N216" t="n">
+        <v>389.7914285714286</v>
+      </c>
+      <c r="O216" t="n">
+        <v>391.7914285714286</v>
+      </c>
+      <c r="P216" t="n">
+        <v>395.2214285714285</v>
+      </c>
+      <c r="Q216" t="n">
+        <v>399.3214285714286</v>
+      </c>
+      <c r="R216" t="n">
+        <v>399.7014285714286</v>
+      </c>
+      <c r="S216" t="n">
+        <v>395.8614285714286</v>
+      </c>
+      <c r="T216" t="n">
+        <v>394.4914285714286</v>
+      </c>
+      <c r="U216" t="n">
+        <v>400.0714285714286</v>
+      </c>
+      <c r="V216" t="n">
+        <v>404.7966666666667</v>
+      </c>
+      <c r="W216" t="n">
+        <v>415.6766666666667</v>
+      </c>
+      <c r="X216" t="n">
+        <v>429.0466666666667</v>
+      </c>
+      <c r="Y216" t="n">
+        <v>420.2866666666667</v>
+      </c>
+      <c r="Z216" t="n">
+        <v>405.9214285714286</v>
+      </c>
+      <c r="AA216" t="n">
+        <v>396.12</v>
+      </c>
+      <c r="AB216" t="n">
+        <v>384.0914285714285</v>
+      </c>
+      <c r="AC216" t="n">
+        <v>377.5714285714286</v>
+      </c>
+      <c r="AD216" t="n">
+        <v>376.0614285714286</v>
+      </c>
+      <c r="AE216" t="n">
+        <v>387.3014285714286</v>
+      </c>
+      <c r="AF216" t="n">
+        <v>371.8114285714286</v>
+      </c>
+      <c r="AG216" t="n">
+        <v>359.0744444444445</v>
+      </c>
+      <c r="AH216" t="n">
+        <v>360.9114285714285</v>
+      </c>
+      <c r="AI216" t="n">
+        <v>348.92</v>
+      </c>
+      <c r="AJ216" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22815,7 +22929,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B216"/>
+  <dimension ref="A1:B217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24983,6 +25097,16 @@
       </c>
       <c r="B216" t="n">
         <v>-0.36</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>-0.61</v>
       </c>
     </row>
   </sheetData>
@@ -25156,28 +25280,28 @@
         <v>0.0366</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3455159019790753</v>
+        <v>-0.3407290222210008</v>
       </c>
       <c r="J2" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K2" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02265067456293879</v>
+        <v>0.02228309396160466</v>
       </c>
       <c r="M2" t="n">
-        <v>14.1628505210736</v>
+        <v>14.11167346836791</v>
       </c>
       <c r="N2" t="n">
-        <v>330.5286498801987</v>
+        <v>328.8884449371998</v>
       </c>
       <c r="O2" t="n">
-        <v>18.180446910904</v>
+        <v>18.13528177165163</v>
       </c>
       <c r="P2" t="n">
-        <v>377.2753373030289</v>
+        <v>377.234573023333</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -25234,28 +25358,28 @@
         <v>0.0307</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.4239713960679581</v>
+        <v>-0.4200875348078701</v>
       </c>
       <c r="J3" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K3" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05532811355134504</v>
+        <v>0.05493893875431721</v>
       </c>
       <c r="M3" t="n">
-        <v>11.36248675426905</v>
+        <v>11.32109594055082</v>
       </c>
       <c r="N3" t="n">
-        <v>202.6065426625682</v>
+        <v>201.6048689189731</v>
       </c>
       <c r="O3" t="n">
-        <v>14.23399250605986</v>
+        <v>14.19876293621994</v>
       </c>
       <c r="P3" t="n">
-        <v>359.7664889972114</v>
+        <v>359.7341085039391</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -25312,28 +25436,28 @@
         <v>0.0455</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3805318853068638</v>
+        <v>-0.3596491637632397</v>
       </c>
       <c r="J4" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K4" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06386498395620888</v>
+        <v>0.05709116492200395</v>
       </c>
       <c r="M4" t="n">
-        <v>9.682236936960463</v>
+        <v>9.739829628291798</v>
       </c>
       <c r="N4" t="n">
-        <v>139.9874697652126</v>
+        <v>141.756928786486</v>
       </c>
       <c r="O4" t="n">
-        <v>11.83163005528877</v>
+        <v>11.90617187791635</v>
       </c>
       <c r="P4" t="n">
-        <v>350.738063382761</v>
+        <v>350.5649326361707</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -25390,28 +25514,28 @@
         <v>0.0359</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.3246358401109448</v>
+        <v>-0.3015218644417128</v>
       </c>
       <c r="J5" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K5" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04263104827769215</v>
+        <v>0.03671541470156048</v>
       </c>
       <c r="M5" t="n">
-        <v>10.16846191051919</v>
+        <v>10.22575131187374</v>
       </c>
       <c r="N5" t="n">
-        <v>154.9106253451629</v>
+        <v>157.1019211123327</v>
       </c>
       <c r="O5" t="n">
-        <v>12.44630970790792</v>
+        <v>12.53403052143774</v>
       </c>
       <c r="P5" t="n">
-        <v>353.938028814303</v>
+        <v>353.7453881709744</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -25468,28 +25592,28 @@
         <v>0.0305</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4345687530794199</v>
+        <v>-0.4120132891130697</v>
       </c>
       <c r="J6" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K6" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05368916566180404</v>
+        <v>0.0484704182746194</v>
       </c>
       <c r="M6" t="n">
-        <v>11.80542016297644</v>
+        <v>11.85596723035985</v>
       </c>
       <c r="N6" t="n">
-        <v>215.5140628961688</v>
+        <v>217.1806901848722</v>
       </c>
       <c r="O6" t="n">
-        <v>14.68039723223349</v>
+        <v>14.73705161098624</v>
       </c>
       <c r="P6" t="n">
-        <v>362.1474630661756</v>
+        <v>361.9602488522129</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -25546,28 +25670,28 @@
         <v>0.0264</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3306899225492952</v>
+        <v>-0.3177795120164272</v>
       </c>
       <c r="J7" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K7" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02256383311872723</v>
+        <v>0.02104718024627694</v>
       </c>
       <c r="M7" t="n">
-        <v>13.93333916628729</v>
+        <v>13.92326974311505</v>
       </c>
       <c r="N7" t="n">
-        <v>311.0675458427897</v>
+        <v>310.3594287696983</v>
       </c>
       <c r="O7" t="n">
-        <v>17.6371070712515</v>
+        <v>17.61702099589196</v>
       </c>
       <c r="P7" t="n">
-        <v>373.9851279225492</v>
+        <v>373.8780549229559</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -25624,28 +25748,28 @@
         <v>0.0322</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3166692349623618</v>
+        <v>-0.3030654948950533</v>
       </c>
       <c r="J8" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K8" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02943802442034404</v>
+        <v>0.02720681840976225</v>
       </c>
       <c r="M8" t="n">
-        <v>11.75679408219474</v>
+        <v>11.76973791107374</v>
       </c>
       <c r="N8" t="n">
-        <v>217.1131403914277</v>
+        <v>217.010012463427</v>
       </c>
       <c r="O8" t="n">
-        <v>14.73475959734083</v>
+        <v>14.73125970388911</v>
       </c>
       <c r="P8" t="n">
-        <v>369.5825856098322</v>
+        <v>369.4697350776922</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -25702,28 +25826,28 @@
         <v>0.0316</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.5526001735286764</v>
+        <v>-0.5235433546850643</v>
       </c>
       <c r="J9" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K9" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0635322278181597</v>
+        <v>0.05719698314762223</v>
       </c>
       <c r="M9" t="n">
-        <v>13.89309376936811</v>
+        <v>13.96906056712741</v>
       </c>
       <c r="N9" t="n">
-        <v>297.3515429585945</v>
+        <v>300.3943298205959</v>
       </c>
       <c r="O9" t="n">
-        <v>17.2438842190092</v>
+        <v>17.33188765889613</v>
       </c>
       <c r="P9" t="n">
-        <v>368.6005578117733</v>
+        <v>368.3609743643197</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -25780,28 +25904,28 @@
         <v>0.0333</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.6458275154254131</v>
+        <v>-0.6266982611296333</v>
       </c>
       <c r="J10" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K10" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1014642332563876</v>
+        <v>0.09637572515481019</v>
       </c>
       <c r="M10" t="n">
-        <v>12.69657688636144</v>
+        <v>12.72808048746225</v>
       </c>
       <c r="N10" t="n">
-        <v>242.8583055698121</v>
+        <v>243.5923477490937</v>
       </c>
       <c r="O10" t="n">
-        <v>15.58391175442842</v>
+        <v>15.6074452665737</v>
       </c>
       <c r="P10" t="n">
-        <v>377.471432357367</v>
+        <v>377.3108226654144</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -25858,28 +25982,28 @@
         <v>0.0393</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.6959995041759683</v>
+        <v>-0.6746940289344328</v>
       </c>
       <c r="J11" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K11" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1155985404911946</v>
+        <v>0.1095400725868992</v>
       </c>
       <c r="M11" t="n">
-        <v>11.99898419518325</v>
+        <v>12.04665253232944</v>
       </c>
       <c r="N11" t="n">
-        <v>238.3886383002478</v>
+        <v>239.4653981056598</v>
       </c>
       <c r="O11" t="n">
-        <v>15.4398393223585</v>
+        <v>15.4746695636986</v>
       </c>
       <c r="P11" t="n">
-        <v>381.1146131506187</v>
+        <v>380.9298785431661</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -25936,28 +26060,28 @@
         <v>0.0365</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.8013841783063109</v>
+        <v>-0.7711605122187672</v>
       </c>
       <c r="J12" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K12" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1239998209721298</v>
+        <v>0.1154062078924886</v>
       </c>
       <c r="M12" t="n">
-        <v>13.68954675071892</v>
+        <v>13.7674591331659</v>
       </c>
       <c r="N12" t="n">
-        <v>290.4777283743119</v>
+        <v>293.676042348105</v>
       </c>
       <c r="O12" t="n">
-        <v>17.04340718208398</v>
+        <v>17.13697879872952</v>
       </c>
       <c r="P12" t="n">
-        <v>383.5655851417723</v>
+        <v>383.3045910108979</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -26014,28 +26138,28 @@
         <v>0.0316</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.055102735543893</v>
+        <v>-1.029451313663585</v>
       </c>
       <c r="J13" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K13" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1956429610099497</v>
+        <v>0.1880019447553846</v>
       </c>
       <c r="M13" t="n">
-        <v>13.63099828116408</v>
+        <v>13.69737099882291</v>
       </c>
       <c r="N13" t="n">
-        <v>294.8158926511833</v>
+        <v>296.6575840030977</v>
       </c>
       <c r="O13" t="n">
-        <v>17.17020362870468</v>
+        <v>17.22375057886922</v>
       </c>
       <c r="P13" t="n">
-        <v>391.5953789305672</v>
+        <v>391.3743439093839</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -26092,28 +26216,28 @@
         <v>0.038</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.9468582872081367</v>
+        <v>-0.9279813773845346</v>
       </c>
       <c r="J14" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K14" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2270162105842704</v>
+        <v>0.220259451203155</v>
       </c>
       <c r="M14" t="n">
-        <v>11.32812349690259</v>
+        <v>11.37658835066666</v>
       </c>
       <c r="N14" t="n">
-        <v>199.5109826924855</v>
+        <v>200.3947259660215</v>
       </c>
       <c r="O14" t="n">
-        <v>14.12483566957455</v>
+        <v>14.15608441505</v>
       </c>
       <c r="P14" t="n">
-        <v>395.1981134257408</v>
+        <v>395.0363034857538</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -26170,28 +26294,28 @@
         <v>0.0409</v>
       </c>
       <c r="I15" t="n">
-        <v>-1.075454453379678</v>
+        <v>-1.054700091788205</v>
       </c>
       <c r="J15" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K15" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L15" t="n">
-        <v>0.230937741503174</v>
+        <v>0.2244737383034811</v>
       </c>
       <c r="M15" t="n">
-        <v>12.415313495836</v>
+        <v>12.46774088344552</v>
       </c>
       <c r="N15" t="n">
-        <v>235.8494084870644</v>
+        <v>236.6908387764249</v>
       </c>
       <c r="O15" t="n">
-        <v>15.35738937733443</v>
+        <v>15.38475995186226</v>
       </c>
       <c r="P15" t="n">
-        <v>399.8979713984469</v>
+        <v>399.7074698474486</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -26248,28 +26372,28 @@
         <v>0.0396</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.9953220032151044</v>
+        <v>-0.9767705796040548</v>
       </c>
       <c r="J16" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K16" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L16" t="n">
-        <v>0.2226233638661327</v>
+        <v>0.2167142984660475</v>
       </c>
       <c r="M16" t="n">
-        <v>11.82238386194081</v>
+        <v>11.85730839763724</v>
       </c>
       <c r="N16" t="n">
-        <v>213.3246315874841</v>
+        <v>213.871095031391</v>
       </c>
       <c r="O16" t="n">
-        <v>14.60563697986103</v>
+        <v>14.62433229352339</v>
       </c>
       <c r="P16" t="n">
-        <v>403.2357801260517</v>
+        <v>403.0663161112757</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -26326,28 +26450,28 @@
         <v>0.0373</v>
       </c>
       <c r="I17" t="n">
-        <v>-1.068394616409942</v>
+        <v>-1.048996886608384</v>
       </c>
       <c r="J17" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K17" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L17" t="n">
-        <v>0.2812951537480026</v>
+        <v>0.2739750713960374</v>
       </c>
       <c r="M17" t="n">
-        <v>11.13801634531289</v>
+        <v>11.19262628344564</v>
       </c>
       <c r="N17" t="n">
-        <v>187.3601612894957</v>
+        <v>188.4282625092166</v>
       </c>
       <c r="O17" t="n">
-        <v>13.6879567974733</v>
+        <v>13.72691744381151</v>
       </c>
       <c r="P17" t="n">
-        <v>407.2180328766694</v>
+        <v>407.0498112700565</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -26404,28 +26528,28 @@
         <v>0.038</v>
       </c>
       <c r="I18" t="n">
-        <v>-1.13800087468283</v>
+        <v>-1.118046956249248</v>
       </c>
       <c r="J18" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K18" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2976399142995919</v>
+        <v>0.2903187247856963</v>
       </c>
       <c r="M18" t="n">
-        <v>11.45657602980774</v>
+        <v>11.51059204368977</v>
       </c>
       <c r="N18" t="n">
-        <v>195.5776668940209</v>
+        <v>196.7256840486874</v>
       </c>
       <c r="O18" t="n">
-        <v>13.98490854078141</v>
+        <v>14.02589334226834</v>
       </c>
       <c r="P18" t="n">
-        <v>408.7296617505407</v>
+        <v>408.5571444234096</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -26482,28 +26606,28 @@
         <v>0.0374</v>
       </c>
       <c r="I19" t="n">
-        <v>-1.162425258834695</v>
+        <v>-1.146629044409877</v>
       </c>
       <c r="J19" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K19" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L19" t="n">
-        <v>0.3061168714383499</v>
+        <v>0.301274075867296</v>
       </c>
       <c r="M19" t="n">
-        <v>11.55912582868462</v>
+        <v>11.58352083897177</v>
       </c>
       <c r="N19" t="n">
-        <v>198.9577241981435</v>
+        <v>199.2635107107635</v>
       </c>
       <c r="O19" t="n">
-        <v>14.10523747400743</v>
+        <v>14.11607277930953</v>
       </c>
       <c r="P19" t="n">
-        <v>409.7191226086383</v>
+        <v>409.5846083736075</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -26560,28 +26684,28 @@
         <v>0.0365</v>
       </c>
       <c r="I20" t="n">
-        <v>-1.040315980074535</v>
+        <v>-1.026945169273252</v>
       </c>
       <c r="J20" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K20" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L20" t="n">
-        <v>0.2234856978393024</v>
+        <v>0.2202998476666681</v>
       </c>
       <c r="M20" t="n">
-        <v>13.00869386915571</v>
+        <v>13.01429069556845</v>
       </c>
       <c r="N20" t="n">
-        <v>248.2514091921339</v>
+        <v>247.9018779259791</v>
       </c>
       <c r="O20" t="n">
-        <v>15.75599597588594</v>
+        <v>15.74490006084443</v>
       </c>
       <c r="P20" t="n">
-        <v>407.5698850383633</v>
+        <v>407.4579417219801</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -26638,28 +26762,28 @@
         <v>0.0374</v>
       </c>
       <c r="I21" t="n">
-        <v>-1.546773224581716</v>
+        <v>-1.525246599441442</v>
       </c>
       <c r="J21" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K21" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L21" t="n">
-        <v>0.3890661580167868</v>
+        <v>0.3825997852987452</v>
       </c>
       <c r="M21" t="n">
-        <v>12.85845426747366</v>
+        <v>12.91777813249581</v>
       </c>
       <c r="N21" t="n">
-        <v>247.2322700485619</v>
+        <v>248.5372188786255</v>
       </c>
       <c r="O21" t="n">
-        <v>15.72362140375308</v>
+        <v>15.76506323738112</v>
       </c>
       <c r="P21" t="n">
-        <v>417.6786867945673</v>
+        <v>417.4982150402402</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -26716,28 +26840,28 @@
         <v>0.0365</v>
       </c>
       <c r="I22" t="n">
-        <v>-1.577590564376331</v>
+        <v>-1.554596136838799</v>
       </c>
       <c r="J22" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K22" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L22" t="n">
-        <v>0.4206829692868904</v>
+        <v>0.4131144658962075</v>
       </c>
       <c r="M22" t="n">
-        <v>12.06629639159163</v>
+        <v>12.11943894712865</v>
       </c>
       <c r="N22" t="n">
-        <v>221.9990950887473</v>
+        <v>223.7753005405499</v>
       </c>
       <c r="O22" t="n">
-        <v>14.89963405888706</v>
+        <v>14.95912098154667</v>
       </c>
       <c r="P22" t="n">
-        <v>421.6913452951455</v>
+        <v>421.4974673951634</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -26794,28 +26918,28 @@
         <v>0.0325</v>
       </c>
       <c r="I23" t="n">
-        <v>-1.32699714743147</v>
+        <v>-1.298019393414856</v>
       </c>
       <c r="J23" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K23" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L23" t="n">
-        <v>0.3511258810638975</v>
+        <v>0.3388811803343865</v>
       </c>
       <c r="M23" t="n">
-        <v>11.93657929904567</v>
+        <v>12.02023482858591</v>
       </c>
       <c r="N23" t="n">
-        <v>208.4012269860521</v>
+        <v>211.8504051803933</v>
       </c>
       <c r="O23" t="n">
-        <v>14.43610844327695</v>
+        <v>14.55508176481305</v>
       </c>
       <c r="P23" t="n">
-        <v>420.4518990413222</v>
+        <v>420.2059278797302</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -26872,28 +26996,28 @@
         <v>0.0312</v>
       </c>
       <c r="I24" t="n">
-        <v>-1.363076331676743</v>
+        <v>-1.321471337224653</v>
       </c>
       <c r="J24" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K24" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L24" t="n">
-        <v>0.319665937925687</v>
+        <v>0.3008875467652976</v>
       </c>
       <c r="M24" t="n">
-        <v>12.79266957572281</v>
+        <v>12.94978234317676</v>
       </c>
       <c r="N24" t="n">
-        <v>254.0045016636988</v>
+        <v>262.2514159469169</v>
       </c>
       <c r="O24" t="n">
-        <v>15.93751867963451</v>
+        <v>16.19417845853617</v>
       </c>
       <c r="P24" t="n">
-        <v>421.5123033663688</v>
+        <v>421.1579066266392</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -26950,28 +27074,28 @@
         <v>0.0339</v>
       </c>
       <c r="I25" t="n">
-        <v>-1.583184259241358</v>
+        <v>-1.543142746361699</v>
       </c>
       <c r="J25" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K25" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L25" t="n">
-        <v>0.3825189071955204</v>
+        <v>0.3650628165808734</v>
       </c>
       <c r="M25" t="n">
-        <v>12.77552084201265</v>
+        <v>12.91190892992803</v>
       </c>
       <c r="N25" t="n">
-        <v>263.5033211103506</v>
+        <v>271.3201926949106</v>
       </c>
       <c r="O25" t="n">
-        <v>16.23278537744988</v>
+        <v>16.47179992274404</v>
       </c>
       <c r="P25" t="n">
-        <v>419.3710947443066</v>
+        <v>419.0311289378204</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -27028,28 +27152,28 @@
         <v>0.0376</v>
       </c>
       <c r="I26" t="n">
-        <v>-1.666569656906898</v>
+        <v>-1.628502617249285</v>
       </c>
       <c r="J26" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K26" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L26" t="n">
-        <v>0.4082152777725452</v>
+        <v>0.3926420341496325</v>
       </c>
       <c r="M26" t="n">
-        <v>12.50268736238618</v>
+        <v>12.65597805348069</v>
       </c>
       <c r="N26" t="n">
-        <v>255.9605617054404</v>
+        <v>262.4627020491351</v>
       </c>
       <c r="O26" t="n">
-        <v>15.99876750582495</v>
+        <v>16.20070066537664</v>
       </c>
       <c r="P26" t="n">
-        <v>409.9848317620814</v>
+        <v>409.6608185895396</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -27106,28 +27230,28 @@
         <v>0.0431</v>
       </c>
       <c r="I27" t="n">
-        <v>-1.295224849036625</v>
+        <v>-1.261936276203478</v>
       </c>
       <c r="J27" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K27" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L27" t="n">
-        <v>0.338183326956508</v>
+        <v>0.3226958911079746</v>
       </c>
       <c r="M27" t="n">
-        <v>11.8840828343452</v>
+        <v>12.02323830426194</v>
       </c>
       <c r="N27" t="n">
-        <v>217.146176863082</v>
+        <v>222.4023490982252</v>
       </c>
       <c r="O27" t="n">
-        <v>14.73588059340473</v>
+        <v>14.91316026529002</v>
       </c>
       <c r="P27" t="n">
-        <v>394.7010164680484</v>
+        <v>394.4237727769777</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -27184,28 +27308,28 @@
         <v>0.0375</v>
       </c>
       <c r="I28" t="n">
-        <v>-1.206142845832753</v>
+        <v>-1.180383052016222</v>
       </c>
       <c r="J28" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K28" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L28" t="n">
-        <v>0.2923858075224295</v>
+        <v>0.2824288106445619</v>
       </c>
       <c r="M28" t="n">
-        <v>12.35636045849889</v>
+        <v>12.44231855175715</v>
       </c>
       <c r="N28" t="n">
-        <v>227.5627979199718</v>
+        <v>230.1705065138901</v>
       </c>
       <c r="O28" t="n">
-        <v>15.08518471613695</v>
+        <v>15.17137127994335</v>
       </c>
       <c r="P28" t="n">
-        <v>388.0950890506704</v>
+        <v>387.8760751283112</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -27262,28 +27386,28 @@
         <v>0.0368</v>
       </c>
       <c r="I29" t="n">
-        <v>-1.155890150520379</v>
+        <v>-1.13063416555198</v>
       </c>
       <c r="J29" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K29" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L29" t="n">
-        <v>0.2937050021175442</v>
+        <v>0.2832784760239825</v>
       </c>
       <c r="M29" t="n">
-        <v>11.93066953120297</v>
+        <v>12.00618651221212</v>
       </c>
       <c r="N29" t="n">
-        <v>208.6159145758043</v>
+        <v>211.1995343948431</v>
       </c>
       <c r="O29" t="n">
-        <v>14.44354231398255</v>
+        <v>14.53270568045892</v>
       </c>
       <c r="P29" t="n">
-        <v>380.9731978251391</v>
+        <v>380.756604862017</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -27340,28 +27464,28 @@
         <v>0.0377</v>
       </c>
       <c r="I30" t="n">
-        <v>-1.035310827412385</v>
+        <v>-1.01027342162026</v>
       </c>
       <c r="J30" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K30" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L30" t="n">
-        <v>0.244428490125258</v>
+        <v>0.2344956755136469</v>
       </c>
       <c r="M30" t="n">
-        <v>11.92140147895144</v>
+        <v>11.99571801119368</v>
       </c>
       <c r="N30" t="n">
-        <v>214.004330009532</v>
+        <v>216.4680983813397</v>
       </c>
       <c r="O30" t="n">
-        <v>14.62888683425817</v>
+        <v>14.71285486849305</v>
       </c>
       <c r="P30" t="n">
-        <v>376.5367955087029</v>
+        <v>376.3227280077074</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -27418,28 +27542,28 @@
         <v>0.037</v>
       </c>
       <c r="I31" t="n">
-        <v>-1.066130663373154</v>
+        <v>-1.03120812201198</v>
       </c>
       <c r="J31" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K31" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L31" t="n">
-        <v>0.2659720029120312</v>
+        <v>0.2488190706316685</v>
       </c>
       <c r="M31" t="n">
-        <v>11.73465161483927</v>
+        <v>11.85709590690805</v>
       </c>
       <c r="N31" t="n">
-        <v>202.4337412899932</v>
+        <v>208.3805489581743</v>
       </c>
       <c r="O31" t="n">
-        <v>14.22792118652592</v>
+        <v>14.43539223430296</v>
       </c>
       <c r="P31" t="n">
-        <v>378.2876231484499</v>
+        <v>377.9878776644683</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -27496,28 +27620,28 @@
         <v>0.0419</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.9364513346707748</v>
+        <v>-0.899094518575604</v>
       </c>
       <c r="J32" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K32" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L32" t="n">
-        <v>0.2451776107504601</v>
+        <v>0.2244353356798878</v>
       </c>
       <c r="M32" t="n">
-        <v>10.70196243925684</v>
+        <v>10.84783036554692</v>
       </c>
       <c r="N32" t="n">
-        <v>173.5059035277077</v>
+        <v>180.5810956969418</v>
       </c>
       <c r="O32" t="n">
-        <v>13.17216396526052</v>
+        <v>13.43804657295627</v>
       </c>
       <c r="P32" t="n">
-        <v>356.8332351196674</v>
+        <v>356.5127598945812</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
@@ -27574,28 +27698,28 @@
         <v>0.048</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.6762230253468728</v>
+        <v>-0.640161645465252</v>
       </c>
       <c r="J33" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K33" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L33" t="n">
-        <v>0.1752476570536667</v>
+        <v>0.1546399202470818</v>
       </c>
       <c r="M33" t="n">
-        <v>9.750420572572942</v>
+        <v>9.867298148485798</v>
       </c>
       <c r="N33" t="n">
-        <v>138.7490269309151</v>
+        <v>145.325529669757</v>
       </c>
       <c r="O33" t="n">
-        <v>11.77917768483501</v>
+        <v>12.05510388465222</v>
       </c>
       <c r="P33" t="n">
-        <v>339.0968153505447</v>
+        <v>338.7909663670887</v>
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
@@ -27652,28 +27776,28 @@
         <v>0.0384</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.7760167800650478</v>
+        <v>-0.7304924708605943</v>
       </c>
       <c r="J34" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K34" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L34" t="n">
-        <v>0.1500516062668416</v>
+        <v>0.1307226329805549</v>
       </c>
       <c r="M34" t="n">
-        <v>12.15870156553515</v>
+        <v>12.36593206987559</v>
       </c>
       <c r="N34" t="n">
-        <v>224.8009022572201</v>
+        <v>235.3004233583952</v>
       </c>
       <c r="O34" t="n">
-        <v>14.99336193977922</v>
+        <v>15.33950531661289</v>
       </c>
       <c r="P34" t="n">
-        <v>334.1741165874849</v>
+        <v>333.7950738491406</v>
       </c>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
@@ -27730,28 +27854,28 @@
         <v>0.0468</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.3321848931022476</v>
+        <v>-0.2822298042956801</v>
       </c>
       <c r="J35" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K35" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L35" t="n">
-        <v>0.01624450198601923</v>
+        <v>0.0115585908406165</v>
       </c>
       <c r="M35" t="n">
-        <v>16.8291278755341</v>
+        <v>16.99791437272703</v>
       </c>
       <c r="N35" t="n">
-        <v>429.808740730961</v>
+        <v>440.7243633532148</v>
       </c>
       <c r="O35" t="n">
-        <v>20.73182916992519</v>
+        <v>20.9934361968977</v>
       </c>
       <c r="P35" t="n">
-        <v>309.4713571247824</v>
+        <v>309.0354370742106</v>
       </c>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
@@ -27789,7 +27913,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ215"/>
+  <dimension ref="A1:AJ216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62507,6 +62631,188 @@
         </is>
       </c>
     </row>
+    <row r="216">
+      <c r="A216" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>-34.506707947367424,172.70222811080038</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>-34.50594560779474,172.70222831843654</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>-34.5052482458785,172.70190765935254</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>-34.50454388719875,172.70162151718807</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>-34.50383638166972,172.7013564464607</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>-34.50315958414377,172.7010797056696</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>-34.50256178505384,172.7005967485613</t>
+        </is>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>-34.502004179466894,172.6999990666744</t>
+        </is>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>-34.501385640350705,172.6995040988267</t>
+        </is>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>-34.50080373171663,172.6989473722571</t>
+        </is>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>-34.50024687516281,172.6983484056838</t>
+        </is>
+      </c>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>-34.49963110690027,172.6978487449193</t>
+        </is>
+      </c>
+      <c r="N216" t="inlineStr">
+        <is>
+          <t>-34.4990324822204,172.69732017627362</t>
+        </is>
+      </c>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>-34.498442337000306,172.69677730570154</t>
+        </is>
+      </c>
+      <c r="P216" t="inlineStr">
+        <is>
+          <t>-34.49786351115765,172.69622496377983</t>
+        </is>
+      </c>
+      <c r="Q216" t="inlineStr">
+        <is>
+          <t>-34.49730677298612,172.69564589073292</t>
+        </is>
+      </c>
+      <c r="R216" t="inlineStr">
+        <is>
+          <t>-34.49673485554763,172.69508142028303</t>
+        </is>
+      </c>
+      <c r="S216" t="inlineStr">
+        <is>
+          <t>-34.49613663974209,172.69455053425438</t>
+        </is>
+      </c>
+      <c r="T216" t="inlineStr">
+        <is>
+          <t>-34.49555234606599,172.69399865037042</t>
+        </is>
+      </c>
+      <c r="U216" t="inlineStr">
+        <is>
+          <t>-34.495007232592336,172.69338768436077</t>
+        </is>
+      </c>
+      <c r="V216" t="inlineStr">
+        <is>
+          <t>-34.49445729571118,172.69278398501982</t>
+        </is>
+      </c>
+      <c r="W216" t="inlineStr">
+        <is>
+          <t>-34.4939420547971,172.6921279645897</t>
+        </is>
+      </c>
+      <c r="X216" t="inlineStr">
+        <is>
+          <t>-34.493470958466624,172.6914812374711</t>
+        </is>
+      </c>
+      <c r="Y216" t="inlineStr">
+        <is>
+          <t>-34.49293989347316,172.6909351903757</t>
+        </is>
+      </c>
+      <c r="Z216" t="inlineStr">
+        <is>
+          <t>-34.49235666216896,172.69037485784082</t>
+        </is>
+      </c>
+      <c r="AA216" t="inlineStr">
+        <is>
+          <t>-34.49179885981848,172.68977459961087</t>
+        </is>
+      </c>
+      <c r="AB216" t="inlineStr">
+        <is>
+          <t>-34.49122608085736,172.68919050718125</t>
+        </is>
+      </c>
+      <c r="AC216" t="inlineStr">
+        <is>
+          <t>-34.49069033623178,172.68856642964548</t>
+        </is>
+      </c>
+      <c r="AD216" t="inlineStr">
+        <is>
+          <t>-34.49018867216086,172.68790645966027</t>
+        </is>
+      </c>
+      <c r="AE216" t="inlineStr">
+        <is>
+          <t>-34.48980122297648,172.68718170287903</t>
+        </is>
+      </c>
+      <c r="AF216" t="inlineStr">
+        <is>
+          <t>-34.48940827307235,172.686450053018</t>
+        </is>
+      </c>
+      <c r="AG216" t="inlineStr">
+        <is>
+          <t>-34.48902207234503,172.68567121759918</t>
+        </is>
+      </c>
+      <c r="AH216" t="inlineStr">
+        <is>
+          <t>-34.48875741409811,172.68483198480953</t>
+        </is>
+      </c>
+      <c r="AI216" t="inlineStr">
+        <is>
+          <t>-34.488377429853145,172.6840500609067</t>
+        </is>
+      </c>
+      <c r="AJ216" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0008/nzd0008.xlsx
+++ b/data/nzd0008/nzd0008.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -39902,7 +39902,7 @@
       </c>
       <c r="AA79" t="inlineStr">
         <is>
-          <t>-34.49164421904283,172.68994154898112</t>
+          <t>-34.49164421904284,172.68994154898112</t>
         </is>
       </c>
       <c r="AB79" t="inlineStr">
@@ -49453,7 +49453,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>-34.502488722233316,172.7007199170295</t>
+          <t>-34.50248872223331,172.7007199170295</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -52980,7 +52980,7 @@
       </c>
       <c r="AA160" t="inlineStr">
         <is>
-          <t>-34.49170224297886,172.68987890674623</t>
+          <t>-34.49170224297885,172.68987890674623</t>
         </is>
       </c>
       <c r="AB160" t="inlineStr">
@@ -56314,7 +56314,7 @@
       </c>
       <c r="AI179" t="inlineStr">
         <is>
-          <t>-34.48801648688957,172.68422942500587</t>
+          <t>-34.48801648688956,172.68422942500587</t>
         </is>
       </c>
       <c r="AJ179" t="inlineStr">
@@ -61821,7 +61821,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>-34.501366959013964,172.69953559167433</t>
+          <t>-34.50136695901397,172.69953559167433</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">

--- a/data/nzd0008/nzd0008.xlsx
+++ b/data/nzd0008/nzd0008.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ216"/>
+  <dimension ref="A1:AJ217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22918,6 +22918,118 @@
         </is>
       </c>
     </row>
+    <row r="217">
+      <c r="A217" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:17:12+00:00</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>359.1</v>
+      </c>
+      <c r="C217" t="n">
+        <v>348.79</v>
+      </c>
+      <c r="D217" t="n">
+        <v>340.53</v>
+      </c>
+      <c r="E217" t="n">
+        <v>353.0142857142857</v>
+      </c>
+      <c r="F217" t="n">
+        <v>362.33</v>
+      </c>
+      <c r="G217" t="n">
+        <v>379.32</v>
+      </c>
+      <c r="H217" t="n">
+        <v>374.81</v>
+      </c>
+      <c r="I217" t="n">
+        <v>363.65</v>
+      </c>
+      <c r="J217" t="n">
+        <v>376.53</v>
+      </c>
+      <c r="K217" t="n">
+        <v>374.8042857142857</v>
+      </c>
+      <c r="L217" t="n">
+        <v>376.9</v>
+      </c>
+      <c r="M217" t="n">
+        <v>380.37</v>
+      </c>
+      <c r="N217" t="n">
+        <v>396.8442857142857</v>
+      </c>
+      <c r="O217" t="n">
+        <v>395.8342857142857</v>
+      </c>
+      <c r="P217" t="n">
+        <v>399.1142857142857</v>
+      </c>
+      <c r="Q217" t="n">
+        <v>396.3642857142857</v>
+      </c>
+      <c r="R217" t="n">
+        <v>395.2042857142857</v>
+      </c>
+      <c r="S217" t="n">
+        <v>396.8042857142857</v>
+      </c>
+      <c r="T217" t="n">
+        <v>400.8942857142857</v>
+      </c>
+      <c r="U217" t="n">
+        <v>400.2842857142857</v>
+      </c>
+      <c r="V217" t="n">
+        <v>408.48</v>
+      </c>
+      <c r="W217" t="n">
+        <v>419.09</v>
+      </c>
+      <c r="X217" t="n">
+        <v>411.57</v>
+      </c>
+      <c r="Y217" t="n">
+        <v>403.88</v>
+      </c>
+      <c r="Z217" t="n">
+        <v>385.3742857142857</v>
+      </c>
+      <c r="AA217" t="n">
+        <v>376.35</v>
+      </c>
+      <c r="AB217" t="n">
+        <v>376.7042857142857</v>
+      </c>
+      <c r="AC217" t="n">
+        <v>374.5142857142857</v>
+      </c>
+      <c r="AD217" t="n">
+        <v>377.1242857142857</v>
+      </c>
+      <c r="AE217" t="n">
+        <v>383.2042857142857</v>
+      </c>
+      <c r="AF217" t="n">
+        <v>363.7242857142857</v>
+      </c>
+      <c r="AG217" t="n">
+        <v>345.69</v>
+      </c>
+      <c r="AH217" t="n">
+        <v>341.4042857142857</v>
+      </c>
+      <c r="AI217" t="inlineStr"/>
+      <c r="AJ217" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22929,7 +23041,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B217"/>
+  <dimension ref="A1:B218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25107,6 +25219,16 @@
       </c>
       <c r="B217" t="n">
         <v>-0.61</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
@@ -25280,28 +25402,28 @@
         <v>0.0366</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3407290222210008</v>
+        <v>-0.349709362065404</v>
       </c>
       <c r="J2" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K2" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02228309396160466</v>
+        <v>0.02367607913387071</v>
       </c>
       <c r="M2" t="n">
-        <v>14.11167346836791</v>
+        <v>14.08882142371558</v>
       </c>
       <c r="N2" t="n">
-        <v>328.8884449371998</v>
+        <v>327.5949344042332</v>
       </c>
       <c r="O2" t="n">
-        <v>18.13528177165163</v>
+        <v>18.09958381853663</v>
       </c>
       <c r="P2" t="n">
-        <v>377.234573023333</v>
+        <v>377.3113227945795</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -25358,28 +25480,28 @@
         <v>0.0307</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.4200875348078701</v>
+        <v>-0.4201781375703817</v>
       </c>
       <c r="J3" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K3" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05493893875431721</v>
+        <v>0.05554838109568871</v>
       </c>
       <c r="M3" t="n">
-        <v>11.32109594055082</v>
+        <v>11.26110131683486</v>
       </c>
       <c r="N3" t="n">
-        <v>201.6048689189731</v>
+        <v>200.526816503945</v>
       </c>
       <c r="O3" t="n">
-        <v>14.19876293621994</v>
+        <v>14.16074915051972</v>
       </c>
       <c r="P3" t="n">
-        <v>359.7341085039391</v>
+        <v>359.7348667071673</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -25436,28 +25558,28 @@
         <v>0.0455</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3596491637632397</v>
+        <v>-0.3603533704358279</v>
       </c>
       <c r="J4" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K4" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05709116492200395</v>
+        <v>0.05791553530484284</v>
       </c>
       <c r="M4" t="n">
-        <v>9.739829628291798</v>
+        <v>9.692431691731587</v>
       </c>
       <c r="N4" t="n">
-        <v>141.756928786486</v>
+        <v>141.0098002749387</v>
       </c>
       <c r="O4" t="n">
-        <v>11.90617187791635</v>
+        <v>11.87475474588586</v>
       </c>
       <c r="P4" t="n">
-        <v>350.5649326361707</v>
+        <v>350.5707925732186</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -25514,28 +25636,28 @@
         <v>0.0359</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.3015218644417128</v>
+        <v>-0.2947935412118711</v>
       </c>
       <c r="J5" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K5" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03671541470156048</v>
+        <v>0.03548569256842538</v>
       </c>
       <c r="M5" t="n">
-        <v>10.22575131187374</v>
+        <v>10.20458347688393</v>
       </c>
       <c r="N5" t="n">
-        <v>157.1019211123327</v>
+        <v>156.5266309703896</v>
       </c>
       <c r="O5" t="n">
-        <v>12.53403052143774</v>
+        <v>12.51106034556582</v>
       </c>
       <c r="P5" t="n">
-        <v>353.7453881709744</v>
+        <v>353.6891065489588</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -25592,28 +25714,28 @@
         <v>0.0305</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4120132891130697</v>
+        <v>-0.4014782256511738</v>
       </c>
       <c r="J6" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K6" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0484704182746194</v>
+        <v>0.04652468254013853</v>
       </c>
       <c r="M6" t="n">
-        <v>11.85596723035985</v>
+        <v>11.84613262428227</v>
       </c>
       <c r="N6" t="n">
-        <v>217.1806901848722</v>
+        <v>216.6702518206895</v>
       </c>
       <c r="O6" t="n">
-        <v>14.73705161098624</v>
+        <v>14.71972322500289</v>
       </c>
       <c r="P6" t="n">
-        <v>361.9602488522129</v>
+        <v>361.8724969311765</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -25670,28 +25792,28 @@
         <v>0.0264</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3177795120164272</v>
+        <v>-0.3048280813248833</v>
       </c>
       <c r="J7" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K7" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02104718024627694</v>
+        <v>0.01955778271240904</v>
       </c>
       <c r="M7" t="n">
-        <v>13.92326974311505</v>
+        <v>13.9145733624963</v>
       </c>
       <c r="N7" t="n">
-        <v>310.3594287696983</v>
+        <v>309.6865072086796</v>
       </c>
       <c r="O7" t="n">
-        <v>17.61702099589196</v>
+        <v>17.59791201275537</v>
       </c>
       <c r="P7" t="n">
-        <v>373.8780549229559</v>
+        <v>373.7702482358684</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -25748,28 +25870,28 @@
         <v>0.0322</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3030654948950533</v>
+        <v>-0.2905759438670382</v>
       </c>
       <c r="J8" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K8" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02720681840976225</v>
+        <v>0.02524373158546789</v>
       </c>
       <c r="M8" t="n">
-        <v>11.76973791107374</v>
+        <v>11.77632243590295</v>
       </c>
       <c r="N8" t="n">
-        <v>217.010012463427</v>
+        <v>216.7638115828246</v>
       </c>
       <c r="O8" t="n">
-        <v>14.73125970388911</v>
+        <v>14.72290092280813</v>
       </c>
       <c r="P8" t="n">
-        <v>369.4697350776922</v>
+        <v>369.3657476223547</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -25826,28 +25948,28 @@
         <v>0.0316</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.5235433546850643</v>
+        <v>-0.5149481978904484</v>
       </c>
       <c r="J9" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K9" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L9" t="n">
-        <v>0.05719698314762223</v>
+        <v>0.05598457911587429</v>
       </c>
       <c r="M9" t="n">
-        <v>13.96906056712741</v>
+        <v>13.93832051117387</v>
       </c>
       <c r="N9" t="n">
-        <v>300.3943298205959</v>
+        <v>299.1695773099452</v>
       </c>
       <c r="O9" t="n">
-        <v>17.33188765889613</v>
+        <v>17.29651922526452</v>
       </c>
       <c r="P9" t="n">
-        <v>368.3609743643197</v>
+        <v>368.2898427137969</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -25904,28 +26026,28 @@
         <v>0.0333</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.6266982611296333</v>
+        <v>-0.6117978091594373</v>
       </c>
       <c r="J10" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K10" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L10" t="n">
-        <v>0.09637572515481019</v>
+        <v>0.09278453137779319</v>
       </c>
       <c r="M10" t="n">
-        <v>12.72808048746225</v>
+        <v>12.73713500433727</v>
       </c>
       <c r="N10" t="n">
-        <v>243.5923477490937</v>
+        <v>243.535519153445</v>
       </c>
       <c r="O10" t="n">
-        <v>15.6074452665737</v>
+        <v>15.60562459991413</v>
       </c>
       <c r="P10" t="n">
-        <v>377.3108226654144</v>
+        <v>377.185248838516</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -25982,28 +26104,28 @@
         <v>0.0393</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.6746940289344328</v>
+        <v>-0.6632379153353457</v>
       </c>
       <c r="J11" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K11" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1095400725868992</v>
+        <v>0.1070702514805071</v>
       </c>
       <c r="M11" t="n">
-        <v>12.04665253232944</v>
+        <v>12.03944461774641</v>
       </c>
       <c r="N11" t="n">
-        <v>239.4653981056598</v>
+        <v>238.8061379085039</v>
       </c>
       <c r="O11" t="n">
-        <v>15.4746695636986</v>
+        <v>15.45335361364982</v>
       </c>
       <c r="P11" t="n">
-        <v>380.9298785431661</v>
+        <v>380.8301740239049</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -26060,28 +26182,28 @@
         <v>0.0365</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.7711605122187672</v>
+        <v>-0.7574199289053278</v>
       </c>
       <c r="J12" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K12" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1154062078924886</v>
+        <v>0.1126196426107074</v>
       </c>
       <c r="M12" t="n">
-        <v>13.7674591331659</v>
+        <v>13.75914374076595</v>
       </c>
       <c r="N12" t="n">
-        <v>293.676042348105</v>
+        <v>293.0225749973094</v>
       </c>
       <c r="O12" t="n">
-        <v>17.13697879872952</v>
+        <v>17.11790217863478</v>
       </c>
       <c r="P12" t="n">
-        <v>383.3045910108979</v>
+        <v>383.1855008554468</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -26138,28 +26260,28 @@
         <v>0.0316</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.029451313663585</v>
+        <v>-1.013647200703635</v>
       </c>
       <c r="J13" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K13" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1880019447553846</v>
+        <v>0.1844006975895546</v>
       </c>
       <c r="M13" t="n">
-        <v>13.69737099882291</v>
+        <v>13.70788624372389</v>
       </c>
       <c r="N13" t="n">
-        <v>296.6575840030977</v>
+        <v>296.3233169773865</v>
       </c>
       <c r="O13" t="n">
-        <v>17.22375057886922</v>
+        <v>17.21404417844298</v>
       </c>
       <c r="P13" t="n">
-        <v>391.3743439093839</v>
+        <v>391.2376567326759</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -26216,28 +26338,28 @@
         <v>0.038</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.9279813773845346</v>
+        <v>-0.9026418897916002</v>
       </c>
       <c r="J14" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K14" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L14" t="n">
-        <v>0.220259451203155</v>
+        <v>0.2097228353767883</v>
       </c>
       <c r="M14" t="n">
-        <v>11.37658835066666</v>
+        <v>11.46365145159849</v>
       </c>
       <c r="N14" t="n">
-        <v>200.3947259660215</v>
+        <v>202.9659610719087</v>
       </c>
       <c r="O14" t="n">
-        <v>14.15608441505</v>
+        <v>14.24661226649721</v>
       </c>
       <c r="P14" t="n">
-        <v>395.0363034857538</v>
+        <v>394.8182657703472</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -26294,28 +26416,28 @@
         <v>0.0409</v>
       </c>
       <c r="I15" t="n">
-        <v>-1.054700091788205</v>
+        <v>-1.030239226744661</v>
       </c>
       <c r="J15" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K15" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L15" t="n">
-        <v>0.2244737383034811</v>
+        <v>0.2161065646905095</v>
       </c>
       <c r="M15" t="n">
-        <v>12.46774088344552</v>
+        <v>12.54117039447577</v>
       </c>
       <c r="N15" t="n">
-        <v>236.6908387764249</v>
+        <v>238.4638286296154</v>
       </c>
       <c r="O15" t="n">
-        <v>15.38475995186226</v>
+        <v>15.44227407571875</v>
       </c>
       <c r="P15" t="n">
-        <v>399.7074698474486</v>
+        <v>399.4821274882411</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -26372,28 +26494,28 @@
         <v>0.0396</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.9767705796040548</v>
+        <v>-0.9546345219587602</v>
       </c>
       <c r="J16" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K16" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L16" t="n">
-        <v>0.2167142984660475</v>
+        <v>0.2089090372810744</v>
       </c>
       <c r="M16" t="n">
-        <v>11.85730839763724</v>
+        <v>11.9130925625905</v>
       </c>
       <c r="N16" t="n">
-        <v>213.871095031391</v>
+        <v>215.2365625860274</v>
       </c>
       <c r="O16" t="n">
-        <v>14.62433229352339</v>
+        <v>14.67094279813085</v>
       </c>
       <c r="P16" t="n">
-        <v>403.0663161112757</v>
+        <v>402.8633617196832</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -26450,28 +26572,28 @@
         <v>0.0373</v>
       </c>
       <c r="I17" t="n">
-        <v>-1.048996886608384</v>
+        <v>-1.032961599041754</v>
       </c>
       <c r="J17" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K17" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L17" t="n">
-        <v>0.2739750713960374</v>
+        <v>0.2685751788156129</v>
       </c>
       <c r="M17" t="n">
-        <v>11.19262628344564</v>
+        <v>11.22754951329491</v>
       </c>
       <c r="N17" t="n">
-        <v>188.4282625092166</v>
+        <v>188.8512196770429</v>
       </c>
       <c r="O17" t="n">
-        <v>13.72691744381151</v>
+        <v>13.74231493151874</v>
       </c>
       <c r="P17" t="n">
-        <v>407.0498112700565</v>
+        <v>406.9102317375243</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -26528,28 +26650,28 @@
         <v>0.038</v>
       </c>
       <c r="I18" t="n">
-        <v>-1.118046956249248</v>
+        <v>-1.102949678338716</v>
       </c>
       <c r="J18" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K18" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2903187247856963</v>
+        <v>0.2857168165679582</v>
       </c>
       <c r="M18" t="n">
-        <v>11.51059204368977</v>
+        <v>11.53553769304468</v>
       </c>
       <c r="N18" t="n">
-        <v>196.7256840486874</v>
+        <v>196.9447777764035</v>
       </c>
       <c r="O18" t="n">
-        <v>14.02589334226834</v>
+        <v>14.0337014994763</v>
       </c>
       <c r="P18" t="n">
-        <v>408.5571444234096</v>
+        <v>408.4261385967246</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -26606,28 +26728,28 @@
         <v>0.0374</v>
       </c>
       <c r="I19" t="n">
-        <v>-1.146629044409877</v>
+        <v>-1.130285700486221</v>
       </c>
       <c r="J19" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K19" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L19" t="n">
-        <v>0.301274075867296</v>
+        <v>0.2960389582610754</v>
       </c>
       <c r="M19" t="n">
-        <v>11.58352083897177</v>
+        <v>11.61017081942263</v>
       </c>
       <c r="N19" t="n">
-        <v>199.2635107107635</v>
+        <v>199.6987762929476</v>
       </c>
       <c r="O19" t="n">
-        <v>14.11607277930953</v>
+        <v>14.13148174442254</v>
       </c>
       <c r="P19" t="n">
-        <v>409.5846083736075</v>
+        <v>409.4449178908753</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -26684,28 +26806,28 @@
         <v>0.0365</v>
       </c>
       <c r="I20" t="n">
-        <v>-1.026945169273252</v>
+        <v>-1.007713507876916</v>
       </c>
       <c r="J20" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K20" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L20" t="n">
-        <v>0.2202998476666681</v>
+        <v>0.2143339051015769</v>
       </c>
       <c r="M20" t="n">
-        <v>13.01429069556845</v>
+        <v>13.05298158057214</v>
       </c>
       <c r="N20" t="n">
-        <v>247.9018779259791</v>
+        <v>248.6910953965829</v>
       </c>
       <c r="O20" t="n">
-        <v>15.74490006084443</v>
+        <v>15.76994278355451</v>
       </c>
       <c r="P20" t="n">
-        <v>407.4579417219801</v>
+        <v>407.2963222060154</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -26762,28 +26884,28 @@
         <v>0.0374</v>
       </c>
       <c r="I21" t="n">
-        <v>-1.525246599441442</v>
+        <v>-1.504018497028878</v>
       </c>
       <c r="J21" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K21" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L21" t="n">
-        <v>0.3825997852987452</v>
+        <v>0.3761844110537785</v>
       </c>
       <c r="M21" t="n">
-        <v>12.91777813249581</v>
+        <v>12.97400243361885</v>
       </c>
       <c r="N21" t="n">
-        <v>248.5372188786255</v>
+        <v>249.8139405993987</v>
       </c>
       <c r="O21" t="n">
-        <v>15.76506323738112</v>
+        <v>15.80550349085402</v>
       </c>
       <c r="P21" t="n">
-        <v>417.4982150402402</v>
+        <v>417.3195785748845</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -26840,28 +26962,28 @@
         <v>0.0365</v>
       </c>
       <c r="I22" t="n">
-        <v>-1.554596136838799</v>
+        <v>-1.528614153672316</v>
       </c>
       <c r="J22" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K22" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L22" t="n">
-        <v>0.4131144658962075</v>
+        <v>0.4035910149217783</v>
       </c>
       <c r="M22" t="n">
-        <v>12.11943894712865</v>
+        <v>12.18642887129</v>
       </c>
       <c r="N22" t="n">
-        <v>223.7753005405499</v>
+        <v>226.4342869408499</v>
       </c>
       <c r="O22" t="n">
-        <v>14.95912098154667</v>
+        <v>15.04773361476239</v>
       </c>
       <c r="P22" t="n">
-        <v>421.4974673951634</v>
+        <v>421.277605839241</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -26918,28 +27040,28 @@
         <v>0.0325</v>
       </c>
       <c r="I23" t="n">
-        <v>-1.298019393414856</v>
+        <v>-1.266450762965796</v>
       </c>
       <c r="J23" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K23" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L23" t="n">
-        <v>0.3388811803343865</v>
+        <v>0.3248118249051604</v>
       </c>
       <c r="M23" t="n">
-        <v>12.02023482858591</v>
+        <v>12.11525855256512</v>
       </c>
       <c r="N23" t="n">
-        <v>211.8504051803933</v>
+        <v>216.2377068266794</v>
       </c>
       <c r="O23" t="n">
-        <v>14.55508176481305</v>
+        <v>14.70502318347984</v>
       </c>
       <c r="P23" t="n">
-        <v>420.2059278797302</v>
+        <v>419.9370120136681</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -26996,28 +27118,28 @@
         <v>0.0312</v>
       </c>
       <c r="I24" t="n">
-        <v>-1.321471337224653</v>
+        <v>-1.297799309036516</v>
       </c>
       <c r="J24" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K24" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L24" t="n">
-        <v>0.3008875467652976</v>
+        <v>0.2932096053653632</v>
       </c>
       <c r="M24" t="n">
-        <v>12.94978234317676</v>
+        <v>13.00890525425111</v>
       </c>
       <c r="N24" t="n">
-        <v>262.2514159469169</v>
+        <v>264.0149377562493</v>
       </c>
       <c r="O24" t="n">
-        <v>16.19417845853617</v>
+        <v>16.24853648044184</v>
       </c>
       <c r="P24" t="n">
-        <v>421.1579066266392</v>
+        <v>420.9555384927972</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -27074,28 +27196,28 @@
         <v>0.0339</v>
       </c>
       <c r="I25" t="n">
-        <v>-1.543142746361699</v>
+        <v>-1.51968207904014</v>
       </c>
       <c r="J25" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K25" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L25" t="n">
-        <v>0.3650628165808734</v>
+        <v>0.3578292694868144</v>
       </c>
       <c r="M25" t="n">
-        <v>12.91190892992803</v>
+        <v>12.96365025113901</v>
       </c>
       <c r="N25" t="n">
-        <v>271.3201926949106</v>
+        <v>273.0871268384156</v>
       </c>
       <c r="O25" t="n">
-        <v>16.47179992274404</v>
+        <v>16.52534800960076</v>
       </c>
       <c r="P25" t="n">
-        <v>419.0311289378204</v>
+        <v>418.8311987191335</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -27152,28 +27274,28 @@
         <v>0.0376</v>
       </c>
       <c r="I26" t="n">
-        <v>-1.628502617249285</v>
+        <v>-1.611296155401142</v>
       </c>
       <c r="J26" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K26" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L26" t="n">
-        <v>0.3926420341496325</v>
+        <v>0.3888615344200244</v>
       </c>
       <c r="M26" t="n">
-        <v>12.65597805348069</v>
+        <v>12.68896776566952</v>
       </c>
       <c r="N26" t="n">
-        <v>262.4627020491351</v>
+        <v>262.7149062829074</v>
       </c>
       <c r="O26" t="n">
-        <v>16.20070066537664</v>
+        <v>16.20848254103102</v>
       </c>
       <c r="P26" t="n">
-        <v>409.6608185895396</v>
+        <v>409.5138504939644</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -27230,28 +27352,28 @@
         <v>0.0431</v>
       </c>
       <c r="I27" t="n">
-        <v>-1.261936276203478</v>
+        <v>-1.248198744244226</v>
       </c>
       <c r="J27" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K27" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L27" t="n">
-        <v>0.3226958911079746</v>
+        <v>0.3192877240957904</v>
       </c>
       <c r="M27" t="n">
-        <v>12.02323830426194</v>
+        <v>12.04307092872516</v>
       </c>
       <c r="N27" t="n">
-        <v>222.4023490982252</v>
+        <v>222.320434462427</v>
       </c>
       <c r="O27" t="n">
-        <v>14.91316026529002</v>
+        <v>14.91041362479348</v>
       </c>
       <c r="P27" t="n">
-        <v>394.4237727769777</v>
+        <v>394.3089295007839</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -27308,28 +27430,28 @@
         <v>0.0375</v>
       </c>
       <c r="I28" t="n">
-        <v>-1.180383052016222</v>
+        <v>-1.162201374535695</v>
       </c>
       <c r="J28" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K28" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L28" t="n">
-        <v>0.2824288106445619</v>
+        <v>0.2767278545401795</v>
       </c>
       <c r="M28" t="n">
-        <v>12.44231855175715</v>
+        <v>12.48396675179561</v>
       </c>
       <c r="N28" t="n">
-        <v>230.1705065138901</v>
+        <v>230.8895836525811</v>
       </c>
       <c r="O28" t="n">
-        <v>15.17137127994335</v>
+        <v>15.19505128825109</v>
       </c>
       <c r="P28" t="n">
-        <v>387.8760751283112</v>
+        <v>387.7209269698454</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -27386,28 +27508,28 @@
         <v>0.0368</v>
       </c>
       <c r="I29" t="n">
-        <v>-1.13063416555198</v>
+        <v>-1.108885556192974</v>
       </c>
       <c r="J29" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K29" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L29" t="n">
-        <v>0.2832784760239825</v>
+        <v>0.2750145476104841</v>
       </c>
       <c r="M29" t="n">
-        <v>12.00618651221212</v>
+        <v>12.06250789422751</v>
       </c>
       <c r="N29" t="n">
-        <v>211.1995343948431</v>
+        <v>212.8596186293125</v>
       </c>
       <c r="O29" t="n">
-        <v>14.53270568045892</v>
+        <v>14.58970934012438</v>
       </c>
       <c r="P29" t="n">
-        <v>380.756604862017</v>
+        <v>380.5693900681317</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -27464,28 +27586,28 @@
         <v>0.0377</v>
       </c>
       <c r="I30" t="n">
-        <v>-1.01027342162026</v>
+        <v>-0.9848444542505143</v>
       </c>
       <c r="J30" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K30" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L30" t="n">
-        <v>0.2344956755136469</v>
+        <v>0.2243670770011307</v>
       </c>
       <c r="M30" t="n">
-        <v>11.99571801119368</v>
+        <v>12.07057434621421</v>
       </c>
       <c r="N30" t="n">
-        <v>216.4680983813397</v>
+        <v>219.1001626888602</v>
       </c>
       <c r="O30" t="n">
-        <v>14.71285486849305</v>
+        <v>14.80203238372556</v>
       </c>
       <c r="P30" t="n">
-        <v>376.3227280077074</v>
+        <v>376.1045123652993</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -27542,28 +27664,28 @@
         <v>0.037</v>
       </c>
       <c r="I31" t="n">
-        <v>-1.03120812201198</v>
+        <v>-1.001044217366711</v>
       </c>
       <c r="J31" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K31" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L31" t="n">
-        <v>0.2488190706316685</v>
+        <v>0.2352974064236831</v>
       </c>
       <c r="M31" t="n">
-        <v>11.85709590690805</v>
+        <v>11.95273107480454</v>
       </c>
       <c r="N31" t="n">
-        <v>208.3805489581743</v>
+        <v>212.6010771831622</v>
       </c>
       <c r="O31" t="n">
-        <v>14.43539223430296</v>
+        <v>14.58084624372544</v>
       </c>
       <c r="P31" t="n">
-        <v>377.9878776644683</v>
+        <v>377.7280188833549</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -27620,28 +27742,28 @@
         <v>0.0419</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.899094518575604</v>
+        <v>-0.8703323878381004</v>
       </c>
       <c r="J32" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K32" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L32" t="n">
-        <v>0.2244353356798878</v>
+        <v>0.210750519397946</v>
       </c>
       <c r="M32" t="n">
-        <v>10.84783036554692</v>
+        <v>10.94899174913673</v>
       </c>
       <c r="N32" t="n">
-        <v>180.5810956969418</v>
+        <v>184.4450667673131</v>
       </c>
       <c r="O32" t="n">
-        <v>13.43804657295627</v>
+        <v>13.58105543642736</v>
       </c>
       <c r="P32" t="n">
-        <v>356.5127598945812</v>
+        <v>356.2651154103045</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
@@ -27698,28 +27820,28 @@
         <v>0.048</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.640161645465252</v>
+        <v>-0.6178162712996979</v>
       </c>
       <c r="J33" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K33" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L33" t="n">
-        <v>0.1546399202470818</v>
+        <v>0.1445566067079618</v>
       </c>
       <c r="M33" t="n">
-        <v>9.867298148485798</v>
+        <v>9.921655507727502</v>
       </c>
       <c r="N33" t="n">
-        <v>145.325529669757</v>
+        <v>147.4132796336617</v>
       </c>
       <c r="O33" t="n">
-        <v>12.05510388465222</v>
+        <v>12.14138705559055</v>
       </c>
       <c r="P33" t="n">
-        <v>338.7909663670887</v>
+        <v>338.6007627164088</v>
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
@@ -27776,28 +27898,28 @@
         <v>0.0384</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.7304924708605943</v>
+        <v>-0.7049931176460874</v>
       </c>
       <c r="J34" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K34" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L34" t="n">
-        <v>0.1307226329805549</v>
+        <v>0.1223884746619298</v>
       </c>
       <c r="M34" t="n">
-        <v>12.36593206987559</v>
+        <v>12.45471292808239</v>
       </c>
       <c r="N34" t="n">
-        <v>235.3004233583952</v>
+        <v>237.7663457964484</v>
       </c>
       <c r="O34" t="n">
-        <v>15.33950531661289</v>
+        <v>15.41967398476532</v>
       </c>
       <c r="P34" t="n">
-        <v>333.7950738491406</v>
+        <v>333.5819716580526</v>
       </c>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
@@ -27857,7 +27979,7 @@
         <v>-0.2822298042956801</v>
       </c>
       <c r="J35" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K35" t="n">
         <v>168</v>
@@ -27913,7 +28035,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ216"/>
+  <dimension ref="A1:AJ217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62813,6 +62935,184 @@
         </is>
       </c>
     </row>
+    <row r="217">
+      <c r="A217" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:17:12+00:00</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>-34.50667752342146,172.7023783338521</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>-34.50593676419521,172.7022719846624</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>-34.50520039213622,172.7021439417766</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>-34.50450846945921,172.70179639596023</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>-34.503809492538785,172.70148224114646</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>-34.50316113361889,172.7010757708605</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>-34.502557600534345,172.700603802788</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>-34.50189835886193,172.7001774580255</t>
+        </is>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>-34.50136538326821,172.6995382480526</t>
+        </is>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>-34.500755686714896,172.69902836613227</t>
+        </is>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>-34.50016605773489,172.6984846471954</t>
+        </is>
+      </c>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>-34.499583642638015,172.69792875986127</t>
+        </is>
+      </c>
+      <c r="N217" t="inlineStr">
+        <is>
+          <t>-34.499069526496605,172.6972577271591</t>
+        </is>
+      </c>
+      <c r="O217" t="inlineStr">
+        <is>
+          <t>-34.498463571518144,172.6967415086277</t>
+        </is>
+      </c>
+      <c r="P217" t="inlineStr">
+        <is>
+          <t>-34.49788443452644,172.69619091501522</t>
+        </is>
+      </c>
+      <c r="Q217" t="inlineStr">
+        <is>
+          <t>-34.49729030986302,172.6956712305233</t>
+        </is>
+      </c>
+      <c r="R217" t="inlineStr">
+        <is>
+          <t>-34.49670950030887,172.69511965101498</t>
+        </is>
+      </c>
+      <c r="S217" t="inlineStr">
+        <is>
+          <t>-34.496141955620686,172.69454251895039</t>
+        </is>
+      </c>
+      <c r="T217" t="inlineStr">
+        <is>
+          <t>-34.49558844554992,172.6939442193803</t>
+        </is>
+      </c>
+      <c r="U217" t="inlineStr">
+        <is>
+          <t>-34.49500843268114,172.6933858748589</t>
+        </is>
+      </c>
+      <c r="V217" t="inlineStr">
+        <is>
+          <t>-34.49447806224247,172.6927526730459</t>
+        </is>
+      </c>
+      <c r="W217" t="inlineStr">
+        <is>
+          <t>-34.49396129896896,172.69209894795836</t>
+        </is>
+      </c>
+      <c r="X217" t="inlineStr">
+        <is>
+          <t>-34.49336434262404,172.69162142773604</t>
+        </is>
+      </c>
+      <c r="Y217" t="inlineStr">
+        <is>
+          <t>-34.49283110578134,172.69105630857607</t>
+        </is>
+      </c>
+      <c r="Z217" t="inlineStr">
+        <is>
+          <t>-34.49221851278647,172.6905240031689</t>
+        </is>
+      </c>
+      <c r="AA217" t="inlineStr">
+        <is>
+          <t>-34.49166593600075,172.68991810351983</t>
+        </is>
+      </c>
+      <c r="AB217" t="inlineStr">
+        <is>
+          <t>-34.49117641348765,172.68924412790327</t>
+        </is>
+      </c>
+      <c r="AC217" t="inlineStr">
+        <is>
+          <t>-34.49066978163883,172.6885886203502</t>
+        </is>
+      </c>
+      <c r="AD217" t="inlineStr">
+        <is>
+          <t>-34.49019585246442,172.68789879129193</t>
+        </is>
+      </c>
+      <c r="AE217" t="inlineStr">
+        <is>
+          <t>-34.489769808729264,172.68720519419114</t>
+        </is>
+      </c>
+      <c r="AF217" t="inlineStr">
+        <is>
+          <t>-34.48934082819572,172.68648356765766</t>
+        </is>
+      </c>
+      <c r="AG217" t="inlineStr">
+        <is>
+          <t>-34.48891044942643,172.68572668560694</t>
+        </is>
+      </c>
+      <c r="AH217" t="inlineStr">
+        <is>
+          <t>-34.48859472975865,172.68491282733905</t>
+        </is>
+      </c>
+      <c r="AI217" t="inlineStr"/>
+      <c r="AJ217" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0008/nzd0008.xlsx
+++ b/data/nzd0008/nzd0008.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ217"/>
+  <dimension ref="A1:AJ220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23023,10 +23023,290 @@
       <c r="AH217" t="n">
         <v>341.4042857142857</v>
       </c>
-      <c r="AI217" t="inlineStr"/>
+      <c r="AI217" t="n">
+        <v>307.11</v>
+      </c>
       <c r="AJ217" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:17:21+00:00</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr"/>
+      <c r="C218" t="inlineStr"/>
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="inlineStr"/>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="inlineStr"/>
+      <c r="O218" t="inlineStr"/>
+      <c r="P218" t="inlineStr"/>
+      <c r="Q218" t="inlineStr"/>
+      <c r="R218" t="inlineStr"/>
+      <c r="S218" t="inlineStr"/>
+      <c r="T218" t="inlineStr"/>
+      <c r="U218" t="inlineStr"/>
+      <c r="V218" t="inlineStr"/>
+      <c r="W218" t="inlineStr"/>
+      <c r="X218" t="inlineStr"/>
+      <c r="Y218" t="inlineStr"/>
+      <c r="Z218" t="inlineStr"/>
+      <c r="AA218" t="inlineStr"/>
+      <c r="AB218" t="inlineStr"/>
+      <c r="AC218" t="inlineStr"/>
+      <c r="AD218" t="inlineStr"/>
+      <c r="AE218" t="inlineStr"/>
+      <c r="AF218" t="inlineStr"/>
+      <c r="AG218" t="inlineStr"/>
+      <c r="AH218" t="n">
+        <v>333.3814285714286</v>
+      </c>
+      <c r="AI218" t="n">
+        <v>315.4</v>
+      </c>
+      <c r="AJ218" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:17:19+00:00</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>388.43</v>
+      </c>
+      <c r="C219" t="n">
+        <v>348.3</v>
+      </c>
+      <c r="D219" t="n">
+        <v>352.56</v>
+      </c>
+      <c r="E219" t="n">
+        <v>360.0885714285715</v>
+      </c>
+      <c r="F219" t="n">
+        <v>365.69</v>
+      </c>
+      <c r="G219" t="n">
+        <v>372.8</v>
+      </c>
+      <c r="H219" t="n">
+        <v>369.79</v>
+      </c>
+      <c r="I219" t="n">
+        <v>368.83</v>
+      </c>
+      <c r="J219" t="n">
+        <v>374.65</v>
+      </c>
+      <c r="K219" t="n">
+        <v>379.2185714285715</v>
+      </c>
+      <c r="L219" t="n">
+        <v>381.7</v>
+      </c>
+      <c r="M219" t="n">
+        <v>381.4</v>
+      </c>
+      <c r="N219" t="n">
+        <v>383.2285714285715</v>
+      </c>
+      <c r="O219" t="n">
+        <v>383.4785714285715</v>
+      </c>
+      <c r="P219" t="n">
+        <v>382.4385714285714</v>
+      </c>
+      <c r="Q219" t="n">
+        <v>382.4385714285714</v>
+      </c>
+      <c r="R219" t="n">
+        <v>382.1385714285714</v>
+      </c>
+      <c r="S219" t="n">
+        <v>390.3485714285715</v>
+      </c>
+      <c r="T219" t="n">
+        <v>396.9785714285715</v>
+      </c>
+      <c r="U219" t="n">
+        <v>407.4585714285714</v>
+      </c>
+      <c r="V219" t="n">
+        <v>404.06</v>
+      </c>
+      <c r="W219" t="n">
+        <v>402.56</v>
+      </c>
+      <c r="X219" t="n">
+        <v>400.54</v>
+      </c>
+      <c r="Y219" t="n">
+        <v>390.76</v>
+      </c>
+      <c r="Z219" t="n">
+        <v>382.7985714285714</v>
+      </c>
+      <c r="AA219" t="n">
+        <v>374.67</v>
+      </c>
+      <c r="AB219" t="n">
+        <v>374.9285714285714</v>
+      </c>
+      <c r="AC219" t="n">
+        <v>381.1485714285715</v>
+      </c>
+      <c r="AD219" t="n">
+        <v>382.7385714285714</v>
+      </c>
+      <c r="AE219" t="n">
+        <v>386.3085714285714</v>
+      </c>
+      <c r="AF219" t="n">
+        <v>365.4285714285714</v>
+      </c>
+      <c r="AG219" t="n">
+        <v>345.7333333333333</v>
+      </c>
+      <c r="AH219" t="n">
+        <v>344.5485714285714</v>
+      </c>
+      <c r="AI219" t="n">
+        <v>342.9</v>
+      </c>
+      <c r="AJ219" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>362.2566666666667</v>
+      </c>
+      <c r="C220" t="n">
+        <v>346.8366666666667</v>
+      </c>
+      <c r="D220" t="n">
+        <v>346.66</v>
+      </c>
+      <c r="E220" t="n">
+        <v>354.4228571428571</v>
+      </c>
+      <c r="F220" t="n">
+        <v>362.6466666666667</v>
+      </c>
+      <c r="G220" t="n">
+        <v>380.75</v>
+      </c>
+      <c r="H220" t="n">
+        <v>375.3466666666667</v>
+      </c>
+      <c r="I220" t="n">
+        <v>372.0166666666667</v>
+      </c>
+      <c r="J220" t="n">
+        <v>380.3466666666667</v>
+      </c>
+      <c r="K220" t="n">
+        <v>384.6928571428572</v>
+      </c>
+      <c r="L220" t="n">
+        <v>380.6166666666667</v>
+      </c>
+      <c r="M220" t="n">
+        <v>380.6466666666667</v>
+      </c>
+      <c r="N220" t="n">
+        <v>383.1928571428572</v>
+      </c>
+      <c r="O220" t="n">
+        <v>385.0628571428572</v>
+      </c>
+      <c r="P220" t="n">
+        <v>391.3828571428572</v>
+      </c>
+      <c r="Q220" t="n">
+        <v>397.7128571428572</v>
+      </c>
+      <c r="R220" t="n">
+        <v>397.0828571428572</v>
+      </c>
+      <c r="S220" t="n">
+        <v>401.7528571428572</v>
+      </c>
+      <c r="T220" t="n">
+        <v>401.1228571428572</v>
+      </c>
+      <c r="U220" t="n">
+        <v>396.3028571428572</v>
+      </c>
+      <c r="V220" t="n">
+        <v>404.1566666666667</v>
+      </c>
+      <c r="W220" t="n">
+        <v>402.1866666666667</v>
+      </c>
+      <c r="X220" t="n">
+        <v>401.0866666666667</v>
+      </c>
+      <c r="Y220" t="n">
+        <v>399.4666666666667</v>
+      </c>
+      <c r="Z220" t="n">
+        <v>394.6428571428572</v>
+      </c>
+      <c r="AA220" t="n">
+        <v>387.69</v>
+      </c>
+      <c r="AB220" t="n">
+        <v>386.0328571428572</v>
+      </c>
+      <c r="AC220" t="n">
+        <v>385.7328571428571</v>
+      </c>
+      <c r="AD220" t="n">
+        <v>383.8928571428572</v>
+      </c>
+      <c r="AE220" t="n">
+        <v>383.9228571428571</v>
+      </c>
+      <c r="AF220" t="n">
+        <v>361.0028571428572</v>
+      </c>
+      <c r="AG220" t="n">
+        <v>351.5311111111111</v>
+      </c>
+      <c r="AH220" t="n">
+        <v>342.3028571428572</v>
+      </c>
+      <c r="AI220" t="n">
+        <v>310.09</v>
+      </c>
+      <c r="AJ220" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -23041,7 +23321,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B218"/>
+  <dimension ref="A1:B221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25229,6 +25509,36 @@
       </c>
       <c r="B218" t="n">
         <v>0.9</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>0.32</v>
       </c>
     </row>
   </sheetData>
@@ -25402,28 +25712,28 @@
         <v>0.0366</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.349709362065404</v>
+        <v>-0.3364535541409143</v>
       </c>
       <c r="J2" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K2" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02367607913387071</v>
+        <v>0.02228550435730081</v>
       </c>
       <c r="M2" t="n">
-        <v>14.08882142371558</v>
+        <v>14.07514606518392</v>
       </c>
       <c r="N2" t="n">
-        <v>327.5949344042332</v>
+        <v>326.4597131446931</v>
       </c>
       <c r="O2" t="n">
-        <v>18.09958381853663</v>
+        <v>18.06819617849809</v>
       </c>
       <c r="P2" t="n">
-        <v>377.3113227945795</v>
+        <v>377.1977479516905</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -25480,28 +25790,28 @@
         <v>0.0307</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.4201781375703817</v>
+        <v>-0.4225345544580305</v>
       </c>
       <c r="J3" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K3" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05554838109568871</v>
+        <v>0.05731424369838012</v>
       </c>
       <c r="M3" t="n">
-        <v>11.26110131683486</v>
+        <v>11.15603454527643</v>
       </c>
       <c r="N3" t="n">
-        <v>200.526816503945</v>
+        <v>198.4271227731514</v>
       </c>
       <c r="O3" t="n">
-        <v>14.16074915051972</v>
+        <v>14.08641625017348</v>
       </c>
       <c r="P3" t="n">
-        <v>359.7348667071673</v>
+        <v>359.7546989962176</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -25558,28 +25868,28 @@
         <v>0.0455</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3603533704358279</v>
+        <v>-0.3449784226867678</v>
       </c>
       <c r="J4" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K4" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05791553530484284</v>
+        <v>0.05417651703563497</v>
       </c>
       <c r="M4" t="n">
-        <v>9.692431691731587</v>
+        <v>9.671941032849526</v>
       </c>
       <c r="N4" t="n">
-        <v>141.0098002749387</v>
+        <v>140.3349271773734</v>
       </c>
       <c r="O4" t="n">
-        <v>11.87475474588586</v>
+        <v>11.84630436791886</v>
       </c>
       <c r="P4" t="n">
-        <v>350.5707925732186</v>
+        <v>350.4422775814737</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -25636,28 +25946,28 @@
         <v>0.0359</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2947935412118711</v>
+        <v>-0.2739745571872468</v>
       </c>
       <c r="J5" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K5" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03548569256842538</v>
+        <v>0.03121222161140003</v>
       </c>
       <c r="M5" t="n">
-        <v>10.20458347688393</v>
+        <v>10.19817750751374</v>
       </c>
       <c r="N5" t="n">
-        <v>156.5266309703896</v>
+        <v>156.2416964744561</v>
       </c>
       <c r="O5" t="n">
-        <v>12.51106034556582</v>
+        <v>12.49966785456542</v>
       </c>
       <c r="P5" t="n">
-        <v>353.6891065489588</v>
+        <v>353.5141632543409</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -25714,28 +26024,28 @@
         <v>0.0305</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4014782256511738</v>
+        <v>-0.3778044384229142</v>
       </c>
       <c r="J6" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K6" t="n">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04652468254013853</v>
+        <v>0.04203258056082848</v>
       </c>
       <c r="M6" t="n">
-        <v>11.84613262428227</v>
+        <v>11.83862926814089</v>
       </c>
       <c r="N6" t="n">
-        <v>216.6702518206895</v>
+        <v>216.0681740181525</v>
       </c>
       <c r="O6" t="n">
-        <v>14.71972322500289</v>
+        <v>14.69925760091823</v>
       </c>
       <c r="P6" t="n">
-        <v>361.8724969311765</v>
+        <v>361.6744043290541</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -25792,28 +26102,28 @@
         <v>0.0264</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3048280813248833</v>
+        <v>-0.2846458321003864</v>
       </c>
       <c r="J7" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K7" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01955778271240904</v>
+        <v>0.0174017891158379</v>
       </c>
       <c r="M7" t="n">
-        <v>13.9145733624963</v>
+        <v>13.86932892654767</v>
       </c>
       <c r="N7" t="n">
-        <v>309.6865072086796</v>
+        <v>307.8140892152639</v>
       </c>
       <c r="O7" t="n">
-        <v>17.59791201275537</v>
+        <v>17.54463135022403</v>
       </c>
       <c r="P7" t="n">
-        <v>373.7702482358684</v>
+        <v>373.601355186595</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -25870,28 +26180,28 @@
         <v>0.0322</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2905759438670382</v>
+        <v>-0.2707222131060404</v>
       </c>
       <c r="J8" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K8" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02524373158546789</v>
+        <v>0.02234615663957873</v>
       </c>
       <c r="M8" t="n">
-        <v>11.77632243590295</v>
+        <v>11.76112884705899</v>
       </c>
       <c r="N8" t="n">
-        <v>216.7638115828246</v>
+        <v>215.7420472230351</v>
       </c>
       <c r="O8" t="n">
-        <v>14.72290092280813</v>
+        <v>14.6881601033974</v>
       </c>
       <c r="P8" t="n">
-        <v>369.3657476223547</v>
+        <v>369.1995845748613</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -25948,28 +26258,28 @@
         <v>0.0316</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.5149481978904484</v>
+        <v>-0.4855359371781616</v>
       </c>
       <c r="J9" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K9" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L9" t="n">
-        <v>0.05598457911587429</v>
+        <v>0.05078309757606014</v>
       </c>
       <c r="M9" t="n">
-        <v>13.93832051117387</v>
+        <v>13.94085078811953</v>
       </c>
       <c r="N9" t="n">
-        <v>299.1695773099452</v>
+        <v>298.4659271923261</v>
       </c>
       <c r="O9" t="n">
-        <v>17.29651922526452</v>
+        <v>17.27616644954331</v>
       </c>
       <c r="P9" t="n">
-        <v>368.2898427137969</v>
+        <v>368.045202247652</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -26026,28 +26336,28 @@
         <v>0.0333</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.6117978091594373</v>
+        <v>-0.581313250969447</v>
       </c>
       <c r="J10" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K10" t="n">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L10" t="n">
-        <v>0.09278453137779319</v>
+        <v>0.08536998397184592</v>
       </c>
       <c r="M10" t="n">
-        <v>12.73713500433727</v>
+        <v>12.75820159495909</v>
       </c>
       <c r="N10" t="n">
-        <v>243.535519153445</v>
+        <v>243.724408836535</v>
       </c>
       <c r="O10" t="n">
-        <v>15.60562459991413</v>
+        <v>15.61167540133137</v>
       </c>
       <c r="P10" t="n">
-        <v>377.185248838516</v>
+        <v>376.9269962200024</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -26104,28 +26414,28 @@
         <v>0.0393</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.6632379153353457</v>
+        <v>-0.6270745392943635</v>
       </c>
       <c r="J11" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K11" t="n">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1070702514805071</v>
+        <v>0.09743137445064665</v>
       </c>
       <c r="M11" t="n">
-        <v>12.03944461774641</v>
+        <v>12.09513051666999</v>
       </c>
       <c r="N11" t="n">
-        <v>238.8061379085039</v>
+        <v>239.8653460109331</v>
       </c>
       <c r="O11" t="n">
-        <v>15.45335361364982</v>
+        <v>15.48758683626772</v>
       </c>
       <c r="P11" t="n">
-        <v>380.8301740239049</v>
+        <v>380.5138080346094</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -26182,28 +26492,28 @@
         <v>0.0365</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.7574199289053278</v>
+        <v>-0.7225795304608293</v>
       </c>
       <c r="J12" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K12" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1126196426107074</v>
+        <v>0.10463415613486</v>
       </c>
       <c r="M12" t="n">
-        <v>13.75914374076595</v>
+        <v>13.78012445043623</v>
       </c>
       <c r="N12" t="n">
-        <v>293.0225749973094</v>
+        <v>293.0949878032912</v>
       </c>
       <c r="O12" t="n">
-        <v>17.11790217863478</v>
+        <v>17.12001716714359</v>
       </c>
       <c r="P12" t="n">
-        <v>383.1855008554468</v>
+        <v>382.882074059646</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -26260,28 +26570,28 @@
         <v>0.0316</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.013647200703635</v>
+        <v>-0.9819531519342974</v>
       </c>
       <c r="J13" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K13" t="n">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1844006975895546</v>
+        <v>0.1770024389314396</v>
       </c>
       <c r="M13" t="n">
-        <v>13.70788624372389</v>
+        <v>13.72832437923933</v>
       </c>
       <c r="N13" t="n">
-        <v>296.3233169773865</v>
+        <v>295.7853100806477</v>
       </c>
       <c r="O13" t="n">
-        <v>17.21404417844298</v>
+        <v>17.19841010328128</v>
       </c>
       <c r="P13" t="n">
-        <v>391.2376567326759</v>
+        <v>390.9621912591506</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -26338,28 +26648,28 @@
         <v>0.038</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.9026418897916002</v>
+        <v>-0.8800699996926702</v>
       </c>
       <c r="J14" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K14" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2097228353767883</v>
+        <v>0.2038510536464946</v>
       </c>
       <c r="M14" t="n">
-        <v>11.46365145159849</v>
+        <v>11.47062359073697</v>
       </c>
       <c r="N14" t="n">
-        <v>202.9659610719087</v>
+        <v>202.1932804425871</v>
       </c>
       <c r="O14" t="n">
-        <v>14.24661226649721</v>
+        <v>14.21946836005436</v>
       </c>
       <c r="P14" t="n">
-        <v>394.8182657703472</v>
+        <v>394.6230509336492</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -26416,28 +26726,28 @@
         <v>0.0409</v>
       </c>
       <c r="I15" t="n">
-        <v>-1.030239226744661</v>
+        <v>-1.006821018761684</v>
       </c>
       <c r="J15" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K15" t="n">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L15" t="n">
-        <v>0.2161065646905095</v>
+        <v>0.211144765305882</v>
       </c>
       <c r="M15" t="n">
-        <v>12.54117039447577</v>
+        <v>12.53273279937508</v>
       </c>
       <c r="N15" t="n">
-        <v>238.4638286296154</v>
+        <v>237.1724096045588</v>
       </c>
       <c r="O15" t="n">
-        <v>15.44227407571875</v>
+        <v>15.40040290396842</v>
       </c>
       <c r="P15" t="n">
-        <v>399.4821274882411</v>
+        <v>399.2653217459086</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -26494,28 +26804,28 @@
         <v>0.0396</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.9546345219587602</v>
+        <v>-0.9368141251241808</v>
       </c>
       <c r="J16" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K16" t="n">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L16" t="n">
-        <v>0.2089090372810744</v>
+        <v>0.2055876823229873</v>
       </c>
       <c r="M16" t="n">
-        <v>11.9130925625905</v>
+        <v>11.87410131922404</v>
       </c>
       <c r="N16" t="n">
-        <v>215.2365625860274</v>
+        <v>213.8269271707794</v>
       </c>
       <c r="O16" t="n">
-        <v>14.67094279813085</v>
+        <v>14.62282213427967</v>
       </c>
       <c r="P16" t="n">
-        <v>402.8633617196832</v>
+        <v>402.6990672089124</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -26572,28 +26882,28 @@
         <v>0.0373</v>
       </c>
       <c r="I17" t="n">
-        <v>-1.032961599041754</v>
+        <v>-1.014008984139092</v>
       </c>
       <c r="J17" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K17" t="n">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L17" t="n">
-        <v>0.2685751788156129</v>
+        <v>0.2639150578243765</v>
       </c>
       <c r="M17" t="n">
-        <v>11.22754951329491</v>
+        <v>11.21778668005323</v>
       </c>
       <c r="N17" t="n">
-        <v>188.8512196770429</v>
+        <v>188.4688590227424</v>
       </c>
       <c r="O17" t="n">
-        <v>13.74231493151874</v>
+        <v>13.72839608340109</v>
       </c>
       <c r="P17" t="n">
-        <v>406.9102317375243</v>
+        <v>406.7442776190279</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -26650,28 +26960,28 @@
         <v>0.038</v>
       </c>
       <c r="I18" t="n">
-        <v>-1.102949678338716</v>
+        <v>-1.084406534530724</v>
       </c>
       <c r="J18" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K18" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2857168165679582</v>
+        <v>0.281686206504409</v>
       </c>
       <c r="M18" t="n">
-        <v>11.53553769304468</v>
+        <v>11.5166026564369</v>
       </c>
       <c r="N18" t="n">
-        <v>196.9447777764035</v>
+        <v>196.419962318816</v>
       </c>
       <c r="O18" t="n">
-        <v>14.0337014994763</v>
+        <v>14.01499062856683</v>
       </c>
       <c r="P18" t="n">
-        <v>408.4261385967246</v>
+        <v>408.2642914254779</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -26728,28 +27038,28 @@
         <v>0.0374</v>
       </c>
       <c r="I19" t="n">
-        <v>-1.130285700486221</v>
+        <v>-1.100184995555432</v>
       </c>
       <c r="J19" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K19" t="n">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L19" t="n">
-        <v>0.2960389582610754</v>
+        <v>0.2863978689123619</v>
       </c>
       <c r="M19" t="n">
-        <v>11.61017081942263</v>
+        <v>11.65079730413366</v>
       </c>
       <c r="N19" t="n">
-        <v>199.6987762929476</v>
+        <v>200.5399376243106</v>
       </c>
       <c r="O19" t="n">
-        <v>14.13148174442254</v>
+        <v>14.16121243482741</v>
       </c>
       <c r="P19" t="n">
-        <v>409.4449178908753</v>
+        <v>409.1862475399777</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -26806,28 +27116,28 @@
         <v>0.0365</v>
       </c>
       <c r="I20" t="n">
-        <v>-1.007713507876916</v>
+        <v>-0.9741522494629475</v>
       </c>
       <c r="J20" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K20" t="n">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L20" t="n">
-        <v>0.2143339051015769</v>
+        <v>0.2045563612854446</v>
       </c>
       <c r="M20" t="n">
-        <v>13.05298158057214</v>
+        <v>13.09985539531939</v>
       </c>
       <c r="N20" t="n">
-        <v>248.6910953965829</v>
+        <v>249.3909906212265</v>
       </c>
       <c r="O20" t="n">
-        <v>15.76994278355451</v>
+        <v>15.79211799035286</v>
       </c>
       <c r="P20" t="n">
-        <v>407.2963222060154</v>
+        <v>407.0128166250252</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -26884,28 +27194,28 @@
         <v>0.0374</v>
       </c>
       <c r="I21" t="n">
-        <v>-1.504018497028878</v>
+        <v>-1.46012231466572</v>
       </c>
       <c r="J21" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K21" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L21" t="n">
-        <v>0.3761844110537785</v>
+        <v>0.3619154644470978</v>
       </c>
       <c r="M21" t="n">
-        <v>12.97400243361885</v>
+        <v>13.09664090107894</v>
       </c>
       <c r="N21" t="n">
-        <v>249.8139405993987</v>
+        <v>253.218788757398</v>
       </c>
       <c r="O21" t="n">
-        <v>15.80550349085402</v>
+        <v>15.91284980000119</v>
       </c>
       <c r="P21" t="n">
-        <v>417.3195785748845</v>
+        <v>416.9484526826294</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -26962,28 +27272,28 @@
         <v>0.0365</v>
       </c>
       <c r="I22" t="n">
-        <v>-1.528614153672316</v>
+        <v>-1.486719994424563</v>
       </c>
       <c r="J22" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K22" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L22" t="n">
-        <v>0.4035910149217783</v>
+        <v>0.3902474332253028</v>
       </c>
       <c r="M22" t="n">
-        <v>12.18642887129</v>
+        <v>12.27216501037111</v>
       </c>
       <c r="N22" t="n">
-        <v>226.4342869408499</v>
+        <v>229.1785213680948</v>
       </c>
       <c r="O22" t="n">
-        <v>15.04773361476239</v>
+        <v>15.1386433133255</v>
       </c>
       <c r="P22" t="n">
-        <v>421.277605839241</v>
+        <v>420.9213789959086</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -27040,28 +27350,28 @@
         <v>0.0325</v>
       </c>
       <c r="I23" t="n">
-        <v>-1.266450762965796</v>
+        <v>-1.237500153008119</v>
       </c>
       <c r="J23" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K23" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L23" t="n">
-        <v>0.3248118249051604</v>
+        <v>0.3173005246951425</v>
       </c>
       <c r="M23" t="n">
-        <v>12.11525855256512</v>
+        <v>12.13135139409222</v>
       </c>
       <c r="N23" t="n">
-        <v>216.2377068266794</v>
+        <v>216.330085040904</v>
       </c>
       <c r="O23" t="n">
-        <v>14.70502318347984</v>
+        <v>14.7081638908772</v>
       </c>
       <c r="P23" t="n">
-        <v>419.9370120136681</v>
+        <v>419.6892311822959</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -27118,28 +27428,28 @@
         <v>0.0312</v>
       </c>
       <c r="I24" t="n">
-        <v>-1.297799309036516</v>
+        <v>-1.272438354656391</v>
       </c>
       <c r="J24" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K24" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L24" t="n">
-        <v>0.2932096053653632</v>
+        <v>0.2882407730636072</v>
       </c>
       <c r="M24" t="n">
-        <v>13.00890525425111</v>
+        <v>13.00789091773211</v>
       </c>
       <c r="N24" t="n">
-        <v>264.0149377562493</v>
+        <v>263.0837227845915</v>
       </c>
       <c r="O24" t="n">
-        <v>16.24853648044184</v>
+        <v>16.21985581885954</v>
       </c>
       <c r="P24" t="n">
-        <v>420.9555384927972</v>
+        <v>420.7376840140701</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -27196,28 +27506,28 @@
         <v>0.0339</v>
       </c>
       <c r="I25" t="n">
-        <v>-1.51968207904014</v>
+        <v>-1.490657809254095</v>
       </c>
       <c r="J25" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K25" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L25" t="n">
-        <v>0.3578292694868144</v>
+        <v>0.3517290696525022</v>
       </c>
       <c r="M25" t="n">
-        <v>12.96365025113901</v>
+        <v>12.97315527727705</v>
       </c>
       <c r="N25" t="n">
-        <v>273.0871268384156</v>
+        <v>272.9112047545294</v>
       </c>
       <c r="O25" t="n">
-        <v>16.52534800960076</v>
+        <v>16.52002435695933</v>
       </c>
       <c r="P25" t="n">
-        <v>418.8311987191335</v>
+        <v>418.5825407358201</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -27274,28 +27584,28 @@
         <v>0.0376</v>
       </c>
       <c r="I26" t="n">
-        <v>-1.611296155401142</v>
+        <v>-1.571720531052439</v>
       </c>
       <c r="J26" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K26" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L26" t="n">
-        <v>0.3888615344200244</v>
+        <v>0.37816875041984</v>
       </c>
       <c r="M26" t="n">
-        <v>12.68896776566952</v>
+        <v>12.78591152805519</v>
       </c>
       <c r="N26" t="n">
-        <v>262.7149062829074</v>
+        <v>264.7732820405328</v>
       </c>
       <c r="O26" t="n">
-        <v>16.20848254103102</v>
+        <v>16.27185551928645</v>
       </c>
       <c r="P26" t="n">
-        <v>409.5138504939644</v>
+        <v>409.1741234723603</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -27352,28 +27662,28 @@
         <v>0.0431</v>
       </c>
       <c r="I27" t="n">
-        <v>-1.248198744244226</v>
+        <v>-1.212718524010371</v>
       </c>
       <c r="J27" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K27" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L27" t="n">
-        <v>0.3192877240957904</v>
+        <v>0.3075223348409858</v>
       </c>
       <c r="M27" t="n">
-        <v>12.04307092872516</v>
+        <v>12.13088449956849</v>
       </c>
       <c r="N27" t="n">
-        <v>222.320434462427</v>
+        <v>224.2100507756584</v>
       </c>
       <c r="O27" t="n">
-        <v>14.91041362479348</v>
+        <v>14.97364520668425</v>
       </c>
       <c r="P27" t="n">
-        <v>394.3089295007839</v>
+        <v>394.010704263593</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -27430,28 +27740,28 @@
         <v>0.0375</v>
       </c>
       <c r="I28" t="n">
-        <v>-1.162201374535695</v>
+        <v>-1.1201668185459</v>
       </c>
       <c r="J28" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K28" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L28" t="n">
-        <v>0.2767278545401795</v>
+        <v>0.261777112699297</v>
       </c>
       <c r="M28" t="n">
-        <v>12.48396675179561</v>
+        <v>12.60739930689471</v>
       </c>
       <c r="N28" t="n">
-        <v>230.8895836525811</v>
+        <v>234.0849057207626</v>
       </c>
       <c r="O28" t="n">
-        <v>15.19505128825109</v>
+        <v>15.29983351938061</v>
       </c>
       <c r="P28" t="n">
-        <v>387.7209269698454</v>
+        <v>387.3603817385949</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -27508,28 +27818,28 @@
         <v>0.0368</v>
       </c>
       <c r="I29" t="n">
-        <v>-1.108885556192974</v>
+        <v>-1.050459898816615</v>
       </c>
       <c r="J29" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K29" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L29" t="n">
-        <v>0.2750145476104841</v>
+        <v>0.2489702363427243</v>
       </c>
       <c r="M29" t="n">
-        <v>12.06250789422751</v>
+        <v>12.25609232509088</v>
       </c>
       <c r="N29" t="n">
-        <v>212.8596186293125</v>
+        <v>220.9818402501287</v>
       </c>
       <c r="O29" t="n">
-        <v>14.58970934012438</v>
+        <v>14.86545795628674</v>
       </c>
       <c r="P29" t="n">
-        <v>380.5693900681317</v>
+        <v>380.0638893278872</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -27586,28 +27896,28 @@
         <v>0.0377</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.9848444542505143</v>
+        <v>-0.9244627864419011</v>
       </c>
       <c r="J30" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K30" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L30" t="n">
-        <v>0.2243670770011307</v>
+        <v>0.1987298761569066</v>
       </c>
       <c r="M30" t="n">
-        <v>12.07057434621421</v>
+        <v>12.27629561649175</v>
       </c>
       <c r="N30" t="n">
-        <v>219.1001626888602</v>
+        <v>227.7140052797848</v>
       </c>
       <c r="O30" t="n">
-        <v>14.80203238372556</v>
+        <v>15.09019566737903</v>
       </c>
       <c r="P30" t="n">
-        <v>376.1045123652993</v>
+        <v>375.58380021893</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -27664,28 +27974,28 @@
         <v>0.037</v>
       </c>
       <c r="I31" t="n">
-        <v>-1.001044217366711</v>
+        <v>-0.9394664449044321</v>
       </c>
       <c r="J31" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K31" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L31" t="n">
-        <v>0.2352974064236831</v>
+        <v>0.2080714682226785</v>
       </c>
       <c r="M31" t="n">
-        <v>11.95273107480454</v>
+        <v>12.15698025472394</v>
       </c>
       <c r="N31" t="n">
-        <v>212.6010771831622</v>
+        <v>221.7436290748545</v>
       </c>
       <c r="O31" t="n">
-        <v>14.58084624372544</v>
+        <v>14.89105869556811</v>
       </c>
       <c r="P31" t="n">
-        <v>377.7280188833549</v>
+        <v>377.1949422326946</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -27742,28 +28052,28 @@
         <v>0.0419</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.8703323878381004</v>
+        <v>-0.8159367374532551</v>
       </c>
       <c r="J32" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K32" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L32" t="n">
-        <v>0.210750519397946</v>
+        <v>0.18616223482943</v>
       </c>
       <c r="M32" t="n">
-        <v>10.94899174913673</v>
+        <v>11.1432106731051</v>
       </c>
       <c r="N32" t="n">
-        <v>184.4450667673131</v>
+        <v>191.3877721235845</v>
       </c>
       <c r="O32" t="n">
-        <v>13.58105543642736</v>
+        <v>13.83429695082423</v>
       </c>
       <c r="P32" t="n">
-        <v>356.2651154103045</v>
+        <v>355.7945281057824</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
@@ -27820,28 +28130,28 @@
         <v>0.048</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.6178162712996979</v>
+        <v>-0.5693832584514807</v>
       </c>
       <c r="J33" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K33" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L33" t="n">
-        <v>0.1445566067079618</v>
+        <v>0.1228679309670759</v>
       </c>
       <c r="M33" t="n">
-        <v>9.921655507727502</v>
+        <v>10.06615831139057</v>
       </c>
       <c r="N33" t="n">
-        <v>147.4132796336617</v>
+        <v>152.8294278493186</v>
       </c>
       <c r="O33" t="n">
-        <v>12.14138705559055</v>
+        <v>12.36241998353553</v>
       </c>
       <c r="P33" t="n">
-        <v>338.6007627164088</v>
+        <v>338.1864579497918</v>
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
@@ -27898,28 +28208,28 @@
         <v>0.0384</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.7049931176460874</v>
+        <v>-0.6364913333450396</v>
       </c>
       <c r="J34" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K34" t="n">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L34" t="n">
-        <v>0.1223884746619298</v>
+        <v>0.1014051195390547</v>
       </c>
       <c r="M34" t="n">
-        <v>12.45471292808239</v>
+        <v>12.68338734215907</v>
       </c>
       <c r="N34" t="n">
-        <v>237.7663457964484</v>
+        <v>243.6798562322062</v>
       </c>
       <c r="O34" t="n">
-        <v>15.41967398476532</v>
+        <v>15.61024843595406</v>
       </c>
       <c r="P34" t="n">
-        <v>333.5819716580526</v>
+        <v>333.0070071358558</v>
       </c>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
@@ -27976,28 +28286,28 @@
         <v>0.0468</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.2822298042956801</v>
+        <v>-0.2149082460441149</v>
       </c>
       <c r="J35" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K35" t="n">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="L35" t="n">
-        <v>0.0115585908406165</v>
+        <v>0.0068735464932701</v>
       </c>
       <c r="M35" t="n">
-        <v>16.99791437272703</v>
+        <v>16.96019066560776</v>
       </c>
       <c r="N35" t="n">
-        <v>440.7243633532148</v>
+        <v>441.5317276334879</v>
       </c>
       <c r="O35" t="n">
-        <v>20.9934361968977</v>
+        <v>21.01265636785335</v>
       </c>
       <c r="P35" t="n">
-        <v>309.0354370742106</v>
+        <v>308.4436727485235</v>
       </c>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
@@ -28035,7 +28345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ217"/>
+  <dimension ref="A1:AJ220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63106,10 +63416,432 @@
           <t>-34.48859472975865,172.68491282733905</t>
         </is>
       </c>
-      <c r="AI217" t="inlineStr"/>
+      <c r="AI217" t="inlineStr">
+        <is>
+          <t>-34.488028746278765,172.68422333295132</t>
+        </is>
+      </c>
       <c r="AJ217" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:17:21+00:00</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr"/>
+      <c r="C218" t="inlineStr"/>
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="inlineStr"/>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="inlineStr"/>
+      <c r="O218" t="inlineStr"/>
+      <c r="P218" t="inlineStr"/>
+      <c r="Q218" t="inlineStr"/>
+      <c r="R218" t="inlineStr"/>
+      <c r="S218" t="inlineStr"/>
+      <c r="T218" t="inlineStr"/>
+      <c r="U218" t="inlineStr"/>
+      <c r="V218" t="inlineStr"/>
+      <c r="W218" t="inlineStr"/>
+      <c r="X218" t="inlineStr"/>
+      <c r="Y218" t="inlineStr"/>
+      <c r="Z218" t="inlineStr"/>
+      <c r="AA218" t="inlineStr"/>
+      <c r="AB218" t="inlineStr"/>
+      <c r="AC218" t="inlineStr"/>
+      <c r="AD218" t="inlineStr"/>
+      <c r="AE218" t="inlineStr"/>
+      <c r="AF218" t="inlineStr"/>
+      <c r="AG218" t="inlineStr"/>
+      <c r="AH218" t="inlineStr">
+        <is>
+          <t>-34.48852782126459,172.6849460759947</t>
+        </is>
+      </c>
+      <c r="AI218" t="inlineStr">
+        <is>
+          <t>-34.488097882555735,172.68418897704544</t>
+        </is>
+      </c>
+      <c r="AJ218" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:17:19+00:00</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>-34.506740378418144,172.70206797622404</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>-34.50593571410602,172.70227716958522</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>-34.50522617278076,172.70201664769596</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>-34.504523629715244,172.7017215407893</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>-34.50381706780179,172.70144680207034</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>-34.503135877158286,172.7011399082307</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>-34.5025312327994,172.7006482532548</t>
+        </is>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>-34.501925566898464,172.70013159106657</t>
+        </is>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>-34.50135550859356,172.6995548946874</t>
+        </is>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>-34.500778872580746,172.6989892796103</t>
+        </is>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>-34.500191269427425,172.69844214553882</t>
+        </is>
+      </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>-34.49958905262117,172.69791963975626</t>
+        </is>
+      </c>
+      <c r="N219" t="inlineStr">
+        <is>
+          <t>-34.4989980115806,172.69737828666206</t>
+        </is>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>-34.4983986748964,172.69685091100604</t>
+        </is>
+      </c>
+      <c r="P219" t="inlineStr">
+        <is>
+          <t>-34.49779480565712,172.69633676855796</t>
+        </is>
+      </c>
+      <c r="Q219" t="inlineStr">
+        <is>
+          <t>-34.49721278200172,172.6957905599918</t>
+        </is>
+      </c>
+      <c r="R219" t="inlineStr">
+        <is>
+          <t>-34.496635834733475,172.69523072403325</t>
+        </is>
+      </c>
+      <c r="S219" t="inlineStr">
+        <is>
+          <t>-34.496105557950294,172.69459739947365</t>
+        </is>
+      </c>
+      <c r="T219" t="inlineStr">
+        <is>
+          <t>-34.49556636864847,172.6939775070574</t>
+        </is>
+      </c>
+      <c r="U219" t="inlineStr">
+        <is>
+          <t>-34.49504888129549,172.6933248861148</t>
+        </is>
+      </c>
+      <c r="V219" t="inlineStr">
+        <is>
+          <t>-34.494453142403934,172.69279024741274</t>
+        </is>
+      </c>
+      <c r="W219" t="inlineStr">
+        <is>
+          <t>-34.493868103739324,172.6922394688059</t>
+        </is>
+      </c>
+      <c r="X219" t="inlineStr">
+        <is>
+          <t>-34.493297054379276,172.69170990544427</t>
+        </is>
+      </c>
+      <c r="Y219" t="inlineStr">
+        <is>
+          <t>-34.49274411090262,172.69115316353785</t>
+        </is>
+      </c>
+      <c r="Z219" t="inlineStr">
+        <is>
+          <t>-34.49220119487455,172.69054269944414</t>
+        </is>
+      </c>
+      <c r="AA219" t="inlineStr">
+        <is>
+          <t>-34.491654640493806,172.6899302980647</t>
+        </is>
+      </c>
+      <c r="AB219" t="inlineStr">
+        <is>
+          <t>-34.49116447448952,172.68925701719132</t>
+        </is>
+      </c>
+      <c r="AC219" t="inlineStr">
+        <is>
+          <t>-34.490714387021235,172.68854046443323</t>
+        </is>
+      </c>
+      <c r="AD219" t="inlineStr">
+        <is>
+          <t>-34.49023378067254,172.68785828496962</t>
+        </is>
+      </c>
+      <c r="AE219" t="inlineStr">
+        <is>
+          <t>-34.489793610389114,172.6871873955103</t>
+        </is>
+      </c>
+      <c r="AF219" t="inlineStr">
+        <is>
+          <t>-34.48935504154013,172.6864765047819</t>
+        </is>
+      </c>
+      <c r="AG219" t="inlineStr">
+        <is>
+          <t>-34.488910810815625,172.68572650602454</t>
+        </is>
+      </c>
+      <c r="AH219" t="inlineStr">
+        <is>
+          <t>-34.4886209522622,172.68489979664582</t>
+        </is>
+      </c>
+      <c r="AI219" t="inlineStr">
+        <is>
+          <t>-34.48832722477272,172.6840750095183</t>
+        </is>
+      </c>
+      <c r="AJ219" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>-34.50668428828295,172.70234493136553</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>-34.50593257812405,172.70229265380976</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>-34.505213528923505,172.70207907788648</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>-34.504511488043754,172.70178149143922</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>-34.5038102064777,172.70147890115445</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>-34.50316667299145,172.7010617039168</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>-34.50256041939482,172.70059905077764</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>-34.5019423049097,172.70010337431256</t>
+        </is>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>-34.501385430251375,172.69950445301063</t>
+        </is>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>-34.50080762603815,172.6989408072333</t>
+        </is>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>-34.50018557928979,172.69845173792882</t>
+        </is>
+      </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>-34.49958509580507,172.69792631012444</t>
+        </is>
+      </c>
+      <c r="N220" t="inlineStr">
+        <is>
+          <t>-34.49899782399542,172.69737860289172</t>
+        </is>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>-34.49840699613604,172.69683688312352</t>
+        </is>
+      </c>
+      <c r="P220" t="inlineStr">
+        <is>
+          <t>-34.497842879554824,172.69625853771936</t>
+        </is>
+      </c>
+      <c r="Q220" t="inlineStr">
+        <is>
+          <t>-34.49729781768408,172.6956596746008</t>
+        </is>
+      </c>
+      <c r="R220" t="inlineStr">
+        <is>
+          <t>-34.49672009184115,172.69510368106464</t>
+        </is>
+      </c>
+      <c r="S220" t="inlineStr">
+        <is>
+          <t>-34.496169855920186,172.6945004507321</t>
+        </is>
+      </c>
+      <c r="T220" t="inlineStr">
+        <is>
+          <t>-34.49558973424145,172.69394227628297</t>
+        </is>
+      </c>
+      <c r="U220" t="inlineStr">
+        <is>
+          <t>-34.49498598537818,172.69341972103624</t>
+        </is>
+      </c>
+      <c r="V220" t="inlineStr">
+        <is>
+          <t>-34.49445368740807,172.6927894256508</t>
+        </is>
+      </c>
+      <c r="W220" t="inlineStr">
+        <is>
+          <t>-34.49386599890465,172.69224264249354</t>
+        </is>
+      </c>
+      <c r="X220" t="inlineStr">
+        <is>
+          <t>-34.493300389307414,172.69170552033302</t>
+        </is>
+      </c>
+      <c r="Y220" t="inlineStr">
+        <is>
+          <t>-34.49280184226897,172.69108888887533</t>
+        </is>
+      </c>
+      <c r="Z220" t="inlineStr">
+        <is>
+          <t>-34.492280830350815,172.69045672554864</t>
+        </is>
+      </c>
+      <c r="AA220" t="inlineStr">
+        <is>
+          <t>-34.491742180639775,172.689835790256</t>
+        </is>
+      </c>
+      <c r="AB220" t="inlineStr">
+        <is>
+          <t>-34.49123913402592,172.68917641501034</t>
+        </is>
+      </c>
+      <c r="AC220" t="inlineStr">
+        <is>
+          <t>-34.490745209290644,172.6885071887061</t>
+        </is>
+      </c>
+      <c r="AD220" t="inlineStr">
+        <is>
+          <t>-34.49024157863321,172.68784995694764</t>
+        </is>
+      </c>
+      <c r="AE220" t="inlineStr">
+        <is>
+          <t>-34.489775318271576,172.68720107420287</t>
+        </is>
+      </c>
+      <c r="AF220" t="inlineStr">
+        <is>
+          <t>-34.48931813211678,172.68649484575678</t>
+        </is>
+      </c>
+      <c r="AG220" t="inlineStr">
+        <is>
+          <t>-34.488959162835414,172.68570247880828</t>
+        </is>
+      </c>
+      <c r="AH220" t="inlineStr">
+        <is>
+          <t>-34.48860222360467,172.6849091034389</t>
+        </is>
+      </c>
+      <c r="AI220" t="inlineStr">
+        <is>
+          <t>-34.48805359864495,172.6842109830665</t>
+        </is>
+      </c>
+      <c r="AJ220" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>

--- a/data/nzd0008/nzd0008.xlsx
+++ b/data/nzd0008/nzd0008.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ220"/>
+  <dimension ref="A1:AJ223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23310,6 +23310,346 @@
         </is>
       </c>
     </row>
+    <row r="221">
+      <c r="A221" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:17:29+00:00</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>373.19</v>
+      </c>
+      <c r="C221" t="n">
+        <v>339.59</v>
+      </c>
+      <c r="D221" t="n">
+        <v>336.92</v>
+      </c>
+      <c r="E221" t="n">
+        <v>349.6385714285714</v>
+      </c>
+      <c r="F221" t="n">
+        <v>364.71</v>
+      </c>
+      <c r="G221" t="n">
+        <v>386.97</v>
+      </c>
+      <c r="H221" t="n">
+        <v>379.38</v>
+      </c>
+      <c r="I221" t="n">
+        <v>387.78</v>
+      </c>
+      <c r="J221" t="n">
+        <v>385.4</v>
+      </c>
+      <c r="K221" t="n">
+        <v>388.1685714285715</v>
+      </c>
+      <c r="L221" t="n">
+        <v>387.48</v>
+      </c>
+      <c r="M221" t="n">
+        <v>383.41</v>
+      </c>
+      <c r="N221" t="n">
+        <v>380.3785714285714</v>
+      </c>
+      <c r="O221" t="n">
+        <v>376.2685714285714</v>
+      </c>
+      <c r="P221" t="n">
+        <v>383.8485714285715</v>
+      </c>
+      <c r="Q221" t="n">
+        <v>388.1985714285714</v>
+      </c>
+      <c r="R221" t="n">
+        <v>390.4285714285714</v>
+      </c>
+      <c r="S221" t="n">
+        <v>393.1585714285715</v>
+      </c>
+      <c r="T221" t="n">
+        <v>393.8585714285715</v>
+      </c>
+      <c r="U221" t="n">
+        <v>396.4285714285714</v>
+      </c>
+      <c r="V221" t="n">
+        <v>397.58</v>
+      </c>
+      <c r="W221" t="n">
+        <v>400.95</v>
+      </c>
+      <c r="X221" t="n">
+        <v>407.44</v>
+      </c>
+      <c r="Y221" t="n">
+        <v>407.35</v>
+      </c>
+      <c r="Z221" t="n">
+        <v>400.3385714285714</v>
+      </c>
+      <c r="AA221" t="n">
+        <v>394.45</v>
+      </c>
+      <c r="AB221" t="n">
+        <v>391.4185714285715</v>
+      </c>
+      <c r="AC221" t="n">
+        <v>384.4685714285715</v>
+      </c>
+      <c r="AD221" t="n">
+        <v>381.7485714285714</v>
+      </c>
+      <c r="AE221" t="n">
+        <v>379.0685714285714</v>
+      </c>
+      <c r="AF221" t="n">
+        <v>357.9685714285715</v>
+      </c>
+      <c r="AG221" t="n">
+        <v>345.3833333333333</v>
+      </c>
+      <c r="AH221" t="n">
+        <v>343.3785714285714</v>
+      </c>
+      <c r="AI221" t="n">
+        <v>324.11</v>
+      </c>
+      <c r="AJ221" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:17:36+00:00</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>361.5466666666667</v>
+      </c>
+      <c r="C222" t="n">
+        <v>332.1366666666667</v>
+      </c>
+      <c r="D222" t="n">
+        <v>331.36</v>
+      </c>
+      <c r="E222" t="n">
+        <v>340.16</v>
+      </c>
+      <c r="F222" t="n">
+        <v>340.9866666666667</v>
+      </c>
+      <c r="G222" t="n">
+        <v>369.84</v>
+      </c>
+      <c r="H222" t="n">
+        <v>368.9766666666667</v>
+      </c>
+      <c r="I222" t="n">
+        <v>356.3966666666667</v>
+      </c>
+      <c r="J222" t="n">
+        <v>369.8366666666667</v>
+      </c>
+      <c r="K222" t="n">
+        <v>374.41</v>
+      </c>
+      <c r="L222" t="n">
+        <v>365.5966666666667</v>
+      </c>
+      <c r="M222" t="n">
+        <v>361.6266666666667</v>
+      </c>
+      <c r="N222" t="n">
+        <v>370.76</v>
+      </c>
+      <c r="O222" t="n">
+        <v>375.9</v>
+      </c>
+      <c r="P222" t="n">
+        <v>381.82</v>
+      </c>
+      <c r="Q222" t="n">
+        <v>386.43</v>
+      </c>
+      <c r="R222" t="n">
+        <v>389.22</v>
+      </c>
+      <c r="S222" t="n">
+        <v>387.63</v>
+      </c>
+      <c r="T222" t="n">
+        <v>387.23</v>
+      </c>
+      <c r="U222" t="n">
+        <v>378.15</v>
+      </c>
+      <c r="V222" t="n">
+        <v>385.1566666666667</v>
+      </c>
+      <c r="W222" t="n">
+        <v>390.5166666666667</v>
+      </c>
+      <c r="X222" t="n">
+        <v>389.1466666666667</v>
+      </c>
+      <c r="Y222" t="n">
+        <v>384.9366666666667</v>
+      </c>
+      <c r="Z222" t="n">
+        <v>376.78</v>
+      </c>
+      <c r="AA222" t="n">
+        <v>366.91</v>
+      </c>
+      <c r="AB222" t="n">
+        <v>366.46</v>
+      </c>
+      <c r="AC222" t="n">
+        <v>360.11</v>
+      </c>
+      <c r="AD222" t="n">
+        <v>366.37</v>
+      </c>
+      <c r="AE222" t="n">
+        <v>364.86</v>
+      </c>
+      <c r="AF222" t="n">
+        <v>341.55</v>
+      </c>
+      <c r="AG222" t="n">
+        <v>330.0644444444445</v>
+      </c>
+      <c r="AH222" t="n">
+        <v>323.34</v>
+      </c>
+      <c r="AI222" t="n">
+        <v>292.05</v>
+      </c>
+      <c r="AJ222" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-16 22:17:38+00:00</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>383.9566666666667</v>
+      </c>
+      <c r="C223" t="n">
+        <v>319.5266666666667</v>
+      </c>
+      <c r="D223" t="inlineStr"/>
+      <c r="E223" t="n">
+        <v>362.7028571428572</v>
+      </c>
+      <c r="F223" t="n">
+        <v>375.1166666666667</v>
+      </c>
+      <c r="G223" t="n">
+        <v>378.99</v>
+      </c>
+      <c r="H223" t="n">
+        <v>361.6866666666667</v>
+      </c>
+      <c r="I223" t="n">
+        <v>393.2366666666667</v>
+      </c>
+      <c r="J223" t="n">
+        <v>377.0166666666667</v>
+      </c>
+      <c r="K223" t="n">
+        <v>389.1528571428572</v>
+      </c>
+      <c r="L223" t="n">
+        <v>397.7466666666666</v>
+      </c>
+      <c r="M223" t="n">
+        <v>385.4466666666667</v>
+      </c>
+      <c r="N223" t="n">
+        <v>365.8928571428572</v>
+      </c>
+      <c r="O223" t="n">
+        <v>364.4628571428572</v>
+      </c>
+      <c r="P223" t="n">
+        <v>382.4428571428572</v>
+      </c>
+      <c r="Q223" t="n">
+        <v>402.7228571428572</v>
+      </c>
+      <c r="R223" t="n">
+        <v>409.3728571428572</v>
+      </c>
+      <c r="S223" t="n">
+        <v>388.5328571428572</v>
+      </c>
+      <c r="T223" t="n">
+        <v>375.1528571428572</v>
+      </c>
+      <c r="U223" t="n">
+        <v>395.4928571428572</v>
+      </c>
+      <c r="V223" t="n">
+        <v>390.6866666666667</v>
+      </c>
+      <c r="W223" t="n">
+        <v>386.0866666666667</v>
+      </c>
+      <c r="X223" t="n">
+        <v>406.1566666666667</v>
+      </c>
+      <c r="Y223" t="n">
+        <v>408.6266666666667</v>
+      </c>
+      <c r="Z223" t="n">
+        <v>400.1728571428571</v>
+      </c>
+      <c r="AA223" t="n">
+        <v>388.07</v>
+      </c>
+      <c r="AB223" t="n">
+        <v>401.2128571428572</v>
+      </c>
+      <c r="AC223" t="n">
+        <v>387.9228571428571</v>
+      </c>
+      <c r="AD223" t="n">
+        <v>386.8028571428572</v>
+      </c>
+      <c r="AE223" t="n">
+        <v>381.0228571428572</v>
+      </c>
+      <c r="AF223" t="n">
+        <v>335.1428571428572</v>
+      </c>
+      <c r="AG223" t="n">
+        <v>327.8177777777778</v>
+      </c>
+      <c r="AH223" t="n">
+        <v>325.1428571428572</v>
+      </c>
+      <c r="AI223" t="n">
+        <v>296.82</v>
+      </c>
+      <c r="AJ223" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -23321,7 +23661,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B221"/>
+  <dimension ref="A1:B224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25539,6 +25879,36 @@
       </c>
       <c r="B221" t="n">
         <v>0.32</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>2025-08-16 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>-0.73</v>
       </c>
     </row>
   </sheetData>
@@ -25712,28 +26082,28 @@
         <v>0.0366</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3364535541409143</v>
+        <v>-0.3244639073345104</v>
       </c>
       <c r="J2" t="n">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K2" t="n">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02228550435730081</v>
+        <v>0.02132048253290331</v>
       </c>
       <c r="M2" t="n">
-        <v>14.07514606518392</v>
+        <v>13.99447463513319</v>
       </c>
       <c r="N2" t="n">
-        <v>326.4597131446931</v>
+        <v>322.9798108344527</v>
       </c>
       <c r="O2" t="n">
-        <v>18.06819617849809</v>
+        <v>17.97163906922384</v>
       </c>
       <c r="P2" t="n">
-        <v>377.1977479516905</v>
+        <v>377.0943075134892</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -25790,28 +26160,28 @@
         <v>0.0307</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.4225345544580305</v>
+        <v>-0.4711632338854411</v>
       </c>
       <c r="J3" t="n">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K3" t="n">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05731424369838012</v>
+        <v>0.07035432490777604</v>
       </c>
       <c r="M3" t="n">
-        <v>11.15603454527643</v>
+        <v>11.28610173619865</v>
       </c>
       <c r="N3" t="n">
-        <v>198.4271227731514</v>
+        <v>201.4189600766029</v>
       </c>
       <c r="O3" t="n">
-        <v>14.08641625017348</v>
+        <v>14.19221476995761</v>
       </c>
       <c r="P3" t="n">
-        <v>359.7546989962176</v>
+        <v>360.1654298302286</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -25868,28 +26238,28 @@
         <v>0.0455</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3449784226867678</v>
+        <v>-0.3581096670714091</v>
       </c>
       <c r="J4" t="n">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K4" t="n">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05417651703563497</v>
+        <v>0.05907500581221803</v>
       </c>
       <c r="M4" t="n">
-        <v>9.671941032849526</v>
+        <v>9.651092550039426</v>
       </c>
       <c r="N4" t="n">
-        <v>140.3349271773734</v>
+        <v>139.501982857426</v>
       </c>
       <c r="O4" t="n">
-        <v>11.84630436791886</v>
+        <v>11.81109575176774</v>
       </c>
       <c r="P4" t="n">
-        <v>350.4422775814737</v>
+        <v>350.5524578636457</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -25946,28 +26316,28 @@
         <v>0.0359</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2739745571872468</v>
+        <v>-0.2620965726295665</v>
       </c>
       <c r="J5" t="n">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K5" t="n">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03121222161140003</v>
+        <v>0.02925489624720867</v>
       </c>
       <c r="M5" t="n">
-        <v>10.19817750751374</v>
+        <v>10.16271683390798</v>
       </c>
       <c r="N5" t="n">
-        <v>156.2416964744561</v>
+        <v>155.4330991548301</v>
       </c>
       <c r="O5" t="n">
-        <v>12.49966785456542</v>
+        <v>12.46728114525497</v>
       </c>
       <c r="P5" t="n">
-        <v>353.5141632543409</v>
+        <v>353.4138226508033</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26024,28 +26394,28 @@
         <v>0.0305</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.3778044384229142</v>
+        <v>-0.355247418035984</v>
       </c>
       <c r="J6" t="n">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K6" t="n">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04203258056082848</v>
+        <v>0.0378394691448799</v>
       </c>
       <c r="M6" t="n">
-        <v>11.83862926814089</v>
+        <v>11.88046262458786</v>
       </c>
       <c r="N6" t="n">
-        <v>216.0681740181525</v>
+        <v>216.9116796153359</v>
       </c>
       <c r="O6" t="n">
-        <v>14.69925760091823</v>
+        <v>14.7279217683737</v>
       </c>
       <c r="P6" t="n">
-        <v>361.6744043290541</v>
+        <v>361.4848534750923</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26102,28 +26472,28 @@
         <v>0.0264</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2846458321003864</v>
+        <v>-0.2516992548070759</v>
       </c>
       <c r="J7" t="n">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K7" t="n">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0174017891158379</v>
+        <v>0.01396323645237962</v>
       </c>
       <c r="M7" t="n">
-        <v>13.86932892654767</v>
+        <v>13.82135843554413</v>
       </c>
       <c r="N7" t="n">
-        <v>307.8140892152639</v>
+        <v>306.0750076311029</v>
       </c>
       <c r="O7" t="n">
-        <v>17.54463135022403</v>
+        <v>17.49499950360396</v>
       </c>
       <c r="P7" t="n">
-        <v>373.601355186595</v>
+        <v>373.3248216975984</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -26180,28 +26550,28 @@
         <v>0.0322</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2707222131060404</v>
+        <v>-0.2498878840500949</v>
       </c>
       <c r="J8" t="n">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K8" t="n">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02234615663957873</v>
+        <v>0.01956109138939488</v>
       </c>
       <c r="M8" t="n">
-        <v>11.76112884705899</v>
+        <v>11.7020321001246</v>
       </c>
       <c r="N8" t="n">
-        <v>215.7420472230351</v>
+        <v>214.1277721000661</v>
       </c>
       <c r="O8" t="n">
-        <v>14.6881601033974</v>
+        <v>14.63310534712527</v>
       </c>
       <c r="P8" t="n">
-        <v>369.1995845748613</v>
+        <v>369.024791798466</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -26258,28 +26628,28 @@
         <v>0.0316</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.4855359371781616</v>
+        <v>-0.4208574163127032</v>
       </c>
       <c r="J9" t="n">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K9" t="n">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="L9" t="n">
-        <v>0.05078309757606014</v>
+        <v>0.03829976355605713</v>
       </c>
       <c r="M9" t="n">
-        <v>13.94085078811953</v>
+        <v>14.05315993307082</v>
       </c>
       <c r="N9" t="n">
-        <v>298.4659271923261</v>
+        <v>306.4449877334818</v>
       </c>
       <c r="O9" t="n">
-        <v>17.27616644954331</v>
+        <v>17.50557019161278</v>
       </c>
       <c r="P9" t="n">
-        <v>368.045202247652</v>
+        <v>367.5052259394653</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -26336,28 +26706,28 @@
         <v>0.0333</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.581313250969447</v>
+        <v>-0.5390897819929362</v>
       </c>
       <c r="J10" t="n">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K10" t="n">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L10" t="n">
-        <v>0.08536998397184592</v>
+        <v>0.07529603450438538</v>
       </c>
       <c r="M10" t="n">
-        <v>12.75820159495909</v>
+        <v>12.7767218258879</v>
       </c>
       <c r="N10" t="n">
-        <v>243.724408836535</v>
+        <v>244.177512049279</v>
       </c>
       <c r="O10" t="n">
-        <v>15.61167540133137</v>
+        <v>15.62618034099437</v>
       </c>
       <c r="P10" t="n">
-        <v>376.9269962200024</v>
+        <v>376.5680995005937</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -26414,28 +26784,28 @@
         <v>0.0393</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.6270745392943635</v>
+        <v>-0.5712908516128834</v>
       </c>
       <c r="J11" t="n">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K11" t="n">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L11" t="n">
-        <v>0.09743137445064665</v>
+        <v>0.08251717833885053</v>
       </c>
       <c r="M11" t="n">
-        <v>12.09513051666999</v>
+        <v>12.1924972806199</v>
       </c>
       <c r="N11" t="n">
-        <v>239.8653460109331</v>
+        <v>242.7994262561181</v>
       </c>
       <c r="O11" t="n">
-        <v>15.48758683626772</v>
+        <v>15.58202253419363</v>
       </c>
       <c r="P11" t="n">
-        <v>380.5138080346094</v>
+        <v>380.0240268248879</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -26492,28 +26862,28 @@
         <v>0.0365</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.7225795304608293</v>
+        <v>-0.6671814547735702</v>
       </c>
       <c r="J12" t="n">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K12" t="n">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L12" t="n">
-        <v>0.10463415613486</v>
+        <v>0.09081451647606287</v>
       </c>
       <c r="M12" t="n">
-        <v>13.78012445043623</v>
+        <v>13.8497813598018</v>
       </c>
       <c r="N12" t="n">
-        <v>293.0949878032912</v>
+        <v>297.2326024777072</v>
       </c>
       <c r="O12" t="n">
-        <v>17.12001716714359</v>
+        <v>17.24043510117152</v>
       </c>
       <c r="P12" t="n">
-        <v>382.882074059646</v>
+        <v>382.397684123892</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -26570,28 +26940,28 @@
         <v>0.0316</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.9819531519342974</v>
+        <v>-0.9497227867840379</v>
       </c>
       <c r="J13" t="n">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K13" t="n">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1770024389314396</v>
+        <v>0.1702276493778806</v>
       </c>
       <c r="M13" t="n">
-        <v>13.72832437923933</v>
+        <v>13.73138717331693</v>
       </c>
       <c r="N13" t="n">
-        <v>295.7853100806477</v>
+        <v>294.8384640538408</v>
       </c>
       <c r="O13" t="n">
-        <v>17.19841010328128</v>
+        <v>17.17086090019486</v>
       </c>
       <c r="P13" t="n">
-        <v>390.9621912591506</v>
+        <v>390.6809772830023</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -26648,28 +27018,28 @@
         <v>0.038</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.8800699996926702</v>
+        <v>-0.8784932839531213</v>
       </c>
       <c r="J14" t="n">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K14" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2038510536464946</v>
+        <v>0.2080134356497721</v>
       </c>
       <c r="M14" t="n">
-        <v>11.47062359073697</v>
+        <v>11.36645761511073</v>
       </c>
       <c r="N14" t="n">
-        <v>202.1932804425871</v>
+        <v>199.4447291133756</v>
       </c>
       <c r="O14" t="n">
-        <v>14.21946836005436</v>
+        <v>14.12249018811398</v>
       </c>
       <c r="P14" t="n">
-        <v>394.6230509336492</v>
+        <v>394.6095166556859</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -26726,28 +27096,28 @@
         <v>0.0409</v>
       </c>
       <c r="I15" t="n">
-        <v>-1.006821018761684</v>
+        <v>-1.009481093785206</v>
       </c>
       <c r="J15" t="n">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K15" t="n">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L15" t="n">
-        <v>0.211144765305882</v>
+        <v>0.2171503470517856</v>
       </c>
       <c r="M15" t="n">
-        <v>12.53273279937508</v>
+        <v>12.40008068049272</v>
       </c>
       <c r="N15" t="n">
-        <v>237.1724096045588</v>
+        <v>233.6113988606655</v>
       </c>
       <c r="O15" t="n">
-        <v>15.40040290396842</v>
+        <v>15.28435143735793</v>
       </c>
       <c r="P15" t="n">
-        <v>399.2653217459086</v>
+        <v>399.2901749828002</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -26804,28 +27174,28 @@
         <v>0.0396</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.9368141251241808</v>
+        <v>-0.9241881342980688</v>
       </c>
       <c r="J16" t="n">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K16" t="n">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L16" t="n">
-        <v>0.2055876823229873</v>
+        <v>0.2062162541422924</v>
       </c>
       <c r="M16" t="n">
-        <v>11.87410131922404</v>
+        <v>11.73942137798532</v>
       </c>
       <c r="N16" t="n">
-        <v>213.8269271707794</v>
+        <v>210.4613050720223</v>
       </c>
       <c r="O16" t="n">
-        <v>14.62282213427967</v>
+        <v>14.50728455197672</v>
       </c>
       <c r="P16" t="n">
-        <v>402.6990672089124</v>
+        <v>402.5823173886455</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -26882,28 +27252,28 @@
         <v>0.0373</v>
       </c>
       <c r="I17" t="n">
-        <v>-1.014008984139092</v>
+        <v>-0.9809799859606649</v>
       </c>
       <c r="J17" t="n">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K17" t="n">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L17" t="n">
-        <v>0.2639150578243765</v>
+        <v>0.2541355766914555</v>
       </c>
       <c r="M17" t="n">
-        <v>11.21778668005323</v>
+        <v>11.22975151164057</v>
       </c>
       <c r="N17" t="n">
-        <v>188.4688590227424</v>
+        <v>188.5225526422257</v>
       </c>
       <c r="O17" t="n">
-        <v>13.72839608340109</v>
+        <v>13.73035151196886</v>
       </c>
       <c r="P17" t="n">
-        <v>406.7442776190279</v>
+        <v>406.4541041342776</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -26960,28 +27330,28 @@
         <v>0.038</v>
       </c>
       <c r="I18" t="n">
-        <v>-1.084406534530724</v>
+        <v>-1.040076838683479</v>
       </c>
       <c r="J18" t="n">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K18" t="n">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="L18" t="n">
-        <v>0.281686206504409</v>
+        <v>0.2660003007650154</v>
       </c>
       <c r="M18" t="n">
-        <v>11.5166026564369</v>
+        <v>11.58321518727001</v>
       </c>
       <c r="N18" t="n">
-        <v>196.419962318816</v>
+        <v>198.6628582193532</v>
       </c>
       <c r="O18" t="n">
-        <v>14.01499062856683</v>
+        <v>14.09478124056394</v>
       </c>
       <c r="P18" t="n">
-        <v>408.2642914254779</v>
+        <v>407.8761135754877</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -27038,28 +27408,28 @@
         <v>0.0374</v>
       </c>
       <c r="I19" t="n">
-        <v>-1.100184995555432</v>
+        <v>-1.075255826322137</v>
       </c>
       <c r="J19" t="n">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K19" t="n">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L19" t="n">
-        <v>0.2863978689123619</v>
+        <v>0.2822051735035972</v>
       </c>
       <c r="M19" t="n">
-        <v>11.65079730413366</v>
+        <v>11.60237344395398</v>
       </c>
       <c r="N19" t="n">
-        <v>200.5399376243106</v>
+        <v>198.7000625295539</v>
       </c>
       <c r="O19" t="n">
-        <v>14.16121243482741</v>
+        <v>14.09610096904651</v>
       </c>
       <c r="P19" t="n">
-        <v>409.1862475399777</v>
+        <v>408.9713552263884</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -27116,28 +27486,28 @@
         <v>0.0365</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.9741522494629475</v>
+        <v>-0.9641797875234048</v>
       </c>
       <c r="J20" t="n">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K20" t="n">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L20" t="n">
-        <v>0.2045563612854446</v>
+        <v>0.2056788322723397</v>
       </c>
       <c r="M20" t="n">
-        <v>13.09985539531939</v>
+        <v>13.0165110566031</v>
       </c>
       <c r="N20" t="n">
-        <v>249.3909906212265</v>
+        <v>246.5578392366204</v>
       </c>
       <c r="O20" t="n">
-        <v>15.79211799035286</v>
+        <v>15.70216033661039</v>
       </c>
       <c r="P20" t="n">
-        <v>407.0128166250252</v>
+        <v>406.928454125691</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -27194,28 +27564,28 @@
         <v>0.0374</v>
       </c>
       <c r="I21" t="n">
-        <v>-1.46012231466572</v>
+        <v>-1.430598694410894</v>
       </c>
       <c r="J21" t="n">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K21" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L21" t="n">
-        <v>0.3619154644470978</v>
+        <v>0.3571764566634267</v>
       </c>
       <c r="M21" t="n">
-        <v>13.09664090107894</v>
+        <v>13.07850277203229</v>
       </c>
       <c r="N21" t="n">
-        <v>253.218788757398</v>
+        <v>252.1524455655761</v>
       </c>
       <c r="O21" t="n">
-        <v>15.91284980000119</v>
+        <v>15.87930872442425</v>
       </c>
       <c r="P21" t="n">
-        <v>416.9484526826294</v>
+        <v>416.6978244361477</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -27272,28 +27642,28 @@
         <v>0.0365</v>
       </c>
       <c r="I22" t="n">
-        <v>-1.486719994424563</v>
+        <v>-1.463002360129275</v>
       </c>
       <c r="J22" t="n">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K22" t="n">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L22" t="n">
-        <v>0.3902474332253028</v>
+        <v>0.3886415977975907</v>
       </c>
       <c r="M22" t="n">
-        <v>12.27216501037111</v>
+        <v>12.2033449433819</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1785213680948</v>
+        <v>227.1731163878113</v>
       </c>
       <c r="O22" t="n">
-        <v>15.1386433133255</v>
+        <v>15.07226314751077</v>
       </c>
       <c r="P22" t="n">
-        <v>420.9213789959086</v>
+        <v>420.7190325497052</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -27350,28 +27720,28 @@
         <v>0.0325</v>
       </c>
       <c r="I23" t="n">
-        <v>-1.237500153008119</v>
+        <v>-1.223956794200586</v>
       </c>
       <c r="J23" t="n">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K23" t="n">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L23" t="n">
-        <v>0.3173005246951425</v>
+        <v>0.3186621675126147</v>
       </c>
       <c r="M23" t="n">
-        <v>12.13135139409222</v>
+        <v>12.02643672364025</v>
       </c>
       <c r="N23" t="n">
-        <v>216.330085040904</v>
+        <v>213.9207301243324</v>
       </c>
       <c r="O23" t="n">
-        <v>14.7081638908772</v>
+        <v>14.62602919880623</v>
       </c>
       <c r="P23" t="n">
-        <v>419.6892311822959</v>
+        <v>419.5730416306848</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -27428,28 +27798,28 @@
         <v>0.0312</v>
       </c>
       <c r="I24" t="n">
-        <v>-1.272438354656391</v>
+        <v>-1.236670034390227</v>
       </c>
       <c r="J24" t="n">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K24" t="n">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L24" t="n">
-        <v>0.2882407730636072</v>
+        <v>0.2803318338633903</v>
       </c>
       <c r="M24" t="n">
-        <v>13.00789091773211</v>
+        <v>12.9933954442428</v>
       </c>
       <c r="N24" t="n">
-        <v>263.0837227845915</v>
+        <v>262.6656303293474</v>
       </c>
       <c r="O24" t="n">
-        <v>16.21985581885954</v>
+        <v>16.20696240291028</v>
       </c>
       <c r="P24" t="n">
-        <v>420.7376840140701</v>
+        <v>420.4293246305367</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -27506,28 +27876,28 @@
         <v>0.0339</v>
       </c>
       <c r="I25" t="n">
-        <v>-1.490657809254095</v>
+        <v>-1.436168178006223</v>
       </c>
       <c r="J25" t="n">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K25" t="n">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="L25" t="n">
-        <v>0.3517290696525022</v>
+        <v>0.3353446245117317</v>
       </c>
       <c r="M25" t="n">
-        <v>12.97315527727705</v>
+        <v>13.05379849230828</v>
       </c>
       <c r="N25" t="n">
-        <v>272.9112047545294</v>
+        <v>276.7449451459324</v>
       </c>
       <c r="O25" t="n">
-        <v>16.52002435695933</v>
+        <v>16.63565283197303</v>
       </c>
       <c r="P25" t="n">
-        <v>418.5825407358201</v>
+        <v>418.1141049975071</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -27584,28 +27954,28 @@
         <v>0.0376</v>
       </c>
       <c r="I26" t="n">
-        <v>-1.571720531052439</v>
+        <v>-1.50638527742426</v>
       </c>
       <c r="J26" t="n">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K26" t="n">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="L26" t="n">
-        <v>0.37816875041984</v>
+        <v>0.3569633510578747</v>
       </c>
       <c r="M26" t="n">
-        <v>12.78591152805519</v>
+        <v>12.98087007784058</v>
       </c>
       <c r="N26" t="n">
-        <v>264.7732820405328</v>
+        <v>271.0876798157132</v>
       </c>
       <c r="O26" t="n">
-        <v>16.27185551928645</v>
+        <v>16.46474050253186</v>
       </c>
       <c r="P26" t="n">
-        <v>409.1741234723603</v>
+        <v>408.611465297904</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -27662,28 +28032,28 @@
         <v>0.0431</v>
       </c>
       <c r="I27" t="n">
-        <v>-1.212718524010371</v>
+        <v>-1.157961276200574</v>
       </c>
       <c r="J27" t="n">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K27" t="n">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="L27" t="n">
-        <v>0.3075223348409858</v>
+        <v>0.2869379095356359</v>
       </c>
       <c r="M27" t="n">
-        <v>12.13088449956849</v>
+        <v>12.27016301150987</v>
       </c>
       <c r="N27" t="n">
-        <v>224.2100507756584</v>
+        <v>229.2394971036377</v>
       </c>
       <c r="O27" t="n">
-        <v>14.97364520668425</v>
+        <v>15.14065708955981</v>
       </c>
       <c r="P27" t="n">
-        <v>394.010704263593</v>
+        <v>393.5489544866342</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -27740,28 +28110,28 @@
         <v>0.0375</v>
       </c>
       <c r="I28" t="n">
-        <v>-1.1201668185459</v>
+        <v>-1.045861913348557</v>
       </c>
       <c r="J28" t="n">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K28" t="n">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="L28" t="n">
-        <v>0.261777112699297</v>
+        <v>0.2305669630911586</v>
       </c>
       <c r="M28" t="n">
-        <v>12.60739930689471</v>
+        <v>12.89115850663105</v>
       </c>
       <c r="N28" t="n">
-        <v>234.0849057207626</v>
+        <v>245.3706997465032</v>
       </c>
       <c r="O28" t="n">
-        <v>15.29983351938061</v>
+        <v>15.66431293566696</v>
       </c>
       <c r="P28" t="n">
-        <v>387.3603817385949</v>
+        <v>386.7207792210671</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -27818,28 +28188,28 @@
         <v>0.0368</v>
       </c>
       <c r="I29" t="n">
-        <v>-1.050459898816615</v>
+        <v>-0.9846814517659193</v>
       </c>
       <c r="J29" t="n">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K29" t="n">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L29" t="n">
-        <v>0.2489702363427243</v>
+        <v>0.221948893461922</v>
       </c>
       <c r="M29" t="n">
-        <v>12.25609232509088</v>
+        <v>12.42290156957173</v>
       </c>
       <c r="N29" t="n">
-        <v>220.9818402501287</v>
+        <v>229.120234439155</v>
       </c>
       <c r="O29" t="n">
-        <v>14.86545795628674</v>
+        <v>15.13671808679659</v>
       </c>
       <c r="P29" t="n">
-        <v>380.0638893278872</v>
+        <v>379.492622531369</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -27896,28 +28266,28 @@
         <v>0.0377</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.9244627864419011</v>
+        <v>-0.8534669949480039</v>
       </c>
       <c r="J30" t="n">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K30" t="n">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L30" t="n">
-        <v>0.1987298761569066</v>
+        <v>0.1716681325818953</v>
       </c>
       <c r="M30" t="n">
-        <v>12.27629561649175</v>
+        <v>12.4978313211988</v>
       </c>
       <c r="N30" t="n">
-        <v>227.7140052797848</v>
+        <v>235.9506624362539</v>
       </c>
       <c r="O30" t="n">
-        <v>15.09019566737903</v>
+        <v>15.36068561087863</v>
       </c>
       <c r="P30" t="n">
-        <v>375.58380021893</v>
+        <v>374.9692335374918</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -27974,28 +28344,28 @@
         <v>0.037</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.9394664449044321</v>
+        <v>-0.8804413836506368</v>
       </c>
       <c r="J31" t="n">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K31" t="n">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L31" t="n">
-        <v>0.2080714682226785</v>
+        <v>0.1866809783876573</v>
       </c>
       <c r="M31" t="n">
-        <v>12.15698025472394</v>
+        <v>12.29273916888658</v>
       </c>
       <c r="N31" t="n">
-        <v>221.7436290748545</v>
+        <v>226.4319950704804</v>
       </c>
       <c r="O31" t="n">
-        <v>14.89105869556811</v>
+        <v>15.04765746122899</v>
       </c>
       <c r="P31" t="n">
-        <v>377.1949422326946</v>
+        <v>376.6820059616077</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -28052,28 +28422,28 @@
         <v>0.0419</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.8159367374532551</v>
+        <v>-0.7886697169115314</v>
       </c>
       <c r="J32" t="n">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K32" t="n">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="L32" t="n">
-        <v>0.18616223482943</v>
+        <v>0.178367498839715</v>
       </c>
       <c r="M32" t="n">
-        <v>11.1432106731051</v>
+        <v>11.1325211412911</v>
       </c>
       <c r="N32" t="n">
-        <v>191.3877721235845</v>
+        <v>191.4146498421712</v>
       </c>
       <c r="O32" t="n">
-        <v>13.83429695082423</v>
+        <v>13.83526833285756</v>
       </c>
       <c r="P32" t="n">
-        <v>355.7945281057824</v>
+        <v>355.557964914718</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
@@ -28130,28 +28500,28 @@
         <v>0.048</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.5693832584514807</v>
+        <v>-0.5399232138381383</v>
       </c>
       <c r="J33" t="n">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K33" t="n">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="L33" t="n">
-        <v>0.1228679309670759</v>
+        <v>0.1132716105900743</v>
       </c>
       <c r="M33" t="n">
-        <v>10.06615831139057</v>
+        <v>10.06555538373882</v>
       </c>
       <c r="N33" t="n">
-        <v>152.8294278493186</v>
+        <v>153.1985566042832</v>
       </c>
       <c r="O33" t="n">
-        <v>12.36241998353553</v>
+        <v>12.37734044955875</v>
       </c>
       <c r="P33" t="n">
-        <v>338.1864579497918</v>
+        <v>337.9337323002429</v>
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
@@ -28208,28 +28578,28 @@
         <v>0.0384</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.6364913333450396</v>
+        <v>-0.5989480779079233</v>
       </c>
       <c r="J34" t="n">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K34" t="n">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L34" t="n">
-        <v>0.1014051195390547</v>
+        <v>0.09201436442549671</v>
       </c>
       <c r="M34" t="n">
-        <v>12.68338734215907</v>
+        <v>12.71675290080157</v>
       </c>
       <c r="N34" t="n">
-        <v>243.6798562322062</v>
+        <v>244.1363324345872</v>
       </c>
       <c r="O34" t="n">
-        <v>15.61024843595406</v>
+        <v>15.624862637303</v>
       </c>
       <c r="P34" t="n">
-        <v>333.0070071358558</v>
+        <v>332.6906498117215</v>
       </c>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
@@ -28286,28 +28656,28 @@
         <v>0.0468</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.2149082460441149</v>
+        <v>-0.2108177788992717</v>
       </c>
       <c r="J35" t="n">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K35" t="n">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L35" t="n">
-        <v>0.0068735464932701</v>
+        <v>0.006778550602613453</v>
       </c>
       <c r="M35" t="n">
-        <v>16.96019066560776</v>
+        <v>16.88532962397638</v>
       </c>
       <c r="N35" t="n">
-        <v>441.5317276334879</v>
+        <v>437.4159086648814</v>
       </c>
       <c r="O35" t="n">
-        <v>21.01265636785335</v>
+        <v>20.91449039935904</v>
       </c>
       <c r="P35" t="n">
-        <v>308.4436727485235</v>
+        <v>308.4078281297155</v>
       </c>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
@@ -28345,7 +28715,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ220"/>
+  <dimension ref="A1:AJ223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63845,6 +64215,548 @@
         </is>
       </c>
     </row>
+    <row r="221">
+      <c r="A221" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:17:29+00:00</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>-34.50670771877776,172.7022292395018</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>-34.50591704819799,172.7023693342123</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>-34.50519265577385,172.70218214056706</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>-34.50450123525781,172.7018321154114</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>-34.50381485835116,172.70145713846821</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>-34.50319076730621,172.70100051760866</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>-34.502581604613425,172.70056333690056</t>
+        </is>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>-34.502025101941,172.69996379566405</t>
+        </is>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>-34.501411972792624,172.69945970775996</t>
+        </is>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>-34.50082588207233,172.69891003130445</t>
+        </is>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>-34.500221628487225,172.6983909664268</t>
+        </is>
+      </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>-34.49959960996493,172.69790184226642</t>
+        </is>
+      </c>
+      <c r="N221" t="inlineStr">
+        <is>
+          <t>-34.498983042280095,172.6974035217854</t>
+        </is>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>-34.49836080535685,172.69691475111787</t>
+        </is>
+      </c>
+      <c r="P221" t="inlineStr">
+        <is>
+          <t>-34.497802384152294,172.69632443605508</t>
+        </is>
+      </c>
+      <c r="Q221" t="inlineStr">
+        <is>
+          <t>-34.497244849346515,172.6957412025691</t>
+        </is>
+      </c>
+      <c r="R221" t="inlineStr">
+        <is>
+          <t>-34.49668257444953,172.69516024988957</t>
+        </is>
+      </c>
+      <c r="S221" t="inlineStr">
+        <is>
+          <t>-34.49612140088714,172.69457351145357</t>
+        </is>
+      </c>
+      <c r="T221" t="inlineStr">
+        <is>
+          <t>-34.49554877799875,172.69400403031622</t>
+        </is>
+      </c>
+      <c r="U221" t="inlineStr">
+        <is>
+          <t>-34.494986694155735,172.6934186523377</t>
+        </is>
+      </c>
+      <c r="V221" t="inlineStr">
+        <is>
+          <t>-34.49441660832071,172.69284533377444</t>
+        </is>
+      </c>
+      <c r="W221" t="inlineStr">
+        <is>
+          <t>-34.4938590266392,172.69225315533274</t>
+        </is>
+      </c>
+      <c r="X221" t="inlineStr">
+        <is>
+          <t>-34.49333914766791,172.69165455675855</t>
+        </is>
+      </c>
+      <c r="Y221" t="inlineStr">
+        <is>
+          <t>-34.49285411432217,172.69103069217675</t>
+        </is>
+      </c>
+      <c r="Z221" t="inlineStr">
+        <is>
+          <t>-34.492319125666185,172.69041538211548</t>
+        </is>
+      </c>
+      <c r="AA221" t="inlineStr">
+        <is>
+          <t>-34.491787631561394,172.68978672160765</t>
+        </is>
+      </c>
+      <c r="AB221" t="inlineStr">
+        <is>
+          <t>-34.49127534479379,172.6891373219157</t>
+        </is>
+      </c>
+      <c r="AC221" t="inlineStr">
+        <is>
+          <t>-34.49073670891501,172.68851636571648</t>
+        </is>
+      </c>
+      <c r="AD221" t="inlineStr">
+        <is>
+          <t>-34.490227092569675,172.68786542769018</t>
+        </is>
+      </c>
+      <c r="AE221" t="inlineStr">
+        <is>
+          <t>-34.48973809873638,172.68722890663787</t>
+        </is>
+      </c>
+      <c r="AF221" t="inlineStr">
+        <is>
+          <t>-34.489292826880906,172.6865074203861</t>
+        </is>
+      </c>
+      <c r="AG221" t="inlineStr">
+        <is>
+          <t>-34.488907891902805,172.6857279564976</t>
+        </is>
+      </c>
+      <c r="AH221" t="inlineStr">
+        <is>
+          <t>-34.48861119477469,172.68490464541452</t>
+        </is>
+      </c>
+      <c r="AI221" t="inlineStr">
+        <is>
+          <t>-34.48817052150345,172.68415288048934</t>
+        </is>
+      </c>
+      <c r="AJ221" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:17:36+00:00</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>-34.50668276672567,172.70235244428008</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>-34.50590107532576,172.70244820142315</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>-34.50518074046653,172.70224097303955</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>-34.504480922494906,172.70193241100236</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>-34.5037613728443,172.70170735647895</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>-34.503124411023855,172.70116902579707</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>-34.50252696073456,172.7006554550542</t>
+        </is>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>-34.501860260578006,172.70024168352424</t>
+        </is>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>-34.501330226614556,172.69959751477714</t>
+        </is>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>-34.50075361574375,172.69903185735456</t>
+        </is>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>-34.500106687641264,172.6985847325927</t>
+        </is>
+      </c>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>-34.499485194830264,172.69809472195513</t>
+        </is>
+      </c>
+      <c r="N222" t="inlineStr">
+        <is>
+          <t>-34.49893252178966,172.69748868867904</t>
+        </is>
+      </c>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>-34.498358869484875,172.69691801458944</t>
+        </is>
+      </c>
+      <c r="P222" t="inlineStr">
+        <is>
+          <t>-34.4977914809471,172.696342178865</t>
+        </is>
+      </c>
+      <c r="Q222" t="inlineStr">
+        <is>
+          <t>-34.49723500327406,172.6957563574564</t>
+        </is>
+      </c>
+      <c r="R222" t="inlineStr">
+        <is>
+          <t>-34.49667576042492,172.69517052408463</t>
+        </is>
+      </c>
+      <c r="S222" t="inlineStr">
+        <is>
+          <t>-34.496090230488306,172.69462051024405</t>
+        </is>
+      </c>
+      <c r="T222" t="inlineStr">
+        <is>
+          <t>-34.49551140590292,172.69406038005997</t>
+        </is>
+      </c>
+      <c r="U222" t="inlineStr">
+        <is>
+          <t>-34.494883639409004,172.693574038487</t>
+        </is>
+      </c>
+      <c r="V222" t="inlineStr">
+        <is>
+          <t>-34.49434656579718,172.69295094417012</t>
+        </is>
+      </c>
+      <c r="W222" t="inlineStr">
+        <is>
+          <t>-34.49380020398556,172.69234184848872</t>
+        </is>
+      </c>
+      <c r="X222" t="inlineStr">
+        <is>
+          <t>-34.493227549559556,172.6918012975002</t>
+        </is>
+      </c>
+      <c r="Y222" t="inlineStr">
+        <is>
+          <t>-34.492705498058896,172.69119615270563</t>
+        </is>
+      </c>
+      <c r="Z222" t="inlineStr">
+        <is>
+          <t>-34.492160728771566,172.69058638627348</t>
+        </is>
+      </c>
+      <c r="AA222" t="inlineStr">
+        <is>
+          <t>-34.49160246599306,172.68998662520534</t>
+        </is>
+      </c>
+      <c r="AB222" t="inlineStr">
+        <is>
+          <t>-34.49110753611074,172.6893184875345</t>
+        </is>
+      </c>
+      <c r="AC222" t="inlineStr">
+        <is>
+          <t>-34.49057293487225,172.68869317575295</t>
+        </is>
+      </c>
+      <c r="AD222" t="inlineStr">
+        <is>
+          <t>-34.49012320012271,172.6879763819259</t>
+        </is>
+      </c>
+      <c r="AE222" t="inlineStr">
+        <is>
+          <t>-34.489629156526895,172.68731037247483</t>
+        </is>
+      </c>
+      <c r="AF222" t="inlineStr">
+        <is>
+          <t>-34.489155899795826,172.68657546178568</t>
+        </is>
+      </c>
+      <c r="AG222" t="inlineStr">
+        <is>
+          <t>-34.4887801361663,172.68579144107142</t>
+        </is>
+      </c>
+      <c r="AH222" t="inlineStr">
+        <is>
+          <t>-34.48844407840768,172.68498769002207</t>
+        </is>
+      </c>
+      <c r="AI222" t="inlineStr">
+        <is>
+          <t>-34.48790315007136,172.6842857453436</t>
+        </is>
+      </c>
+      <c r="AJ222" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-16 22:17:38+00:00</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>-34.50673079199292,172.70211531117104</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>-34.505874051338324,172.70258163367149</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr"/>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>-34.50452923214071,172.70169387822943</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>-34.50383832056794,172.7013473757396</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>-34.503159855301924,172.701079017078</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>-34.50248866970786,172.70072000557613</t>
+        </is>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>-34.502053763087495,172.69991547877865</t>
+        </is>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>-34.50136793947795,172.6995339388167</t>
+        </is>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>-34.50083105198769,172.6989013158828</t>
+        </is>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>-34.50027555340711,172.69830005995433</t>
+        </is>
+      </c>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>-34.49961030737028,172.6978838086527</t>
+        </is>
+      </c>
+      <c r="N223" t="inlineStr">
+        <is>
+          <t>-34.498906957633174,172.6975317843784</t>
+        </is>
+      </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>-34.49829879738292,172.6970192833264</t>
+        </is>
+      </c>
+      <c r="P223" t="inlineStr">
+        <is>
+          <t>-34.49779482869207,172.69633673107313</t>
+        </is>
+      </c>
+      <c r="Q223" t="inlineStr">
+        <is>
+          <t>-34.497325709547674,172.69561674384093</t>
+        </is>
+      </c>
+      <c r="R223" t="inlineStr">
+        <is>
+          <t>-34.49678938376756,172.69499920227108</t>
+        </is>
+      </c>
+      <c r="S223" t="inlineStr">
+        <is>
+          <t>-34.49609532084928,172.69461283499174</t>
+        </is>
+      </c>
+      <c r="T223" t="inlineStr">
+        <is>
+          <t>-34.4954433145206,172.6941630481924</t>
+        </is>
+      </c>
+      <c r="U223" t="inlineStr">
+        <is>
+          <t>-34.494981418595245,172.6934266068548</t>
+        </is>
+      </c>
+      <c r="V223" t="inlineStr">
+        <is>
+          <t>-34.49437774384638,172.69290393382258</t>
+        </is>
+      </c>
+      <c r="W223" t="inlineStr">
+        <is>
+          <t>-34.49377522782939,172.6923795076218</t>
+        </is>
+      </c>
+      <c r="X223" t="inlineStr">
+        <is>
+          <t>-34.493331318724856,172.69166485108354</t>
+        </is>
+      </c>
+      <c r="Y223" t="inlineStr">
+        <is>
+          <t>-34.4928625795188,172.69102126750371</t>
+        </is>
+      </c>
+      <c r="Z223" t="inlineStr">
+        <is>
+          <t>-34.49231801148115,172.69041658498492</t>
+        </is>
+      </c>
+      <c r="AA223" t="inlineStr">
+        <is>
+          <t>-34.491744735573775,172.68983303196063</t>
+        </is>
+      </c>
+      <c r="AB223" t="inlineStr">
+        <is>
+          <t>-34.49134119649136,172.68906622839216</t>
+        </is>
+      </c>
+      <c r="AC223" t="inlineStr">
+        <is>
+          <t>-34.49075993366845,172.68849129225316</t>
+        </is>
+      </c>
+      <c r="AD223" t="inlineStr">
+        <is>
+          <t>-34.49026123759827,172.68782896166758</t>
+        </is>
+      </c>
+      <c r="AE223" t="inlineStr">
+        <is>
+          <t>-34.48975308294088,172.68721770158757</t>
+        </is>
+      </c>
+      <c r="AF223" t="inlineStr">
+        <is>
+          <t>-34.489102465696085,172.6866020140331</t>
+        </is>
+      </c>
+      <c r="AG223" t="inlineStr">
+        <is>
+          <t>-34.48876139952005,172.68580075169606</t>
+        </is>
+      </c>
+      <c r="AH223" t="inlineStr">
+        <is>
+          <t>-34.48845911376031,172.68498021856678</t>
+        </is>
+      </c>
+      <c r="AI223" t="inlineStr">
+        <is>
+          <t>-34.487942930547256,172.6842659772955</t>
+        </is>
+      </c>
+      <c r="AJ223" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0008/nzd0008.xlsx
+++ b/data/nzd0008/nzd0008.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ223"/>
+  <dimension ref="A1:AJ224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23650,6 +23650,118 @@
         </is>
       </c>
     </row>
+    <row r="224">
+      <c r="A224" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-25 22:17:52+00:00</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>349.6533333333333</v>
+      </c>
+      <c r="C224" t="n">
+        <v>331.1733333333333</v>
+      </c>
+      <c r="D224" t="n">
+        <v>322.09</v>
+      </c>
+      <c r="E224" t="n">
+        <v>339.2157142857143</v>
+      </c>
+      <c r="F224" t="n">
+        <v>348.4833333333333</v>
+      </c>
+      <c r="G224" t="n">
+        <v>369.49</v>
+      </c>
+      <c r="H224" t="n">
+        <v>371.4733333333333</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>372.1933333333333</v>
+      </c>
+      <c r="K224" t="n">
+        <v>368.9057142857143</v>
+      </c>
+      <c r="L224" t="n">
+        <v>360.2333333333333</v>
+      </c>
+      <c r="M224" t="n">
+        <v>357.9933333333333</v>
+      </c>
+      <c r="N224" t="n">
+        <v>362.9257142857143</v>
+      </c>
+      <c r="O224" t="n">
+        <v>370.8257142857143</v>
+      </c>
+      <c r="P224" t="n">
+        <v>377.1557142857143</v>
+      </c>
+      <c r="Q224" t="n">
+        <v>394.0957142857143</v>
+      </c>
+      <c r="R224" t="n">
+        <v>396.4457142857143</v>
+      </c>
+      <c r="S224" t="n">
+        <v>395.6157142857143</v>
+      </c>
+      <c r="T224" t="n">
+        <v>387.3257142857143</v>
+      </c>
+      <c r="U224" t="n">
+        <v>378.4157142857143</v>
+      </c>
+      <c r="V224" t="n">
+        <v>382.0233333333333</v>
+      </c>
+      <c r="W224" t="n">
+        <v>393.9733333333333</v>
+      </c>
+      <c r="X224" t="n">
+        <v>401.1133333333333</v>
+      </c>
+      <c r="Y224" t="n">
+        <v>396.5233333333333</v>
+      </c>
+      <c r="Z224" t="n">
+        <v>382.8657142857143</v>
+      </c>
+      <c r="AA224" t="n">
+        <v>370.32</v>
+      </c>
+      <c r="AB224" t="n">
+        <v>367.5357142857143</v>
+      </c>
+      <c r="AC224" t="n">
+        <v>361.2457142857143</v>
+      </c>
+      <c r="AD224" t="n">
+        <v>362.8457142857143</v>
+      </c>
+      <c r="AE224" t="n">
+        <v>365.4357142857143</v>
+      </c>
+      <c r="AF224" t="n">
+        <v>345.4957142857143</v>
+      </c>
+      <c r="AG224" t="n">
+        <v>333.3588888888889</v>
+      </c>
+      <c r="AH224" t="n">
+        <v>323.4657142857143</v>
+      </c>
+      <c r="AI224" t="n">
+        <v>295.8</v>
+      </c>
+      <c r="AJ224" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -23661,7 +23773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B224"/>
+  <dimension ref="A1:B225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25909,6 +26021,16 @@
       </c>
       <c r="B224" t="n">
         <v>-0.73</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>2025-09-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>0.85</v>
       </c>
     </row>
   </sheetData>
@@ -26082,28 +26204,28 @@
         <v>0.0366</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3244639073345104</v>
+        <v>-0.341437488204012</v>
       </c>
       <c r="J2" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K2" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02132048253290331</v>
+        <v>0.02366806042758174</v>
       </c>
       <c r="M2" t="n">
-        <v>13.99447463513319</v>
+        <v>14.02213072351312</v>
       </c>
       <c r="N2" t="n">
-        <v>322.9798108344527</v>
+        <v>323.1409646227544</v>
       </c>
       <c r="O2" t="n">
-        <v>17.97163906922384</v>
+        <v>17.97612206853176</v>
       </c>
       <c r="P2" t="n">
-        <v>377.0943075134892</v>
+        <v>377.2416941535158</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26160,28 +26282,28 @@
         <v>0.0307</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.4711632338854411</v>
+        <v>-0.4858245676791095</v>
       </c>
       <c r="J3" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K3" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07035432490777604</v>
+        <v>0.07469883045491998</v>
       </c>
       <c r="M3" t="n">
-        <v>11.28610173619865</v>
+        <v>11.32620818493195</v>
       </c>
       <c r="N3" t="n">
-        <v>201.4189600766029</v>
+        <v>201.7964742152753</v>
       </c>
       <c r="O3" t="n">
-        <v>14.19221476995761</v>
+        <v>14.20550858699805</v>
       </c>
       <c r="P3" t="n">
-        <v>360.1654298302286</v>
+        <v>360.290171154942</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -26238,28 +26360,28 @@
         <v>0.0455</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3581096670714091</v>
+        <v>-0.3751241322106358</v>
       </c>
       <c r="J4" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K4" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05907500581221803</v>
+        <v>0.06429506766052984</v>
       </c>
       <c r="M4" t="n">
-        <v>9.651092550039426</v>
+        <v>9.702512315220211</v>
       </c>
       <c r="N4" t="n">
-        <v>139.501982857426</v>
+        <v>140.6363146718568</v>
       </c>
       <c r="O4" t="n">
-        <v>11.81109575176774</v>
+        <v>11.85901828448952</v>
       </c>
       <c r="P4" t="n">
-        <v>350.5524578636457</v>
+        <v>350.6963645539394</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26316,28 +26438,28 @@
         <v>0.0359</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2620965726295665</v>
+        <v>-0.268618548404856</v>
       </c>
       <c r="J5" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K5" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02925489624720867</v>
+        <v>0.03094635288597281</v>
       </c>
       <c r="M5" t="n">
-        <v>10.16271683390798</v>
+        <v>10.15337120476442</v>
       </c>
       <c r="N5" t="n">
-        <v>155.4330991548301</v>
+        <v>154.9064086401699</v>
       </c>
       <c r="O5" t="n">
-        <v>12.46728114525497</v>
+        <v>12.44614031096267</v>
       </c>
       <c r="P5" t="n">
-        <v>353.4138226508033</v>
+        <v>353.4692688103291</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26394,28 +26516,28 @@
         <v>0.0305</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.355247418035984</v>
+        <v>-0.3585603814205462</v>
       </c>
       <c r="J6" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K6" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0378394691448799</v>
+        <v>0.03890935156455055</v>
       </c>
       <c r="M6" t="n">
-        <v>11.88046262458786</v>
+        <v>11.84122569061606</v>
       </c>
       <c r="N6" t="n">
-        <v>216.9116796153359</v>
+        <v>215.885207415839</v>
       </c>
       <c r="O6" t="n">
-        <v>14.7279217683737</v>
+        <v>14.69303261467281</v>
       </c>
       <c r="P6" t="n">
-        <v>361.4848534750923</v>
+        <v>361.5128843296622</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26472,28 +26594,28 @@
         <v>0.0264</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2516992548070759</v>
+        <v>-0.2492843105353479</v>
       </c>
       <c r="J7" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K7" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01396323645237962</v>
+        <v>0.01384189926285218</v>
       </c>
       <c r="M7" t="n">
-        <v>13.82135843554413</v>
+        <v>13.76274701882158</v>
       </c>
       <c r="N7" t="n">
-        <v>306.0750076311029</v>
+        <v>304.5431985302741</v>
       </c>
       <c r="O7" t="n">
-        <v>17.49499950360396</v>
+        <v>17.45116610803628</v>
       </c>
       <c r="P7" t="n">
-        <v>373.3248216975984</v>
+        <v>373.3043914317596</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -26550,28 +26672,28 @@
         <v>0.0322</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2498878840500949</v>
+        <v>-0.2419724279094763</v>
       </c>
       <c r="J8" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K8" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01956109138939488</v>
+        <v>0.01852031461753345</v>
       </c>
       <c r="M8" t="n">
-        <v>11.7020321001246</v>
+        <v>11.68645200674003</v>
       </c>
       <c r="N8" t="n">
-        <v>214.1277721000661</v>
+        <v>213.4361178283188</v>
       </c>
       <c r="O8" t="n">
-        <v>14.63310534712527</v>
+        <v>14.60945302974478</v>
       </c>
       <c r="P8" t="n">
-        <v>369.024791798466</v>
+        <v>368.95781070283</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -26631,7 +26753,7 @@
         <v>-0.4208574163127032</v>
       </c>
       <c r="J9" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K9" t="n">
         <v>188</v>
@@ -26706,28 +26828,28 @@
         <v>0.0333</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.5390897819929362</v>
+        <v>-0.5303706908677429</v>
       </c>
       <c r="J10" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K10" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L10" t="n">
-        <v>0.07529603450438538</v>
+        <v>0.07363651195571341</v>
       </c>
       <c r="M10" t="n">
-        <v>12.7767218258879</v>
+        <v>12.75688911853098</v>
       </c>
       <c r="N10" t="n">
-        <v>244.177512049279</v>
+        <v>243.371270210455</v>
       </c>
       <c r="O10" t="n">
-        <v>15.62618034099437</v>
+        <v>15.60036122051201</v>
       </c>
       <c r="P10" t="n">
-        <v>376.5680995005937</v>
+        <v>376.4933895561833</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -26784,28 +26906,28 @@
         <v>0.0393</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.5712908516128834</v>
+        <v>-0.5677214288993463</v>
       </c>
       <c r="J11" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K11" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L11" t="n">
-        <v>0.08251717833885053</v>
+        <v>0.08235776605186329</v>
       </c>
       <c r="M11" t="n">
-        <v>12.1924972806199</v>
+        <v>12.14367565393703</v>
       </c>
       <c r="N11" t="n">
-        <v>242.7994262561181</v>
+        <v>241.5222424649396</v>
       </c>
       <c r="O11" t="n">
-        <v>15.58202253419363</v>
+        <v>15.54098589102183</v>
       </c>
       <c r="P11" t="n">
-        <v>380.0240268248879</v>
+        <v>379.9924428093884</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -26862,28 +26984,28 @@
         <v>0.0365</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.6671814547735702</v>
+        <v>-0.6716525796128712</v>
       </c>
       <c r="J12" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K12" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L12" t="n">
-        <v>0.09081451647606287</v>
+        <v>0.09280201260527621</v>
       </c>
       <c r="M12" t="n">
-        <v>13.8497813598018</v>
+        <v>13.79993371975503</v>
       </c>
       <c r="N12" t="n">
-        <v>297.2326024777072</v>
+        <v>295.7128231049732</v>
       </c>
       <c r="O12" t="n">
-        <v>17.24043510117152</v>
+        <v>17.19630259983155</v>
       </c>
       <c r="P12" t="n">
-        <v>382.397684123892</v>
+        <v>382.4370696847084</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -26940,28 +27062,28 @@
         <v>0.0316</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.9497227867840379</v>
+        <v>-0.9571405314111777</v>
       </c>
       <c r="J13" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K13" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1702276493778806</v>
+        <v>0.1738222174679158</v>
       </c>
       <c r="M13" t="n">
-        <v>13.73138717331693</v>
+        <v>13.69742637551405</v>
       </c>
       <c r="N13" t="n">
-        <v>294.8384640538408</v>
+        <v>293.5408738249985</v>
       </c>
       <c r="O13" t="n">
-        <v>17.17086090019486</v>
+        <v>17.13303457724284</v>
       </c>
       <c r="P13" t="n">
-        <v>390.6809772830023</v>
+        <v>390.746195621115</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -27018,28 +27140,28 @@
         <v>0.038</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.8784932839531213</v>
+        <v>-0.8864855868617771</v>
       </c>
       <c r="J14" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K14" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2080134356497721</v>
+        <v>0.2124135676714716</v>
       </c>
       <c r="M14" t="n">
-        <v>11.36645761511073</v>
+        <v>11.34871707983976</v>
       </c>
       <c r="N14" t="n">
-        <v>199.4447291133756</v>
+        <v>198.7626894369492</v>
       </c>
       <c r="O14" t="n">
-        <v>14.12249018811398</v>
+        <v>14.0983222206385</v>
       </c>
       <c r="P14" t="n">
-        <v>394.6095166556859</v>
+        <v>394.6794618244749</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -27096,28 +27218,28 @@
         <v>0.0409</v>
       </c>
       <c r="I15" t="n">
-        <v>-1.009481093785206</v>
+        <v>-1.011529557428461</v>
       </c>
       <c r="J15" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K15" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L15" t="n">
-        <v>0.2171503470517856</v>
+        <v>0.2196453839596996</v>
       </c>
       <c r="M15" t="n">
-        <v>12.40008068049272</v>
+        <v>12.34092858292938</v>
       </c>
       <c r="N15" t="n">
-        <v>233.6113988606655</v>
+        <v>232.3014744266885</v>
       </c>
       <c r="O15" t="n">
-        <v>15.28435143735793</v>
+        <v>15.24143938172142</v>
       </c>
       <c r="P15" t="n">
-        <v>399.2901749828002</v>
+        <v>399.3093534259165</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -27174,28 +27296,28 @@
         <v>0.0396</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.9241881342980688</v>
+        <v>-0.9254415163796311</v>
       </c>
       <c r="J16" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K16" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L16" t="n">
-        <v>0.2062162541422924</v>
+        <v>0.208398925476317</v>
       </c>
       <c r="M16" t="n">
-        <v>11.73942137798532</v>
+        <v>11.68009732854081</v>
       </c>
       <c r="N16" t="n">
-        <v>210.4613050720223</v>
+        <v>209.2681369616065</v>
       </c>
       <c r="O16" t="n">
-        <v>14.50728455197672</v>
+        <v>14.46610303300811</v>
       </c>
       <c r="P16" t="n">
-        <v>402.5823173886455</v>
+        <v>402.5939979782361</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -27252,28 +27374,28 @@
         <v>0.0373</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.9809799859606649</v>
+        <v>-0.968928426507958</v>
       </c>
       <c r="J17" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K17" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L17" t="n">
-        <v>0.2541355766914555</v>
+        <v>0.2505059776955614</v>
       </c>
       <c r="M17" t="n">
-        <v>11.22975151164057</v>
+        <v>11.23976392209015</v>
       </c>
       <c r="N17" t="n">
-        <v>188.5225526422257</v>
+        <v>188.4385070152368</v>
       </c>
       <c r="O17" t="n">
-        <v>13.73035151196886</v>
+        <v>13.72729059265654</v>
       </c>
       <c r="P17" t="n">
-        <v>406.4541041342776</v>
+        <v>406.347460217953</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -27330,28 +27452,28 @@
         <v>0.038</v>
       </c>
       <c r="I18" t="n">
-        <v>-1.040076838683479</v>
+        <v>-1.025846339449333</v>
       </c>
       <c r="J18" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K18" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2660003007650154</v>
+        <v>0.2614213374630553</v>
       </c>
       <c r="M18" t="n">
-        <v>11.58321518727001</v>
+        <v>11.60296127540868</v>
       </c>
       <c r="N18" t="n">
-        <v>198.6628582193532</v>
+        <v>198.8994462359919</v>
       </c>
       <c r="O18" t="n">
-        <v>14.09478124056394</v>
+        <v>14.10317149565983</v>
       </c>
       <c r="P18" t="n">
-        <v>407.8761135754877</v>
+        <v>407.7506136996389</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -27408,28 +27530,28 @@
         <v>0.0374</v>
       </c>
       <c r="I19" t="n">
-        <v>-1.075255826322137</v>
+        <v>-1.06196947794726</v>
       </c>
       <c r="J19" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K19" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L19" t="n">
-        <v>0.2822051735035972</v>
+        <v>0.2781573427410917</v>
       </c>
       <c r="M19" t="n">
-        <v>11.60237344395398</v>
+        <v>11.61405014356388</v>
       </c>
       <c r="N19" t="n">
-        <v>198.7000625295539</v>
+        <v>198.7771504871158</v>
       </c>
       <c r="O19" t="n">
-        <v>14.09610096904651</v>
+        <v>14.09883507553429</v>
       </c>
       <c r="P19" t="n">
-        <v>408.9713552263884</v>
+        <v>408.8559119169128</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -27486,28 +27608,28 @@
         <v>0.0365</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.9641797875234048</v>
+        <v>-0.9591906729829758</v>
       </c>
       <c r="J20" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K20" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L20" t="n">
-        <v>0.2056788322723397</v>
+        <v>0.2055946041302977</v>
       </c>
       <c r="M20" t="n">
-        <v>13.0165110566031</v>
+        <v>12.97518496641043</v>
       </c>
       <c r="N20" t="n">
-        <v>246.5578392366204</v>
+        <v>245.4088034825357</v>
       </c>
       <c r="O20" t="n">
-        <v>15.70216033661039</v>
+        <v>15.6655291478627</v>
       </c>
       <c r="P20" t="n">
-        <v>406.928454125691</v>
+        <v>406.885820387989</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -27564,28 +27686,28 @@
         <v>0.0374</v>
       </c>
       <c r="I21" t="n">
-        <v>-1.430598694410894</v>
+        <v>-1.431428352183955</v>
       </c>
       <c r="J21" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K21" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L21" t="n">
-        <v>0.3571764566634267</v>
+        <v>0.359847838535616</v>
       </c>
       <c r="M21" t="n">
-        <v>13.07850277203229</v>
+        <v>13.01432360055051</v>
       </c>
       <c r="N21" t="n">
-        <v>252.1524455655761</v>
+        <v>250.8298260670978</v>
       </c>
       <c r="O21" t="n">
-        <v>15.87930872442425</v>
+        <v>15.83760796544408</v>
       </c>
       <c r="P21" t="n">
-        <v>416.6978244361477</v>
+        <v>416.7049228289923</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -27642,28 +27764,28 @@
         <v>0.0365</v>
       </c>
       <c r="I22" t="n">
-        <v>-1.463002360129275</v>
+        <v>-1.463447223203686</v>
       </c>
       <c r="J22" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K22" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L22" t="n">
-        <v>0.3886415977975907</v>
+        <v>0.3912950274705705</v>
       </c>
       <c r="M22" t="n">
-        <v>12.2033449433819</v>
+        <v>12.14313797152447</v>
       </c>
       <c r="N22" t="n">
-        <v>227.1731163878113</v>
+        <v>226.0033865689749</v>
       </c>
       <c r="O22" t="n">
-        <v>15.07226314751077</v>
+        <v>15.0334090135596</v>
       </c>
       <c r="P22" t="n">
-        <v>420.7190325497052</v>
+        <v>420.7228578664664</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -27720,28 +27842,28 @@
         <v>0.0325</v>
       </c>
       <c r="I23" t="n">
-        <v>-1.223956794200586</v>
+        <v>-1.218205705748755</v>
       </c>
       <c r="J23" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K23" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L23" t="n">
-        <v>0.3186621675126147</v>
+        <v>0.3187356904156866</v>
       </c>
       <c r="M23" t="n">
-        <v>12.02643672364025</v>
+        <v>11.99342228814406</v>
       </c>
       <c r="N23" t="n">
-        <v>213.9207301243324</v>
+        <v>213.0183160797388</v>
       </c>
       <c r="O23" t="n">
-        <v>14.62602919880623</v>
+        <v>14.59514700438947</v>
       </c>
       <c r="P23" t="n">
-        <v>419.5730416306848</v>
+        <v>419.5232738084141</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -27798,28 +27920,28 @@
         <v>0.0312</v>
       </c>
       <c r="I24" t="n">
-        <v>-1.236670034390227</v>
+        <v>-1.225032402494772</v>
       </c>
       <c r="J24" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K24" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L24" t="n">
-        <v>0.2803318338633903</v>
+        <v>0.277991678971053</v>
       </c>
       <c r="M24" t="n">
-        <v>12.9933954442428</v>
+        <v>12.98643546558906</v>
       </c>
       <c r="N24" t="n">
-        <v>262.6656303293474</v>
+        <v>262.1628101379851</v>
       </c>
       <c r="O24" t="n">
-        <v>16.20696240291028</v>
+        <v>16.19144249713364</v>
       </c>
       <c r="P24" t="n">
-        <v>420.4293246305367</v>
+        <v>420.3282374820402</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -27876,28 +27998,28 @@
         <v>0.0339</v>
       </c>
       <c r="I25" t="n">
-        <v>-1.436168178006223</v>
+        <v>-1.422097375973786</v>
       </c>
       <c r="J25" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K25" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L25" t="n">
-        <v>0.3353446245117317</v>
+        <v>0.3322179362052518</v>
       </c>
       <c r="M25" t="n">
-        <v>13.05379849230828</v>
+        <v>13.06112131067118</v>
       </c>
       <c r="N25" t="n">
-        <v>276.7449451459324</v>
+        <v>276.600764433371</v>
       </c>
       <c r="O25" t="n">
-        <v>16.63565283197303</v>
+        <v>16.63131878214626</v>
       </c>
       <c r="P25" t="n">
-        <v>418.1141049975071</v>
+        <v>417.9922067898988</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -27954,28 +28076,28 @@
         <v>0.0376</v>
       </c>
       <c r="I26" t="n">
-        <v>-1.50638527742426</v>
+        <v>-1.494159518701188</v>
       </c>
       <c r="J26" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K26" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L26" t="n">
-        <v>0.3569633510578747</v>
+        <v>0.3548938904930811</v>
       </c>
       <c r="M26" t="n">
-        <v>12.98087007784058</v>
+        <v>12.98679588979288</v>
       </c>
       <c r="N26" t="n">
-        <v>271.0876798157132</v>
+        <v>270.6311487044804</v>
       </c>
       <c r="O26" t="n">
-        <v>16.46474050253186</v>
+        <v>16.450870758245</v>
       </c>
       <c r="P26" t="n">
-        <v>408.611465297904</v>
+        <v>408.5054080320245</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -28032,28 +28154,28 @@
         <v>0.0431</v>
       </c>
       <c r="I27" t="n">
-        <v>-1.157961276200574</v>
+        <v>-1.151792603458558</v>
       </c>
       <c r="J27" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K27" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L27" t="n">
-        <v>0.2869379095356359</v>
+        <v>0.2866565273335782</v>
       </c>
       <c r="M27" t="n">
-        <v>12.27016301150987</v>
+        <v>12.24289179480924</v>
       </c>
       <c r="N27" t="n">
-        <v>229.2394971036377</v>
+        <v>228.2970260435532</v>
       </c>
       <c r="O27" t="n">
-        <v>15.14065708955981</v>
+        <v>15.10950118447175</v>
       </c>
       <c r="P27" t="n">
-        <v>393.5489544866342</v>
+        <v>393.4965210048902</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
@@ -28110,28 +28232,28 @@
         <v>0.0375</v>
       </c>
       <c r="I28" t="n">
-        <v>-1.045861913348557</v>
+        <v>-1.038735611878971</v>
       </c>
       <c r="J28" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K28" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L28" t="n">
-        <v>0.2305669630911586</v>
+        <v>0.2297296618680881</v>
       </c>
       <c r="M28" t="n">
-        <v>12.89115850663105</v>
+        <v>12.87298885034208</v>
       </c>
       <c r="N28" t="n">
-        <v>245.3706997465032</v>
+        <v>244.4500976754021</v>
       </c>
       <c r="O28" t="n">
-        <v>15.66431293566696</v>
+        <v>15.63489998929965</v>
       </c>
       <c r="P28" t="n">
-        <v>386.7207792210671</v>
+        <v>386.6589800020413</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
@@ -28188,28 +28310,28 @@
         <v>0.0368</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.9846814517659193</v>
+        <v>-0.9780911706873761</v>
       </c>
       <c r="J29" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K29" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L29" t="n">
-        <v>0.221948893461922</v>
+        <v>0.2211745451527684</v>
       </c>
       <c r="M29" t="n">
-        <v>12.42290156957173</v>
+        <v>12.39539964284958</v>
       </c>
       <c r="N29" t="n">
-        <v>229.120234439155</v>
+        <v>228.2076548527881</v>
       </c>
       <c r="O29" t="n">
-        <v>15.13671808679659</v>
+        <v>15.10654344490453</v>
       </c>
       <c r="P29" t="n">
-        <v>379.492622531369</v>
+        <v>379.4349439702032</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
@@ -28266,28 +28388,28 @@
         <v>0.0377</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.8534669949480039</v>
+        <v>-0.8445128925246062</v>
       </c>
       <c r="J30" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K30" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L30" t="n">
-        <v>0.1716681325818953</v>
+        <v>0.1698206753918259</v>
       </c>
       <c r="M30" t="n">
-        <v>12.4978313211988</v>
+        <v>12.48567472735045</v>
       </c>
       <c r="N30" t="n">
-        <v>235.9506624362539</v>
+        <v>235.2582474824698</v>
       </c>
       <c r="O30" t="n">
-        <v>15.36068561087863</v>
+        <v>15.33813050806616</v>
       </c>
       <c r="P30" t="n">
-        <v>374.9692335374918</v>
+        <v>374.8911357321846</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -28344,28 +28466,28 @@
         <v>0.037</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.8804413836506368</v>
+        <v>-0.8700751229496343</v>
       </c>
       <c r="J31" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K31" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L31" t="n">
-        <v>0.1866809783876573</v>
+        <v>0.1841796406475915</v>
       </c>
       <c r="M31" t="n">
-        <v>12.29273916888658</v>
+        <v>12.28755945741842</v>
       </c>
       <c r="N31" t="n">
-        <v>226.4319950704804</v>
+        <v>225.9620119047723</v>
       </c>
       <c r="O31" t="n">
-        <v>15.04765746122899</v>
+        <v>15.0320328600217</v>
       </c>
       <c r="P31" t="n">
-        <v>376.6820059616077</v>
+        <v>376.5912317768293</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
@@ -28422,28 +28544,28 @@
         <v>0.0419</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.7886697169115314</v>
+        <v>-0.7793924718811122</v>
       </c>
       <c r="J32" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K32" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L32" t="n">
-        <v>0.178367498839715</v>
+        <v>0.1759870215157773</v>
       </c>
       <c r="M32" t="n">
-        <v>11.1325211412911</v>
+        <v>11.13226326419202</v>
       </c>
       <c r="N32" t="n">
-        <v>191.4146498421712</v>
+        <v>190.9927945367407</v>
       </c>
       <c r="O32" t="n">
-        <v>13.83526833285756</v>
+        <v>13.82001427411494</v>
       </c>
       <c r="P32" t="n">
-        <v>355.557964914718</v>
+        <v>355.4767885670919</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
@@ -28500,28 +28622,28 @@
         <v>0.048</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.5399232138381383</v>
+        <v>-0.5314716447781089</v>
       </c>
       <c r="J33" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K33" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L33" t="n">
-        <v>0.1132716105900743</v>
+        <v>0.1108758336860148</v>
       </c>
       <c r="M33" t="n">
-        <v>10.06555538373882</v>
+        <v>10.05879647099614</v>
       </c>
       <c r="N33" t="n">
-        <v>153.1985566042832</v>
+        <v>152.8706406867652</v>
       </c>
       <c r="O33" t="n">
-        <v>12.37734044955875</v>
+        <v>12.36408673080083</v>
       </c>
       <c r="P33" t="n">
-        <v>337.9337323002429</v>
+        <v>337.860633896735</v>
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
@@ -28578,28 +28700,28 @@
         <v>0.0384</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.5989480779079233</v>
+        <v>-0.5932959771227033</v>
       </c>
       <c r="J34" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K34" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L34" t="n">
-        <v>0.09201436442549671</v>
+        <v>0.09122862619196859</v>
       </c>
       <c r="M34" t="n">
-        <v>12.71675290080157</v>
+        <v>12.68522201806458</v>
       </c>
       <c r="N34" t="n">
-        <v>244.1363324345872</v>
+        <v>243.0700779889056</v>
       </c>
       <c r="O34" t="n">
-        <v>15.624862637303</v>
+        <v>15.59070485862989</v>
       </c>
       <c r="P34" t="n">
-        <v>332.6906498117215</v>
+        <v>332.6426188726998</v>
       </c>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
@@ -28656,28 +28778,28 @@
         <v>0.0468</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.2108177788992717</v>
+        <v>-0.2174789450500705</v>
       </c>
       <c r="J35" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K35" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L35" t="n">
-        <v>0.006778550602613453</v>
+        <v>0.007281845367472339</v>
       </c>
       <c r="M35" t="n">
-        <v>16.88532962397638</v>
+        <v>16.83192517829184</v>
       </c>
       <c r="N35" t="n">
-        <v>437.4159086648814</v>
+        <v>435.2126914411008</v>
       </c>
       <c r="O35" t="n">
-        <v>20.91449039935904</v>
+        <v>20.86175187852403</v>
       </c>
       <c r="P35" t="n">
-        <v>308.4078281297155</v>
+        <v>308.4671759642359</v>
       </c>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
@@ -28715,7 +28837,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ223"/>
+  <dimension ref="A1:AJ224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64757,6 +64879,184 @@
         </is>
       </c>
     </row>
+    <row r="224">
+      <c r="A224" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-25 22:17:52+00:00</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>-34.50665727878645,172.70247829437665</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>-34.505899010849724,172.70245839490218</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>-34.5051608744143,172.7023390623949</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>-34.50447889886772,172.70194240276848</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>-34.5037782745305,172.7016282866373</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>-34.50312305523047,172.70117246875205</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>-34.50254007457159,172.7006333478889</t>
+        </is>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>-34.50134260498151,172.69957664746494</t>
+        </is>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>-34.50072470467563,172.69908059530545</t>
+        </is>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>-34.500078517019205,172.6986322221935</t>
+        </is>
+      </c>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>-34.499466111020986,172.69812689311448</t>
+        </is>
+      </c>
+      <c r="N224" t="inlineStr">
+        <is>
+          <t>-34.49889137301949,172.69755805667768</t>
+        </is>
+      </c>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>-34.49833221747116,172.6969629442293</t>
+        </is>
+      </c>
+      <c r="P224" t="inlineStr">
+        <is>
+          <t>-34.497766411243546,172.69638297481532</t>
+        </is>
+      </c>
+      <c r="Q224" t="inlineStr">
+        <is>
+          <t>-34.49727768017849,172.69569066993063</t>
+        </is>
+      </c>
+      <c r="R224" t="inlineStr">
+        <is>
+          <t>-34.496716499580245,172.6951090974893</t>
+        </is>
+      </c>
+      <c r="S224" t="inlineStr">
+        <is>
+          <t>-34.496135254391824,172.69455262309103</t>
+        </is>
+      </c>
+      <c r="T224" t="inlineStr">
+        <is>
+          <t>-34.495511945543285,172.69405956638946</t>
+        </is>
+      </c>
+      <c r="U224" t="inlineStr">
+        <is>
+          <t>-34.494885137509925,172.6935717796524</t>
+        </is>
+      </c>
+      <c r="V224" t="inlineStr">
+        <is>
+          <t>-34.49432890010712,172.6929775805179</t>
+        </is>
+      </c>
+      <c r="W224" t="inlineStr">
+        <is>
+          <t>-34.49381969252057,172.6923124635815</t>
+        </is>
+      </c>
+      <c r="X224" t="inlineStr">
+        <is>
+          <t>-34.49330055198684,172.69170530642515</t>
+        </is>
+      </c>
+      <c r="Y224" t="inlineStr">
+        <is>
+          <t>-34.49278232588829,172.69111061726463</t>
+        </is>
+      </c>
+      <c r="Z224" t="inlineStr">
+        <is>
+          <t>-34.492201646312104,172.69054221207597</t>
+        </is>
+      </c>
+      <c r="AA224" t="inlineStr">
+        <is>
+          <t>-34.491625393193225,172.68996187321017</t>
+        </is>
+      </c>
+      <c r="AB224" t="inlineStr">
+        <is>
+          <t>-34.49111476866973,172.68931067931234</t>
+        </is>
+      </c>
+      <c r="AC224" t="inlineStr">
+        <is>
+          <t>-34.49058057081523,172.68868493203018</t>
+        </is>
+      </c>
+      <c r="AD224" t="inlineStr">
+        <is>
+          <t>-34.490099391221236,172.68800180911418</t>
+        </is>
+      </c>
+      <c r="AE224" t="inlineStr">
+        <is>
+          <t>-34.48963357073577,172.68730707158088</t>
+        </is>
+      </c>
+      <c r="AF224" t="inlineStr">
+        <is>
+          <t>-34.489188806143446,172.68655911008372</t>
+        </is>
+      </c>
+      <c r="AG224" t="inlineStr">
+        <is>
+          <t>-34.488807611019524,172.68577778824377</t>
+        </is>
+      </c>
+      <c r="AH224" t="inlineStr">
+        <is>
+          <t>-34.488445126831664,172.6849871690332</t>
+        </is>
+      </c>
+      <c r="AI224" t="inlineStr">
+        <is>
+          <t>-34.4879344240307,172.68427020442687</t>
+        </is>
+      </c>
+      <c r="AJ224" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0008/nzd0008.xlsx
+++ b/data/nzd0008/nzd0008.xlsx
@@ -26198,10 +26198,10 @@
         <v>0.03</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0288</v>
+        <v>0.0287</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0366</v>
+        <v>0.0307</v>
       </c>
       <c r="I2" t="n">
         <v>-0.3414163541800503</v>
@@ -26273,13 +26273,13 @@
         <v>0.9696888882870668</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0294</v>
+        <v>0.0349</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0307</v>
+        <v>0.0407</v>
       </c>
       <c r="I3" t="n">
         <v>-0.4858107371303753</v>
@@ -26354,10 +26354,10 @@
         <v>0.04</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0393</v>
+        <v>0.0395</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0455</v>
+        <v>0.0421</v>
       </c>
       <c r="I4" t="n">
         <v>-0.3751241322106358</v>
@@ -26432,10 +26432,10 @@
         <v>0.035</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03</v>
+        <v>0.0346</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0359</v>
+        <v>0.0379</v>
       </c>
       <c r="I5" t="n">
         <v>-0.2686470306220591</v>
@@ -26510,10 +26510,10 @@
         <v>0.03</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0293</v>
+        <v>0.0295</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0305</v>
+        <v>0.0309</v>
       </c>
       <c r="I6" t="n">
         <v>-0.3585537584548038</v>
@@ -26585,13 +26585,13 @@
         <v>0.8485839931936769</v>
       </c>
       <c r="F7" t="n">
-        <v>0.025</v>
+        <v>0.03</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0246</v>
+        <v>0.0292</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0264</v>
+        <v>0.0305</v>
       </c>
       <c r="I7" t="n">
         <v>-0.249284310535348</v>
@@ -26663,13 +26663,13 @@
         <v>0.818272881480884</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03</v>
+        <v>0.035</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0295</v>
+        <v>0.0344</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0322</v>
+        <v>0.0362</v>
       </c>
       <c r="I8" t="n">
         <v>-0.2419688810847927</v>
@@ -26747,7 +26747,7 @@
         <v>0.0288</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0316</v>
+        <v>0.0308</v>
       </c>
       <c r="I9" t="n">
         <v>-0.4208483642829007</v>
@@ -26819,13 +26819,13 @@
         <v>0.7576506580549542</v>
       </c>
       <c r="F10" t="n">
-        <v>0.03</v>
+        <v>0.035</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0293</v>
+        <v>0.0338</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0333</v>
+        <v>0.0363</v>
       </c>
       <c r="I10" t="n">
         <v>-0.5303584683860673</v>
@@ -26897,13 +26897,13 @@
         <v>0.7273395463420466</v>
       </c>
       <c r="F11" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G11" t="n">
         <v>0.035</v>
       </c>
-      <c r="G11" t="n">
-        <v>0.0334</v>
-      </c>
       <c r="H11" t="n">
-        <v>0.0393</v>
+        <v>0.0417</v>
       </c>
       <c r="I11" t="n">
         <v>-0.5677545242307053</v>
@@ -26978,10 +26978,10 @@
         <v>0.03</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0294</v>
+        <v>0.0295</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0365</v>
+        <v>0.0349</v>
       </c>
       <c r="I12" t="n">
         <v>-0.6716475090581784</v>
@@ -27053,13 +27053,13 @@
         <v>0.6667173229162314</v>
       </c>
       <c r="F13" t="n">
-        <v>0.03</v>
+        <v>0.035</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0264</v>
+        <v>0.0299</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0316</v>
+        <v>0.0377</v>
       </c>
       <c r="I13" t="n">
         <v>-0.9571263288995414</v>
@@ -27131,13 +27131,13 @@
         <v>0.6364062112035529</v>
       </c>
       <c r="F14" t="n">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0323</v>
+        <v>0.0389</v>
       </c>
       <c r="H14" t="n">
-        <v>0.038</v>
+        <v>0.0472</v>
       </c>
       <c r="I14" t="n">
         <v>-0.8865077631641733</v>
@@ -27209,13 +27209,13 @@
         <v>0.6060950994904163</v>
       </c>
       <c r="F15" t="n">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0329</v>
+        <v>0.0377</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0409</v>
+        <v>0.0446</v>
       </c>
       <c r="I15" t="n">
         <v>-1.011549786342915</v>
@@ -27287,13 +27287,13 @@
         <v>0.5757839877772797</v>
       </c>
       <c r="F16" t="n">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
       <c r="G16" t="n">
-        <v>0.033</v>
+        <v>0.0392</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0396</v>
+        <v>0.0452</v>
       </c>
       <c r="I16" t="n">
         <v>-0.9254526340825886</v>
@@ -27365,13 +27365,13 @@
         <v>0.5454831069634997</v>
       </c>
       <c r="F17" t="n">
-        <v>0.035</v>
+        <v>0.045</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0323</v>
+        <v>0.0398</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0373</v>
+        <v>0.0472</v>
       </c>
       <c r="I17" t="n">
         <v>-0.9689451237211744</v>
@@ -27443,13 +27443,13 @@
         <v>0.5151719952507348</v>
       </c>
       <c r="F18" t="n">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0332</v>
+        <v>0.0391</v>
       </c>
       <c r="H18" t="n">
-        <v>0.038</v>
+        <v>0.0468</v>
       </c>
       <c r="I18" t="n">
         <v>-1.025861753245457</v>
@@ -27521,13 +27521,13 @@
         <v>0.48486088353786</v>
       </c>
       <c r="F19" t="n">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0333</v>
+        <v>0.0388</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0374</v>
+        <v>0.0452</v>
       </c>
       <c r="I19" t="n">
         <v>-1.061979166011114</v>
@@ -27599,13 +27599,13 @@
         <v>0.4545497718247654</v>
       </c>
       <c r="F20" t="n">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0314</v>
+        <v>0.0348</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0365</v>
+        <v>0.0417</v>
       </c>
       <c r="I20" t="n">
         <v>-0.9591992788560392</v>
@@ -27680,10 +27680,10 @@
         <v>0.035</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0292</v>
+        <v>0.0334</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0374</v>
+        <v>0.0364</v>
       </c>
       <c r="I21" t="n">
         <v>-1.43144080097368</v>
@@ -27755,13 +27755,13 @@
         <v>0.393927548398796</v>
       </c>
       <c r="F22" t="n">
-        <v>0.03</v>
+        <v>0.035</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0294</v>
+        <v>0.0343</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0365</v>
+        <v>0.041</v>
       </c>
       <c r="I22" t="n">
         <v>-1.4634389530508</v>
@@ -27833,13 +27833,13 @@
         <v>0.3636164366858112</v>
       </c>
       <c r="F23" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0289</v>
+        <v>0.0345</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0325</v>
+        <v>0.0413</v>
       </c>
       <c r="I23" t="n">
         <v>-1.2181921914022</v>
@@ -27911,13 +27911,13 @@
         <v>0.3333053249728265</v>
       </c>
       <c r="F24" t="n">
-        <v>0.03</v>
+        <v>0.035</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0248</v>
+        <v>0.0335</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0312</v>
+        <v>0.0372</v>
       </c>
       <c r="I24" t="n">
         <v>-1.225019650509963</v>
@@ -27989,13 +27989,13 @@
         <v>0.3030571599649664</v>
       </c>
       <c r="F25" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0288</v>
+        <v>0.0344</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0339</v>
+        <v>0.0417</v>
       </c>
       <c r="I25" t="n">
         <v>-1.422088226092421</v>
@@ -28067,13 +28067,13 @@
         <v>0.2727460482522389</v>
       </c>
       <c r="F26" t="n">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0297</v>
+        <v>0.0357</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0376</v>
+        <v>0.0425</v>
       </c>
       <c r="I26" t="n">
         <v>-1.494185644127423</v>
@@ -28148,10 +28148,10 @@
         <v>0.04</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0339</v>
+        <v>0.0356</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0431</v>
+        <v>0.0428</v>
       </c>
       <c r="I27" t="n">
         <v>-1.151792603458558</v>
@@ -28223,13 +28223,13 @@
         <v>0.2121238248268777</v>
       </c>
       <c r="F28" t="n">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
       <c r="G28" t="n">
-        <v>0.033</v>
+        <v>0.036</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0375</v>
+        <v>0.0419</v>
       </c>
       <c r="I28" t="n">
         <v>-1.038765788476187</v>
@@ -28301,13 +28301,13 @@
         <v>0.1818127131133063</v>
       </c>
       <c r="F29" t="n">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0322</v>
+        <v>0.0357</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0368</v>
+        <v>0.0419</v>
       </c>
       <c r="I29" t="n">
         <v>-0.9781190036531787</v>
@@ -28379,13 +28379,13 @@
         <v>0.1515016014005788</v>
       </c>
       <c r="F30" t="n">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03</v>
+        <v>0.0385</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0377</v>
+        <v>0.0426</v>
       </c>
       <c r="I30" t="n">
         <v>-0.8445369249046882</v>
@@ -28457,13 +28457,13 @@
         <v>0.1212444468501234</v>
       </c>
       <c r="F31" t="n">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0296</v>
+        <v>0.0374</v>
       </c>
       <c r="H31" t="n">
-        <v>0.037</v>
+        <v>0.0438</v>
       </c>
       <c r="I31" t="n">
         <v>-0.8701030314386892</v>
@@ -28535,13 +28535,13 @@
         <v>0.09093333513807518</v>
       </c>
       <c r="F32" t="n">
-        <v>0.035</v>
+        <v>0.05</v>
       </c>
       <c r="G32" t="n">
-        <v>0.034</v>
+        <v>0.0466</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0419</v>
+        <v>0.0533</v>
       </c>
       <c r="I32" t="n">
         <v>-0.7794121668339901</v>
@@ -28613,13 +28613,13 @@
         <v>0.06062222342514174</v>
       </c>
       <c r="F33" t="n">
-        <v>0.045</v>
+        <v>0.05</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0388</v>
+        <v>0.0437</v>
       </c>
       <c r="H33" t="n">
-        <v>0.048</v>
+        <v>0.0528</v>
       </c>
       <c r="I33" t="n">
         <v>-0.5314472348719511</v>
@@ -28691,13 +28691,13 @@
         <v>0.0303111117120482</v>
       </c>
       <c r="F34" t="n">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0328</v>
+        <v>0.0391</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0384</v>
+        <v>0.0456</v>
       </c>
       <c r="I34" t="n">
         <v>-0.5933239913338944</v>
@@ -28769,13 +28769,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0366</v>
+        <v>0.042</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0468</v>
+        <v>0.0527</v>
       </c>
       <c r="I35" t="n">
         <v>-0.2174789450500705</v>
